--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06064624835202659</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06193973014430523</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01193973014430523</v>
+        <v>0.02363591433868553</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008116173705236053</v>
+        <v>0.01606679415165409</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0001656822184622139</v>
+        <v>0.001452313534358103</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007717339375952387</v>
+        <v>0.0007994937448605533</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001880948292560372</v>
+        <v>0.004705077318275935</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000808445059623282</v>
+        <v>0.0007846082028150507</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004823400569134856</v>
+        <v>0.00896792730742707</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007176859731069319</v>
+        <v>0.0007828640649704643</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008109718209915295</v>
+        <v>0.001452313534358103</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007231913560866498</v>
+        <v>0.0007994937448605533</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003545410721822913</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001543467875190477</v>
+        <v>0.001427499999999998</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003700370738298771</v>
+        <v>0.01007773295185177</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001616890119246564</v>
+        <v>0.001569216405630101</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01045835305736029</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001435371946213864</v>
+        <v>0.001867757009345796</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01610391823969864</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.0014463827121733</v>
+        <v>0.001427499999999998</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004040897148941437</v>
+        <v>0.004604146474198358</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002315201812785716</v>
+        <v>0.00239848123458166</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005842430328435788</v>
+        <v>0.01399999999999998</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002425335178869846</v>
+        <v>0.002056069958847734</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01524549845918419</v>
+        <v>0.02380256920475443</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002153057919320796</v>
+        <v>0.002348592194911393</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02408845571656798</v>
+        <v>0.004604146474198358</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002169574068259949</v>
+        <v>0.00239848123458166</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.006066218129992862</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002705391235078684</v>
+        <v>0.003197974979442213</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007591290054192013</v>
+        <v>0.0193110560573525</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003233780238493128</v>
+        <v>0.003138432811260203</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02002547776911445</v>
+        <v>0.03182844699830922</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002870743892427727</v>
+        <v>0.003131456259881857</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03100000000000003</v>
+        <v>0.006066218129992862</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00275716510903427</v>
+        <v>0.003197974979442213</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002705391235078684</v>
+        <v>0.001427499999999998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007351501602026266</v>
+        <v>0.006992130358191281</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003858669687976194</v>
+        <v>0.003997468724302767</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009231112906788033</v>
+        <v>0.02385060769807285</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00404222529811641</v>
+        <v>0.003923041014075253</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02423893198165894</v>
+        <v>0.03835286497850104</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00358842986553466</v>
+        <v>0.003914320324852322</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03737553661943294</v>
+        <v>0.006992130358191281</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003615956780433249</v>
+        <v>0.003997468724302767</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008350235263823787</v>
+        <v>0.008682779721969784</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004630403625571432</v>
+        <v>0.00479696246916332</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01094606187744444</v>
+        <v>0.02735371276172369</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004850670357739693</v>
+        <v>0.004707649216890303</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02882650209132551</v>
+        <v>0.04504666964907511</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004306115838641591</v>
+        <v>0.004697184389822785</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04378743389309298</v>
+        <v>0.008682779721969784</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004339148136519899</v>
+        <v>0.00479696246916332</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007265434087900736</v>
+        <v>0.009939062784504585</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005402137563166671</v>
+        <v>0.005596456214023874</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01252029995738184</v>
+        <v>0.03080772758548728</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005659115417362974</v>
+        <v>0.005492257419705354</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.05178070751377695</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005339383938393834</v>
+        <v>0.00548004845479325</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04906770569498148</v>
+        <v>0.009939062784504585</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005062339492606548</v>
+        <v>0.005596456214023874</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008105258398809809</v>
+        <v>0.01086187610897187</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006173871500761909</v>
+        <v>0.006395949958884426</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01403799013782081</v>
+        <v>0.0345000085065458</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006467560476986256</v>
+        <v>0.006276865622520405</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03532104819448864</v>
+        <v>0.05742582507635191</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005741487784855455</v>
+        <v>0.006262912519763715</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0530612193014936</v>
+        <v>0.01086187610897187</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005785530848693199</v>
+        <v>0.006395949958884426</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01087786852110367</v>
+        <v>0.0120521162585478</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006945605438357148</v>
+        <v>0.007195443703744981</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.015</v>
+        <v>0.03851791186208151</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.0071375</v>
+        <v>0.007061473825335456</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03745740201864931</v>
+        <v>0.06385286884054542</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006459173757962388</v>
+        <v>0.007045776584734179</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05901284198902429</v>
+        <v>0.0120521162585478</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006508722204779848</v>
+        <v>0.007195443703744981</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009591424779334987</v>
+        <v>0.01341067979640861</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007717339375952387</v>
+        <v>0.007994937448605534</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0159695049552552</v>
+        <v>0.04204879398927663</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00808445059623282</v>
+        <v>0.007846082028150507</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03991801783556589</v>
+        <v>0.06813268531010286</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00717685973106932</v>
+        <v>0.007828640649704644</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06366744103396849</v>
+        <v>0.01341067979640861</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007231913560866499</v>
+        <v>0.007994937448605534</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01193973014430523</v>
+        <v>0.01463846328573047</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008116173705236053</v>
+        <v>0.008794431193466087</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01702842316388832</v>
+        <v>0.04538001122531346</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008892895655856102</v>
+        <v>0.008630690230965557</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04266571331270155</v>
+        <v>0.07423612098876969</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007894545704176251</v>
+        <v>0.008611504714675108</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06786988371272146</v>
+        <v>0.01463846328573047</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007955104916953148</v>
+        <v>0.008794431193466087</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01093113782926233</v>
+        <v>0.01543636328968956</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009260807251142865</v>
+        <v>0.009593924938326641</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01758907499819642</v>
+        <v>0.04819891990737421</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009701340715479385</v>
+        <v>0.009415298433780606</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04466330611751926</v>
+        <v>0.07853402238029122</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008612231677283182</v>
+        <v>0.00939436877964557</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07256503730167801</v>
+        <v>0.01543636328968956</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008678296273039798</v>
+        <v>0.009593924938326641</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0126075129745117</v>
+        <v>0.0167052763714621</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0100325411887381</v>
+        <v>0.01039341868318719</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01818007979071742</v>
+        <v>0.05099287637264108</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01050978577510266</v>
+        <v>0.01019990663659566</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04577361391748205</v>
+        <v>0.08139723598841309</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009329917650390115</v>
+        <v>0.01017723284461604</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07719776907723325</v>
+        <v>0.0167052763714621</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009401487629126447</v>
+        <v>0.01039341868318719</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01228624082851978</v>
+        <v>0.01784609909422423</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01080427512633334</v>
+        <v>0.01119291242804775</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01873005687398917</v>
+        <v>0.05254923695829636</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01131823083472595</v>
+        <v>0.01098451483941071</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04855945438005299</v>
+        <v>0.08746097252079377</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01004760362349705</v>
+        <v>0.01111264248094642</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08101294631578215</v>
+        <v>0.01784609909422423</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0101246789852131</v>
+        <v>0.01119291242804775</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01396383360900651</v>
+        <v>0.01875972802115219</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01157600906392858</v>
+        <v>0.0119924061729083</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01956762558054957</v>
+        <v>0.05554844342973966</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01212667589434923</v>
+        <v>0.01165423324455517</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0494836451726951</v>
+        <v>0.08886118435617357</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01076528959660398</v>
+        <v>0.01174296097455696</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08746097252079377</v>
+        <v>0.01875972802115219</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01111264248094642</v>
+        <v>0.0119924061729083</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01563680353369182</v>
+        <v>0.01964705971542215</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01234774300152382</v>
+        <v>0.01279189991776885</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02042140524293655</v>
+        <v>0.05726904818823284</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01293512095397251</v>
+        <v>0.01255373124504081</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05200900396287142</v>
+        <v>0.09259657124764198</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01148297556971091</v>
+        <v>0.01252582503952743</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08950619057019976</v>
+        <v>0.01964705971542215</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0115710616973864</v>
+        <v>0.01279189991776885</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01430166282029568</v>
+        <v>0.02070899074021028</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01311947693911906</v>
+        <v>0.01359139366262941</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02112001519368795</v>
+        <v>0.05927175039325761</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01374356601359579</v>
+        <v>0.01333833944785586</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05554844342973966</v>
+        <v>0.095608774097934</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01246195238031641</v>
+        <v>0.01330868910449789</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09450011522445884</v>
+        <v>0.02070899074021028</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01229425305347305</v>
+        <v>0.01359139366262941</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.015954923686538</v>
+        <v>0.02154641765869279</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0138912108767143</v>
+        <v>0.01439088740748996</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02169207476534167</v>
+        <v>0.06196390337697485</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01455201107321908</v>
+        <v>0.01412294765067091</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05602950897957126</v>
+        <v>0.09899469714210379</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01291834751592478</v>
+        <v>0.01409155316946836</v>
       </c>
       <c r="N83" t="n">
-        <v>0.098803038220108</v>
+        <v>0.02154641765869279</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0130174444095597</v>
+        <v>0.01439088740748996</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01559309835013873</v>
+        <v>0.02266023703404589</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01466294481430953</v>
+        <v>0.01519038115235051</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02276620329043563</v>
+        <v>0.06424320207292497</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01536045613284236</v>
+        <v>0.01490755585348596</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0589696890719377</v>
+        <v>0.1024512446152056</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01363603348903171</v>
+        <v>0.01487441723443882</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1045666688334086</v>
+        <v>0.02266023703404589</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01374063576564635</v>
+        <v>0.01519038115235051</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01621269902881782</v>
+        <v>0.02363591433868553</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01543467875190477</v>
+        <v>0.01606679415165409</v>
       </c>
       <c r="J85" t="n">
+        <v>0.0661073414146483</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01569216405630101</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.1051753207522936</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01565728129940929</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.02363591433868553</v>
       </c>
-      <c r="K85" t="n">
+      <c r="O85" t="n">
         <v>0.01606679415165409</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.0621771652503513</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01435371946213864</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.1095427163406221</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.014463827121733</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01881023794029522</v>
+        <v>0.02433665744743715</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01620641268950001</v>
+        <v>0.01678936864207162</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02469849616510057</v>
+        <v>0.06815401633568524</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01697734625208892</v>
+        <v>0.01647677225911606</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06560282054437136</v>
+        <v>0.109063829788422</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01507140543524557</v>
+        <v>0.01644014536437975</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1145828900180096</v>
+        <v>0.02433665744743715</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01518701847781965</v>
+        <v>0.01678936864207162</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01738222730229086</v>
+        <v>0.02493798678467299</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01697814662709525</v>
+        <v>0.01758886238693217</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02638617231688997</v>
+        <v>0.07038092176957619</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0177857913117122</v>
+        <v>0.01726138046193111</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06919753798355718</v>
+        <v>0.1126136759586449</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0157890914083525</v>
+        <v>0.01722300942935022</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1190388991418327</v>
+        <v>0.02493798678467299</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0159102098339063</v>
+        <v>0.01758886238693217</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0189251793325247</v>
+        <v>0.0259529354877876</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01774988056469049</v>
+        <v>0.01838835613179273</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02835458423549599</v>
+        <v>0.07138575264986155</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01859423637133549</v>
+        <v>0.01804598866474617</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07201220059746813</v>
+        <v>0.1160217634980167</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01650677738145943</v>
+        <v>0.01800587349432068</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1249624529883525</v>
+        <v>0.0259529354877876</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01663340118999295</v>
+        <v>0.01838835613179273</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02043560624871665</v>
+        <v>0.02687891871684688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01852161450228573</v>
+        <v>0.01918784987665328</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03062191988517227</v>
+        <v>0.07376620391008168</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01940268143095877</v>
+        <v>0.01883059686756121</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07649769141566357</v>
+        <v>0.1177849966415913</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01722446335456636</v>
+        <v>0.01878873755929114</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1305052608338303</v>
+        <v>0.02687891871684688</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0173565925460796</v>
+        <v>0.01918784987665328</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01991002026858669</v>
+        <v>0.02801335163191659</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01929334843988097</v>
+        <v>0.01998734362151383</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03290636723017248</v>
+        <v>0.07631997048377692</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02021112649058205</v>
+        <v>0.01961520507037626</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07990489346770277</v>
+        <v>0.1220002796244232</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0179421493276733</v>
+        <v>0.01957160162426161</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1349190319545275</v>
+        <v>0.02801335163191659</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01807978390216624</v>
+        <v>0.01998734362151383</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02134493360985475</v>
+        <v>0.02905364939306262</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0200650823774762</v>
+        <v>0.02078683736637439</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03522611423475026</v>
+        <v>0.07764474730448773</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02101957155020533</v>
+        <v>0.02039981327319132</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08358468978314504</v>
+        <v>0.1240645166815663</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01865983530078023</v>
+        <v>0.02035446568923207</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1401554756267056</v>
+        <v>0.02905364939306262</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01880297525825289</v>
+        <v>0.02078683736637439</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02073685849024075</v>
+        <v>0.02979722716035077</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02083681631507145</v>
+        <v>0.02158633111123494</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03769934886315925</v>
+        <v>0.08003822930575438</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02182801660982861</v>
+        <v>0.02118442147600636</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08718796339154983</v>
+        <v>0.1277746120480749</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01937752127388716</v>
+        <v>0.02113732975420254</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1445663011266256</v>
+        <v>0.02979722716035077</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01952616661433955</v>
+        <v>0.02158633111123494</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02008230712746467</v>
+        <v>0.0305415000938469</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02160855025266668</v>
+        <v>0.0223858248560955</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0398442590796531</v>
+        <v>0.08129811142111737</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0226364616694519</v>
+        <v>0.02196902967882142</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09046559732247636</v>
+        <v>0.1305274699590032</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02009520724699409</v>
+        <v>0.021920193819173</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1483032177305491</v>
+        <v>0.0305415000938469</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02024935797042619</v>
+        <v>0.0223858248560955</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02137779173924644</v>
+        <v>0.0318838833536168</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02238028419026192</v>
+        <v>0.02318531860095605</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04157903284848549</v>
+        <v>0.08382208858411702</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02344490672907518</v>
+        <v>0.02275363788163647</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09296847460548394</v>
+        <v>0.1323199946494055</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02081289322010102</v>
+        <v>0.02270305788414346</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1526179347147373</v>
+        <v>0.0318838833536168</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02097254932651284</v>
+        <v>0.02318531860095605</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02261982454330599</v>
+        <v>0.03282179209972634</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02315201812785716</v>
+        <v>0.0239848123458166</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04352185813391002</v>
+        <v>0.0852078557282937</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02425335178869846</v>
+        <v>0.02353824608445152</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09654747827013202</v>
+        <v>0.1355490903543357</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02153057919320796</v>
+        <v>0.02348592194911393</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1559621613554515</v>
+        <v>0.03282179209972634</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02169574068259949</v>
+        <v>0.0239848123458166</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02280491775736326</v>
+        <v>0.03355264149224133</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0239237520654524</v>
+        <v>0.02478430609067716</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04469092290018037</v>
+        <v>0.08685310778718788</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02506179684832174</v>
+        <v>0.02432285428726657</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09915349134597989</v>
+        <v>0.1385116613088483</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02224826516631489</v>
+        <v>0.02426878601408439</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1596876069289531</v>
+        <v>0.03355264149224133</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02241893203868614</v>
+        <v>0.02478430609067716</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02092958359913823</v>
+        <v>0.03437384669122762</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02469548600304764</v>
+        <v>0.02558379983553771</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04550441511155018</v>
+        <v>0.08895553969433981</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02587024190794502</v>
+        <v>0.02510746249008162</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1012373968625869</v>
+        <v>0.1411046117479973</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02296595113942182</v>
+        <v>0.02505165007905486</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1628459807115034</v>
+        <v>0.03437384669122762</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02314212339477279</v>
+        <v>0.02558379983553771</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02299033428635081</v>
+        <v>0.03528282285675101</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02546721994064288</v>
+        <v>0.02638329358039826</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04568081498278689</v>
+        <v>0.08981284638328996</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02667868696756831</v>
+        <v>0.02589207069289667</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1028500778495122</v>
+        <v>0.144024845906837</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02368363711252875</v>
+        <v>0.02583451414402532</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1650889919793636</v>
+        <v>0.03528282285675101</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02386531475085944</v>
+        <v>0.02638329358039826</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02198838518755033</v>
+        <v>0.03607698514887735</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02623895387823812</v>
+        <v>0.02718278732525881</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04545418083000972</v>
+        <v>0.09132272278757872</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02748713202719159</v>
+        <v>0.02667667889571172</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1054424173363153</v>
+        <v>0.1460692680204213</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02440132308563569</v>
+        <v>0.02661737820899578</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1671683500087953</v>
+        <v>0.03607698514887735</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02458850610694609</v>
+        <v>0.02718278732525881</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02094315562412286</v>
+        <v>0.03735374872767246</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02701068781583335</v>
+        <v>0.02798228107011936</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04548029848750201</v>
+        <v>0.09388286384074643</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02829557708681487</v>
+        <v>0.02746128709852677</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1060652983525555</v>
+        <v>0.1489347823238047</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02511900905874262</v>
+        <v>0.02740024227396625</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1684357640760595</v>
+        <v>0.03735374872767246</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02531169746303274</v>
+        <v>0.02798228107011936</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02086063041240781</v>
+        <v>0.0380105287532022</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02778242175342859</v>
+        <v>0.02878177481497992</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04526324397691732</v>
+        <v>0.09519096447633346</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02910402214643815</v>
+        <v>0.02824589530134182</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1061696039277922</v>
+        <v>0.1501182930520414</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02583669503184955</v>
+        <v>0.02818310633893671</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1683429434574177</v>
+        <v>0.0380105287532022</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02603488881911939</v>
+        <v>0.02878177481497992</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02274480848351954</v>
+        <v>0.03894474038553238</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02855415569102383</v>
+        <v>0.02958126855984047</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04550709331990921</v>
+        <v>0.09654471962788025</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02991246720606143</v>
+        <v>0.02903050350415687</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1064479608333492</v>
+        <v>0.1531167044401854</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02655438100495648</v>
+        <v>0.02896597040390718</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1680579376347321</v>
+        <v>0.03894474038553238</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02675808017520604</v>
+        <v>0.02958126855984047</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02059968876857244</v>
+        <v>0.03955379878472882</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02932588962861907</v>
+        <v>0.03038076230470103</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04521592253813125</v>
+        <v>0.09814182422892714</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03072091226568472</v>
+        <v>0.02981511170697192</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1072021163343456</v>
+        <v>0.1554269207232911</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02727206697806342</v>
+        <v>0.02974883446887764</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1680715572497226</v>
+        <v>0.03955379878472882</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02748127153129269</v>
+        <v>0.03038076230470103</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02142927019868087</v>
+        <v>0.04063511911085738</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03009762356621431</v>
+        <v>0.03118025604956158</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04469380765323704</v>
+        <v>0.09947997321301447</v>
       </c>
       <c r="K104" t="n">
-        <v>0.031529357325308</v>
+        <v>0.03059971990978697</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1058132402805506</v>
+        <v>0.1567458461364123</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02798975295117034</v>
+        <v>0.03053169853384811</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1669022556425407</v>
+        <v>0.04063511911085738</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02820446288737934</v>
+        <v>0.03118025604956158</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02023755170495921</v>
+        <v>0.04098611652398386</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03086935750380955</v>
+        <v>0.03197974979442213</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04444482468688014</v>
+        <v>0.1001568615136827</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03233780238493128</v>
+        <v>0.03138432811260203</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1059953849328773</v>
+        <v>0.1580703849146037</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02870743892427728</v>
+        <v>0.03131456259881858</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1662666604834642</v>
+        <v>0.04098611652398386</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02892765424346599</v>
+        <v>0.03197974979442213</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02002853221852183</v>
+        <v>0.04170420618417413</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03164109144140479</v>
+        <v>0.03277924353928269</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04457304966071413</v>
+        <v>0.1014701840644723</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03314624744455456</v>
+        <v>0.03216893631541708</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1051626025522389</v>
+        <v>0.1608974412929191</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02942512489738421</v>
+        <v>0.03209742666378904</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1661813994427712</v>
+        <v>0.04170420618417413</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02965084559955264</v>
+        <v>0.03277924353928269</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02180621067048311</v>
+        <v>0.04238680325149398</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03241282537900003</v>
+        <v>0.03357873728414324</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04398255859639255</v>
+        <v>0.1032176357989233</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03395469250417784</v>
+        <v>0.03295354451823213</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1048289453995486</v>
+        <v>0.1621239195064128</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03014281087049114</v>
+        <v>0.0328802907287595</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1640631001907393</v>
+        <v>0.04238680325149398</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03037403695563929</v>
+        <v>0.03357873728414324</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0205745859919574</v>
+        <v>0.04313132288600928</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03318455931659527</v>
+        <v>0.03437823102900379</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04387742751556899</v>
+        <v>0.1031969116505765</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03476313756380113</v>
+        <v>0.03373815272104717</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1038084657357193</v>
+        <v>0.1633467237901391</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03086049684359807</v>
+        <v>0.03366315479372996</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1644283903976466</v>
+        <v>0.04313132288600928</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03109722831172594</v>
+        <v>0.03437823102900379</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0203376571140591</v>
+        <v>0.04373518024778582</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0339562932541905</v>
+        <v>0.03517772477386435</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04356173243989704</v>
+        <v>0.1046057065529721</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03557158262342441</v>
+        <v>0.03452276092386223</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1037152158216644</v>
+        <v>0.1661627583791521</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03157818281670501</v>
+        <v>0.03444601885870043</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1626938977337709</v>
+        <v>0.04373518024778582</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03182041966781259</v>
+        <v>0.03517772477386435</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02109942296790256</v>
+        <v>0.04459579049688944</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03472802719178574</v>
+        <v>0.0359772185187249</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04293954939103027</v>
+        <v>0.1056417154396505</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03638002768304769</v>
+        <v>0.03530736912667728</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1022632479182969</v>
+        <v>0.1659689275085058</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03229586878981194</v>
+        <v>0.03522888292367089</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1619762498693899</v>
+        <v>0.04459579049688944</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03254361102389924</v>
+        <v>0.0359772185187249</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01986388248460217</v>
+        <v>0.044710568793386</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03549976112938098</v>
+        <v>0.03677671226358546</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04261495439062224</v>
+        <v>0.1067026332441519</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03718847274267097</v>
+        <v>0.03609197732949233</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1017666142865301</v>
+        <v>0.1683621354132547</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03301355476291887</v>
+        <v>0.03601174698864135</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1608920744747818</v>
+        <v>0.044710568793386</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0332668023799859</v>
+        <v>0.03677671226358546</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01863503459527229</v>
+        <v>0.04547693029734132</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03627149506697622</v>
+        <v>0.037576206008446</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04259202346032651</v>
+        <v>0.1077861549000169</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03799691780229425</v>
+        <v>0.03687658553230738</v>
       </c>
       <c r="L112" t="n">
-        <v>0.100839367187277</v>
+        <v>0.1694392863284528</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0337312407360258</v>
+        <v>0.03679461105361182</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1592579992202242</v>
+        <v>0.04547693029734132</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03398999373607254</v>
+        <v>0.037576206008446</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02041687823102731</v>
+        <v>0.04559229016882123</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03704322900457146</v>
+        <v>0.03837569975330656</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04207483262179668</v>
+        <v>0.1080899753407858</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03880536286191754</v>
+        <v>0.03766119373512242</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09909555888145083</v>
+        <v>0.1700972844891545</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03444892670913273</v>
+        <v>0.03757747511858228</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1575906517759951</v>
+        <v>0.04559229016882123</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03471318509215919</v>
+        <v>0.03837569975330656</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01821341232298158</v>
+        <v>0.04635406356789154</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0378149629421667</v>
+        <v>0.03917519349816712</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0416674578966863</v>
+        <v>0.1086117894999991</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03961380792154082</v>
+        <v>0.03844580193793748</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09924924162996465</v>
+        <v>0.1719330341304138</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03516661268223966</v>
+        <v>0.03836033918355275</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1555066598123723</v>
+        <v>0.04635406356789154</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03543637644824584</v>
+        <v>0.03917519349816712</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02002863580224949</v>
+        <v>0.0465596656546181</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03858669687976193</v>
+        <v>0.03997468724302767</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04177397530664895</v>
+        <v>0.1092492923111971</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04042225298116411</v>
+        <v>0.03923041014075253</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09741446769373169</v>
+        <v>0.1719434394872847</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0358842986553466</v>
+        <v>0.03914320324852322</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1552226509996336</v>
+        <v>0.0465596656546181</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03615956780433249</v>
+        <v>0.03997468724302767</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0178665475999454</v>
+        <v>0.04690651158906675</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03935843081735717</v>
+        <v>0.04077418098788822</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04109846087333821</v>
+        <v>0.1099001787079202</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04123069804078738</v>
+        <v>0.04001501834356758</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09730528933366511</v>
+        <v>0.1725254047948219</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03660198462845352</v>
+        <v>0.03992606731349368</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1538552530080571</v>
+        <v>0.04690651158906675</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03688275916041914</v>
+        <v>0.04077418098788822</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01873114664718369</v>
+        <v>0.04679201653130331</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04013016475495241</v>
+        <v>0.04157367473274878</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04114499061840764</v>
+        <v>0.1094621436237086</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04203914310041066</v>
+        <v>0.04079962654638263</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09593575881067795</v>
+        <v>0.1739758342880791</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03731967060156046</v>
+        <v>0.04070893137846415</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1512210935079205</v>
+        <v>0.04679201653130331</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03760595051650579</v>
+        <v>0.04157367473274878</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01862643187507872</v>
+        <v>0.04681359564139362</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04090189869254765</v>
+        <v>0.04237316847760932</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04081764056351081</v>
+        <v>0.110132881992103</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04284758816003395</v>
+        <v>0.04158423474919768</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09461992838568348</v>
+        <v>0.1728916322021107</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03803735657466739</v>
+        <v>0.04149179544343461</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1504368001695018</v>
+        <v>0.04681359564139362</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03832914187259244</v>
+        <v>0.04237316847760932</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01755640221474489</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04167363263014289</v>
+        <v>0.04317266222246988</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04072048673030132</v>
+        <v>0.1104100887466435</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04365603321965723</v>
+        <v>0.04236884295201273</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09397185031959474</v>
+        <v>0.1740697027719709</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03875504254777432</v>
+        <v>0.04227465950840507</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1496190006630786</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03905233322867909</v>
+        <v>0.04317266222246988</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01852505659729655</v>
+        <v>0.04706939154214604</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04244536656773813</v>
+        <v>0.04397215596733044</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04035760514043273</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04446447827928051</v>
+        <v>0.04315345115482778</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0934055768733249</v>
+        <v>0.1749219450415875</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03947272852088126</v>
+        <v>0.04305752357337553</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1478843226589291</v>
+        <v>0.04706939154214604</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03977552458476574</v>
+        <v>0.04397215596733044</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01953609184450673</v>
+        <v>0.04685757276637073</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04321710050533337</v>
+        <v>0.04477164971219099</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04053307181555858</v>
+        <v>0.1106928673008327</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04527292333890379</v>
+        <v>0.04393805935764283</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09273516030778717</v>
+        <v>0.1741072244718618</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04019041449398818</v>
+        <v>0.043840387638346</v>
       </c>
       <c r="N121" t="n">
-        <v>0.147149393827331</v>
+        <v>0.04685757276637073</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04049871594085239</v>
+        <v>0.04477164971219099</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01858884508699976</v>
+        <v>0.04713623596520784</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04398883444292861</v>
+        <v>0.04557114345705154</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04015096277733249</v>
+        <v>0.1110720430914625</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04608136839852708</v>
+        <v>0.04472266756045789</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09307465288389463</v>
+        <v>0.1746056201068698</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04090810046709512</v>
+        <v>0.04462325170331647</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1471308418385622</v>
+        <v>0.04713623596520784</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04122190729693904</v>
+        <v>0.04557114345705154</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01767968549342117</v>
+        <v>0.0471057038172918</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04476056838052384</v>
+        <v>0.04637063720191209</v>
       </c>
       <c r="J123" t="n">
-        <v>0.040115354047408</v>
+        <v>0.1102338601199807</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04688981345815036</v>
+        <v>0.04550727576327294</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09193810686256049</v>
+        <v>0.1736116693807438</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04162578644020205</v>
+        <v>0.04540611576828692</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1448452943629005</v>
+        <v>0.0471057038172918</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04194509865302569</v>
+        <v>0.04637063720191209</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01780493665623553</v>
+        <v>0.04696629900125704</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04553230231811908</v>
+        <v>0.04717013094677264</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04004898066688541</v>
+        <v>0.1099787629025214</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04769825851777364</v>
+        <v>0.04629188396608799</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09163957450469784</v>
+        <v>0.17333034161286</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04234347241330898</v>
+        <v>0.04618897983325739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1442093790706239</v>
+        <v>0.04696629900125704</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04266829000911234</v>
+        <v>0.04717013094677264</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01896092216790743</v>
+        <v>0.04711834419573795</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04630403625571432</v>
+        <v>0.0479696246916332</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04018781414609905</v>
+        <v>0.1107071959552186</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04850670357739692</v>
+        <v>0.04707649216890303</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09259279060633244</v>
+        <v>0.1725666061225944</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04306115838641592</v>
+        <v>0.04697184389822786</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1441397236320102</v>
+        <v>0.04711834419573795</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04339148136519898</v>
+        <v>0.0479696246916332</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01914396562090147</v>
+        <v>0.04666216207936895</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04707577019330957</v>
+        <v>0.04876911843649376</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04062109166408537</v>
+        <v>0.1104196037942062</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0493151486370202</v>
+        <v>0.04786110037171809</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09169595236528577</v>
+        <v>0.1733254322293235</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04377884435952285</v>
+        <v>0.04775470796319832</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1439529557173372</v>
+        <v>0.04666216207936895</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04411467272128564</v>
+        <v>0.04876911843649376</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01935039060768223</v>
+        <v>0.04669807533078441</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0478475041309048</v>
+        <v>0.04956861218135431</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0409365135680539</v>
+        <v>0.1107164309356184</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05012359369664349</v>
+        <v>0.04864570857453314</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09243604891470222</v>
+        <v>0.172611789252423</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04449653033262978</v>
+        <v>0.04853757202816879</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1432659966429057</v>
+        <v>0.04669807533078441</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04483786407737229</v>
+        <v>0.04956861218135431</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01957652072071429</v>
+        <v>0.04692640662861876</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04861923806850004</v>
+        <v>0.05036810592621486</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04152178020521427</v>
+        <v>0.1094981218955892</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05093203875626677</v>
+        <v>0.04943031677734819</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09310204924657731</v>
+        <v>0.1712306465112693</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04521421630573671</v>
+        <v>0.04932043609313925</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1443357378916017</v>
+        <v>0.04692640662861876</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04556105543345894</v>
+        <v>0.05036810592621486</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01981867955246226</v>
+        <v>0.0464474786515064</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04939097200609528</v>
+        <v>0.05116759967107541</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04196459192277602</v>
+        <v>0.1104651211902525</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05174048381589005</v>
+        <v>0.05021492498016324</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09338292235290677</v>
+        <v>0.1713869733252383</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04593190227884364</v>
+        <v>0.05010330015810972</v>
       </c>
       <c r="N129" t="n">
-        <v>0.145478755360852</v>
+        <v>0.0464474786515064</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04628424678954559</v>
+        <v>0.05116759967107541</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02007319069539071</v>
+        <v>0.04666161407808175</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05016270594369052</v>
+        <v>0.05196709341593597</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04245264906794874</v>
+        <v>0.1092178733357423</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05254892887551333</v>
+        <v>0.05099953318297828</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09406763722568612</v>
+        <v>0.1708857390137065</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04664958825195058</v>
+        <v>0.05088616422308018</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1450707713226225</v>
+        <v>0.04666161407808175</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04700743814563223</v>
+        <v>0.05196709341593597</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02133637774196423</v>
+        <v>0.04646913558697921</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05093443988128575</v>
+        <v>0.05276658716079652</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04257365198794202</v>
+        <v>0.1099568228481929</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05335737393513661</v>
+        <v>0.05178414138579334</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09474516285691106</v>
+        <v>0.1701319128960497</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04736727422505751</v>
+        <v>0.05166902828805064</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1463875080488793</v>
+        <v>0.04646913558697921</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04773062950171889</v>
+        <v>0.05276658716079652</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01960456428464742</v>
+        <v>0.04617036585683319</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05170617381888099</v>
+        <v>0.05356608090565708</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04311530102996544</v>
+        <v>0.109282414243738</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0541658189947599</v>
+        <v>0.05256874958860839</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09590446823857718</v>
+        <v>0.1689304642916442</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04808496019816444</v>
+        <v>0.05245189235302111</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1476046878115889</v>
+        <v>0.04617036585683319</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04845382085780554</v>
+        <v>0.05356608090565708</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02087407391590487</v>
+        <v>0.04626562756627808</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05247790775647623</v>
+        <v>0.05436557465051763</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04386529654122856</v>
+        <v>0.1096950920385116</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05497426405438317</v>
+        <v>0.05335335779142344</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09603452236268004</v>
+        <v>0.1669863625198659</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04880264617127137</v>
+        <v>0.05323475641799157</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1495980328827169</v>
+        <v>0.04626562756627808</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04917701221389219</v>
+        <v>0.05436557465051763</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02014123022820116</v>
+        <v>0.04605524339394833</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05324964169407147</v>
+        <v>0.05516506839537818</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04421133886894098</v>
+        <v>0.109095300748648</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05578270911400646</v>
+        <v>0.05413796599423849</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09652429422121536</v>
+        <v>0.1671045769000913</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0495203321443783</v>
+        <v>0.05401762048296203</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1503432655342297</v>
+        <v>0.04605524339394833</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04990020356997884</v>
+        <v>0.05516506839537818</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02040235681400088</v>
+        <v>0.04613953601847828</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05402137563166671</v>
+        <v>0.05596456214023873</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04494112836031228</v>
+        <v>0.108383484890281</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05659115417362975</v>
+        <v>0.05492257419705354</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09816275280617867</v>
+        <v>0.1652900767516963</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05023801811748524</v>
+        <v>0.05480048454793249</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1510161080380933</v>
+        <v>0.04613953601847828</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05062339492606548</v>
+        <v>0.05596456214023873</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02265377726576863</v>
+        <v>0.04611882811850239</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05479310956926194</v>
+        <v>0.05676405588509929</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04524236536255202</v>
+        <v>0.1089600889795447</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05739959923325302</v>
+        <v>0.0557071823998686</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09903886710956564</v>
+        <v>0.165647831394057</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05095570409059216</v>
+        <v>0.05558334861290296</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1536922826662739</v>
+        <v>0.04611882811850239</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05134658628215213</v>
+        <v>0.05676405588509929</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02089181517596897</v>
+        <v>0.04579344237265505</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05556484350685718</v>
+        <v>0.05756354962995985</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0461027502228698</v>
+        <v>0.1081255575325731</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05820804429287631</v>
+        <v>0.05649179060268365</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09984160612337181</v>
+        <v>0.1638828101465497</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0516733900636991</v>
+        <v>0.05636621267787343</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1550475116907375</v>
+        <v>0.04579344237265505</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05206977763823879</v>
+        <v>0.05756354962995985</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02211279413706652</v>
+        <v>0.04586370145957067</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05633657744445243</v>
+        <v>0.05836304337482039</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0461099832884752</v>
+        <v>0.1085803350655002</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05901648935249959</v>
+        <v>0.05727639880549869</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1008599388395929</v>
+        <v>0.1636999823285504</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05239107603680603</v>
+        <v>0.05714907674284389</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1574575173834502</v>
+        <v>0.04586370145957067</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05279296899432543</v>
+        <v>0.05836304337482039</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02231303774152586</v>
+        <v>0.04532992805788365</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05710831138204766</v>
+        <v>0.05916253711968095</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04665176490657778</v>
+        <v>0.10762486609446</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05982493441212287</v>
+        <v>0.05806100700831374</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1024828342502245</v>
+        <v>0.1630043172594353</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05310876200991296</v>
+        <v>0.05793194080781436</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1584980220163782</v>
+        <v>0.04532992805788365</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05351616035041209</v>
+        <v>0.05916253711968095</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02248886958181157</v>
+        <v>0.0454924448462284</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05788004531964291</v>
+        <v>0.05996203086454149</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04671579542438714</v>
+        <v>0.1074595951355867</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06063337947174615</v>
+        <v>0.0588456152111288</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1032992613472621</v>
+        <v>0.1619007842585805</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05382644798301989</v>
+        <v>0.05871480487278482</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1600447478614876</v>
+        <v>0.0454924448462284</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05423935170649874</v>
+        <v>0.05996203086454149</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02163661325038825</v>
+        <v>0.04545157450323933</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05865177925723813</v>
+        <v>0.06076152460940205</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04727182867737106</v>
+        <v>0.1072849667050141</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06144182453136943</v>
+        <v>0.05963022341394385</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1036981891227016</v>
+        <v>0.1596943526453621</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05454413395612683</v>
+        <v>0.05949766893775529</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1618734171907444</v>
+        <v>0.04545157450323933</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05496254306258538</v>
+        <v>0.06076152460940205</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02375259233972048</v>
+        <v>0.04500763970755084</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05942351319483338</v>
+        <v>0.06156101835426261</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04702770309831175</v>
+        <v>0.1070014253188763</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06225026959099272</v>
+        <v>0.0604148316167589</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1054685865685384</v>
+        <v>0.1598899917391564</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05526181992923376</v>
+        <v>0.06028053300272575</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1647597522761148</v>
+        <v>0.04500763970755084</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05568573441867204</v>
+        <v>0.06156101835426261</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02183313044227286</v>
+        <v>0.04496096313779734</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06019524713242861</v>
+        <v>0.06236051209912316</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04756205385621382</v>
+        <v>0.1065094154933072</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06305871465061599</v>
+        <v>0.06119943981957394</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1055994226767681</v>
+        <v>0.1579926708593393</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05597950590234069</v>
+        <v>0.06106339706769622</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1667794753895649</v>
+        <v>0.04496096313779734</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05640892577475868</v>
+        <v>0.06236051209912316</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02387946028861046</v>
+        <v>0.04491186747261323</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06096698107002386</v>
+        <v>0.06316000584398372</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04749368220124445</v>
+        <v>0.1065093817444411</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06386715971023928</v>
+        <v>0.06198404802238901</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1066796664393865</v>
+        <v>0.156707359325287</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05669719187544762</v>
+        <v>0.06184626113266668</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1670083088030608</v>
+        <v>0.04491186747261323</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05713211713084534</v>
+        <v>0.06316000584398372</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02187903965568624</v>
+        <v>0.04446067539063295</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0617387150076191</v>
+        <v>0.06395949958884427</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04742252826912546</v>
+        <v>0.1061017685884117</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06467560476986256</v>
+        <v>0.06276865622520406</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1081982868483889</v>
+        <v>0.1554390264563758</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05741487784855456</v>
+        <v>0.06262912519763715</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1685219747885686</v>
+        <v>0.04446067539063295</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05785530848693199</v>
+        <v>0.06395949958884427</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02187597513024149</v>
+        <v>0.04450770957049084</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06251044894521433</v>
+        <v>0.06475899333370483</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04764853219557873</v>
+        <v>0.1056870205413533</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06548404982948584</v>
+        <v>0.0635532644280191</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1080442528957713</v>
+        <v>0.1555926415719816</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05813256382166149</v>
+        <v>0.0634119892626076</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1701961956180544</v>
+        <v>0.04450770957049084</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05857849984301863</v>
+        <v>0.06475899333370483</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02387003572933022</v>
+        <v>0.04435329269082137</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06328218288280958</v>
+        <v>0.06555848707856538</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04787163411632603</v>
+        <v>0.1059655821193997</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06629249488910913</v>
+        <v>0.06433787263083415</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1086065335735291</v>
+        <v>0.1548731739914807</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05885024979476841</v>
+        <v>0.06419485332757807</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1718066935634843</v>
+        <v>0.04435329269082137</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05930169119910528</v>
+        <v>0.06555848707856538</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02286133246380508</v>
+        <v>0.04399774743025894</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0640539168204048</v>
+        <v>0.06635798082342592</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04809177416708925</v>
+        <v>0.105237897838685</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06710093994873241</v>
+        <v>0.0651224808336492</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1090740978736579</v>
+        <v>0.1535855930342492</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05956793576787535</v>
+        <v>0.06497771739254854</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1726291908968244</v>
+        <v>0.04399774743025894</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06002488255519193</v>
+        <v>0.06635798082342592</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02284997634451875</v>
+        <v>0.04404139646743792</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06482565075800005</v>
+        <v>0.06715747456828648</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04800889248359021</v>
+        <v>0.1052044122153432</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06790938500835568</v>
+        <v>0.06590708903646425</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1098359147881534</v>
+        <v>0.1522348680196631</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06028562174098228</v>
+        <v>0.06576058145751901</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1730394098900409</v>
+        <v>0.04404139646743792</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06074807391127859</v>
+        <v>0.06715747456828648</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02383607838232389</v>
+        <v>0.04398456248099274</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06559738469559528</v>
+        <v>0.06795696831314703</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04842292920155075</v>
+        <v>0.1045655697655084</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06871783006797898</v>
+        <v>0.0666916972392793</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1110968868594793</v>
+        <v>0.1523259682670987</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06100330771408922</v>
+        <v>0.06654344552248947</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1749219450415875</v>
+        <v>0.04398456248099274</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06147126526736522</v>
+        <v>0.06795696831314703</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02181974958807315</v>
+        <v>0.04392756814955781</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06636911863319053</v>
+        <v>0.06875646205800759</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04843382445669273</v>
+        <v>0.1039218150053144</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06952627512760226</v>
+        <v>0.06747630544209435</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1108174377305886</v>
+        <v>0.150163863095932</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06172099368719615</v>
+        <v>0.06732630958745993</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1752100566689166</v>
+        <v>0.04392756814955781</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06219445662345188</v>
+        <v>0.06875646205800759</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02180110097261918</v>
+        <v>0.04357073615176753</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06714085257078577</v>
+        <v>0.06955595580286814</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04834151838473796</v>
+        <v>0.1043735924508956</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07033472018722553</v>
+        <v>0.0682609136449094</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1105365506912523</v>
+        <v>0.1498535218255393</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06243867966030307</v>
+        <v>0.0681091736524304</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1748951794476373</v>
+        <v>0.04357073615176753</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06291764797953854</v>
+        <v>0.06955595580286814</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02178024354681465</v>
+        <v>0.04331438916625632</v>
       </c>
       <c r="G153" t="n">
-        <v>0.067912586508381</v>
+        <v>0.0703554495477287</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04834595112140831</v>
+        <v>0.1039213466183856</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07114316524684881</v>
+        <v>0.06904552184772446</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1111513578261779</v>
+        <v>0.1502909394440783</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06315636563341001</v>
+        <v>0.06889203771740086</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1750728641924451</v>
+        <v>0.04331438916625632</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06364083933562519</v>
+        <v>0.0703554495477287</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02375728832151222</v>
+        <v>0.04345884987165856</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06868432044597625</v>
+        <v>0.07115494329258924</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04844706280242558</v>
+        <v>0.1028655220239187</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0719516103064721</v>
+        <v>0.06983013005053951</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1108615938632281</v>
+        <v>0.1492468793921221</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06387405160651694</v>
+        <v>0.06967490178237133</v>
       </c>
       <c r="N154" t="n">
-        <v>0.176542865788103</v>
+        <v>0.04345884987165856</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06436403069171183</v>
+        <v>0.07115494329258924</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02273234630756454</v>
+        <v>0.04310444094660866</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06945605438357148</v>
+        <v>0.0719544370374498</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04864479356351165</v>
+        <v>0.1031065631836289</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07276005536609538</v>
+        <v>0.07061473825335456</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1112669935302661</v>
+        <v>0.148417890362211</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06459173757962387</v>
+        <v>0.07045776584734179</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1771049391193738</v>
+        <v>0.04310444094660866</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06508722204779847</v>
+        <v>0.0719544370374498</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02270552851582427</v>
+        <v>0.04295148506974104</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07022778832116672</v>
+        <v>0.07275393078231036</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04873908354038832</v>
+        <v>0.10294491461365</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07356850042571866</v>
+        <v>0.0713993464561696</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1122672915551548</v>
+        <v>0.1482031488582395</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06530942355273081</v>
+        <v>0.07124062991231224</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1777588390710206</v>
+        <v>0.04295148506974104</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06581041340388513</v>
+        <v>0.07275393078231036</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02267694595714409</v>
+        <v>0.04299956676781237</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07099952225876195</v>
+        <v>0.07355342452717091</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04902987286877745</v>
+        <v>0.1022810208301162</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07437694548534195</v>
+        <v>0.07218395465898467</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1113622226657572</v>
+        <v>0.1463018313841024</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06602710952583773</v>
+        <v>0.07202349397728271</v>
       </c>
       <c r="N157" t="n">
-        <v>0.178004320527806</v>
+        <v>0.04299956676781237</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06653360475997179</v>
+        <v>0.07355342452717091</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02264670964237663</v>
+        <v>0.04243940707259608</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0717712561963572</v>
+        <v>0.07435291827203146</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04901710168440089</v>
+        <v>0.1020153263491616</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07518539054496523</v>
+        <v>0.07296856286179972</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1117515215899362</v>
+        <v>0.1471131144436942</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06674479549894467</v>
+        <v>0.07280635804225317</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1784411383744931</v>
+        <v>0.04243940707259608</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06725679611605843</v>
+        <v>0.07435291827203146</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02261493058237455</v>
+        <v>0.04266859134632417</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07254299013395245</v>
+        <v>0.075152412016892</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04900071012298046</v>
+        <v>0.1016482756869199</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0759938356045885</v>
+        <v>0.07375317106461476</v>
       </c>
       <c r="L159" t="n">
-        <v>0.112334923055555</v>
+        <v>0.1466361745409097</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0674624814720516</v>
+        <v>0.07358922210722364</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1791690474958447</v>
+        <v>0.04266859134632417</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06797998747214508</v>
+        <v>0.075152412016892</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02158171978799053</v>
+        <v>0.04218772282371447</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07331472407154767</v>
+        <v>0.07595190576175256</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04938063832023801</v>
+        <v>0.1012803133595254</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0768022806642118</v>
+        <v>0.07453777926742981</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1127121617904763</v>
+        <v>0.1462701881796433</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06818016744515853</v>
+        <v>0.07437208617219411</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1790878027766237</v>
+        <v>0.04218772282371447</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06870317882823172</v>
+        <v>0.07595190576175256</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02154718827007721</v>
+        <v>0.04219740473948487</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07408645800914292</v>
+        <v>0.07675139950661312</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04945682641189537</v>
+        <v>0.100311883883112</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07761072572383508</v>
+        <v>0.07532238747024485</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1127829725225634</v>
+        <v>0.1447143318637898</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06889785341826546</v>
+        <v>0.07515495023716456</v>
       </c>
       <c r="N161" t="n">
-        <v>0.179497159101593</v>
+        <v>0.04219740473948487</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06942637018431838</v>
+        <v>0.07675139950661312</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02151144703948726</v>
+        <v>0.04179824032835329</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07485819194673815</v>
+        <v>0.07755089325147367</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04952921453367438</v>
+        <v>0.1002434317738138</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07841917078345835</v>
+        <v>0.07610699567305991</v>
       </c>
       <c r="L162" t="n">
-        <v>0.112447089979679</v>
+        <v>0.1442677820972439</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0696155393913724</v>
+        <v>0.07593781430213503</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1788968713555155</v>
+        <v>0.04179824032835329</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07014956154040504</v>
+        <v>0.07755089325147367</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02147460710707334</v>
+        <v>0.04189083282503754</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0756299258843334</v>
+        <v>0.07835038699633423</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0494977428212969</v>
+        <v>0.1000754015477647</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07922761584308163</v>
+        <v>0.07689160387587496</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1134042488896863</v>
+        <v>0.1438297153839</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07033322536447932</v>
+        <v>0.0767206783671055</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1794866944231541</v>
+        <v>0.04189083282503754</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07087275289649168</v>
+        <v>0.07835038699633423</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02143677948368809</v>
+        <v>0.04147578546425557</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07640165982192863</v>
+        <v>0.07914988074119478</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04936235141048474</v>
+        <v>0.0998082377210989</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08003606090270492</v>
+        <v>0.07767621207869001</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1128541839804481</v>
+        <v>0.1431993082276531</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07105091133758626</v>
+        <v>0.07750354243207597</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1794663831892717</v>
+        <v>0.04147578546425557</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07159594425257833</v>
+        <v>0.07914988074119478</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02339807518018419</v>
+        <v>0.04135370148072522</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07717339375952387</v>
+        <v>0.07994937448605534</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04932298043695976</v>
+        <v>0.09913681867542401</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08084450596232821</v>
+        <v>0.07846082028150506</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1127966299798275</v>
+        <v>0.1432757371323975</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0717685973106932</v>
+        <v>0.07828640649704643</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1813356925386311</v>
+        <v>0.04135370148072522</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07231913560866497</v>
+        <v>0.07994937448605534</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02235860520741428</v>
+        <v>0.04082518410916439</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07794512769711912</v>
+        <v>0.08074886823091589</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04957957003644377</v>
+        <v>0.09924851617755018</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08165295102195148</v>
+        <v>0.07924542848432012</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1131313216156875</v>
+        <v>0.1419581786020281</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07248628328380012</v>
+        <v>0.07906927056201689</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1816943773559954</v>
+        <v>0.04082518410916439</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07304232696475163</v>
+        <v>0.08074886823091589</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02331848057623104</v>
+        <v>0.04099083658429094</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07871686163471435</v>
+        <v>0.08154836197577645</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04953206034465867</v>
+        <v>0.09854301852263239</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08246139608157477</v>
+        <v>0.08003003668713517</v>
       </c>
       <c r="L167" t="n">
-        <v>0.113557993615891</v>
+        <v>0.1417458091404393</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07320396925690704</v>
+        <v>0.07985213462698736</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1805421925261273</v>
+        <v>0.04099083658429094</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07376551832083829</v>
+        <v>0.08154836197577645</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02327781229748711</v>
+        <v>0.04035126214082277</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07948859557230958</v>
+        <v>0.08234785572063701</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04978039149732622</v>
+        <v>0.09782054013346217</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08326984114119805</v>
+        <v>0.08081464488995022</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1132763807083011</v>
+        <v>0.141937805251526</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07392165523001398</v>
+        <v>0.08063499869195782</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1808788929337897</v>
+        <v>0.04035126214082277</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07448870967692493</v>
+        <v>0.08234785572063701</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02223671138203517</v>
+        <v>0.04040706401347775</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08026032950990482</v>
+        <v>0.08314734946549755</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04972450363016831</v>
+        <v>0.09758129543283109</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08407828620082132</v>
+        <v>0.08159925309276526</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1134862176207806</v>
+        <v>0.1407333434391825</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07463934120312092</v>
+        <v>0.08141786275692829</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1820042334637456</v>
+        <v>0.04040706401347775</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07521190103301158</v>
+        <v>0.08314734946549755</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02219528884072785</v>
+        <v>0.04025884543697376</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08103206344750007</v>
+        <v>0.0839468432103581</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04976433687890676</v>
+        <v>0.09702549884353076</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08488673126044462</v>
+        <v>0.08238386129558033</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1137872390811927</v>
+        <v>0.1403316002073039</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07535702717622786</v>
+        <v>0.08220072682189876</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1825179690007578</v>
+        <v>0.04025884543697376</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07593509238909822</v>
+        <v>0.0839468432103581</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02115365568441782</v>
+        <v>0.0397072096460287</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0818037973850953</v>
+        <v>0.08474633695521865</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04959983137926344</v>
+        <v>0.09655336478835277</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0856951763200679</v>
+        <v>0.08316846949839536</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1136791798174003</v>
+        <v>0.1388317520597844</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07607471314933478</v>
+        <v>0.08298359088686921</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1821198544295892</v>
+        <v>0.0397072096460287</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07665828374518488</v>
+        <v>0.08474633695521865</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02311192292395775</v>
+        <v>0.03965275987536039</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08257553132269053</v>
+        <v>0.08554583070007921</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04983092726696016</v>
+        <v>0.0958651076900886</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08650362137969117</v>
+        <v>0.08395307770121041</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1134617745572664</v>
+        <v>0.138332975500519</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07679239912244171</v>
+        <v>0.08376645495183968</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1828096446350028</v>
+        <v>0.03965275987536039</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07738147510127154</v>
+        <v>0.08554583070007921</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02307020157020029</v>
+        <v>0.03939609935968678</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08334726526028578</v>
+        <v>0.08634532444493975</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04965756467771876</v>
+        <v>0.09516094197152994</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08731206643931445</v>
+        <v>0.08473768590402546</v>
       </c>
       <c r="L173" t="n">
-        <v>0.114434758028654</v>
+        <v>0.138534447033402</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07751008509554864</v>
+        <v>0.08454931901681015</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1838870945017613</v>
+        <v>0.03939609935968678</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07810466645735818</v>
+        <v>0.08634532444493975</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0230286026339981</v>
+        <v>0.03923783133372573</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08411899919788102</v>
+        <v>0.08714481818980031</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04987968374726107</v>
+        <v>0.09524108205546833</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08812051149893774</v>
+        <v>0.08552229410684052</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1144978649594259</v>
+        <v>0.1385353431623282</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07822777106865558</v>
+        <v>0.08533218308178062</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1839519589146277</v>
+        <v>0.03923783133372573</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07882785781344483</v>
+        <v>0.08714481818980031</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02198723712620384</v>
+        <v>0.0386785590321951</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08489073313547627</v>
+        <v>0.08794431193466087</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04999722461130894</v>
+        <v>0.09480574236469533</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08892895655856102</v>
+        <v>0.08630690230965557</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1144508300774453</v>
+        <v>0.1383348403911924</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07894545704176252</v>
+        <v>0.08611504714675107</v>
       </c>
       <c r="N175" t="n">
-        <v>0.184003992758365</v>
+        <v>0.0386785590321951</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07955104916953147</v>
+        <v>0.08794431193466087</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02294621605767016</v>
+        <v>0.03851888568981275</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0856624670730715</v>
+        <v>0.08874380567952142</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05001012740558422</v>
+        <v>0.09335513732200257</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0897374016181843</v>
+        <v>0.08709151051247062</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1137933881105752</v>
+        <v>0.137532115223889</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07966314301486943</v>
+        <v>0.08689791121172154</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1841429509177359</v>
+        <v>0.03851888568981275</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08027424052561813</v>
+        <v>0.08874380567952142</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02190565043924972</v>
+        <v>0.03805941454129666</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08643420101066673</v>
+        <v>0.08954329942438198</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04981833226580877</v>
+        <v>0.09308948135018155</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09054584667780759</v>
+        <v>0.08787611871528567</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1146252737866785</v>
+        <v>0.1359263441643128</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08038082898797637</v>
+        <v>0.08768077527669201</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1839685882775035</v>
+        <v>0.03805941454129666</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08099743188170477</v>
+        <v>0.08954329942438198</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02086565128179519</v>
+        <v>0.03800074882136459</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08720593494826197</v>
+        <v>0.09034279316924253</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05012177932770435</v>
+        <v>0.09270898887202389</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09135429173743087</v>
+        <v>0.08866072691810072</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1138462218336181</v>
+        <v>0.1353167037163583</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08109851496108331</v>
+        <v>0.08846363934166247</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1847806597224304</v>
+        <v>0.03800074882136459</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08172062323779143</v>
+        <v>0.09034279316924253</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02082541435156947</v>
+        <v>0.03774349176473447</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08797766888585722</v>
+        <v>0.09114228691410309</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04980525683736031</v>
+        <v>0.09201387431032115</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09216273679705415</v>
+        <v>0.08944533512091578</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1146559669792572</v>
+        <v>0.1362023703839202</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08181620093419024</v>
+        <v>0.08924650340663294</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1838789201372797</v>
+        <v>0.03774349176473447</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08244381459387808</v>
+        <v>0.09114228691410309</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02178348089462499</v>
+        <v>0.03738824660612422</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08874940282345245</v>
+        <v>0.09194178065896363</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05003772614890525</v>
+        <v>0.09110435208786491</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09297118185667744</v>
+        <v>0.09022994332373083</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1144492952103062</v>
+        <v>0.1345825206708933</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08253388690729717</v>
+        <v>0.09002936747160339</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1843631244068143</v>
+        <v>0.03738824660612422</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08316700594996472</v>
+        <v>0.09194178065896363</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02273989358655514</v>
+        <v>0.03743561658025166</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08952113676104768</v>
+        <v>0.09274127440382418</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04962201578348173</v>
+        <v>0.09128063662744679</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09377962691630072</v>
+        <v>0.09101455152654588</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1145094738274374</v>
+        <v>0.134056331081172</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08325157288040409</v>
+        <v>0.09081223153657385</v>
       </c>
       <c r="N181" t="n">
-        <v>0.185433027415797</v>
+        <v>0.03743561658025166</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08389019730605138</v>
+        <v>0.09274127440382418</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02169471991218495</v>
+        <v>0.0369862049218347</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09029287069864293</v>
+        <v>0.09354076814868474</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04976215406625893</v>
+        <v>0.09054294235185834</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09458807197592399</v>
+        <v>0.09179915972936092</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1139363006046797</v>
+        <v>0.1336229781186511</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08396925885351103</v>
+        <v>0.09159509560154432</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1850883840489908</v>
+        <v>0.0369862049218347</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08461338866213802</v>
+        <v>0.09354076814868474</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02264802735633942</v>
+        <v>0.03684061486559122</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09106460463623817</v>
+        <v>0.09434026189354529</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04916216932240616</v>
+        <v>0.08959148368389108</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09539651703554727</v>
+        <v>0.09258376793217597</v>
       </c>
       <c r="L183" t="n">
-        <v>0.114131068037216</v>
+        <v>0.1331816382872251</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08468694482661797</v>
+        <v>0.09237795966651478</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1859289491911584</v>
+        <v>0.03684061486559122</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08533658001822468</v>
+        <v>0.09434026189354529</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02259988340384352</v>
+        <v>0.03649944964623907</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0918363385738334</v>
+        <v>0.09513975563840585</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04922608987709261</v>
+        <v>0.08872647504633668</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09620496209517056</v>
+        <v>0.09336837613499102</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1134950686202292</v>
+        <v>0.1327314880907888</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08540463079972489</v>
+        <v>0.09316082373148525</v>
       </c>
       <c r="N184" t="n">
-        <v>0.185554477727063</v>
+        <v>0.03649944964623907</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08605977137431133</v>
+        <v>0.09513975563840585</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0215503555395223</v>
+        <v>0.03606331249849618</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09260807251142864</v>
+        <v>0.0959392493832664</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04865794405548758</v>
+        <v>0.08854813086198668</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09701340715479384</v>
+        <v>0.09415298433780607</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1134295948489022</v>
+        <v>0.1321717040332367</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08612231677283183</v>
+        <v>0.09394368779645572</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1862647245414672</v>
+        <v>0.03606331249849618</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08678296273039797</v>
+        <v>0.0959392493832664</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02249951124820071</v>
+        <v>0.03583280665708038</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09337980644902388</v>
+        <v>0.09673874312812696</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04876176018276029</v>
+        <v>0.08755666555363262</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09782185221441712</v>
+        <v>0.09493759254062112</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1134359392184181</v>
+        <v>0.1325014626184636</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08684000274593875</v>
+        <v>0.09472655186142617</v>
       </c>
       <c r="N186" t="n">
-        <v>0.184759444519134</v>
+        <v>0.03583280665708038</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08750615408648463</v>
+        <v>0.09673874312812696</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02044741801470379</v>
+        <v>0.0359085353567096</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09415154038661913</v>
+        <v>0.09753823687298752</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04804156658407997</v>
+        <v>0.08645229354406614</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09863029727404041</v>
+        <v>0.09572220074343618</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1136153942239597</v>
+        <v>0.130719940350364</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08755768871904569</v>
+        <v>0.09550941592639664</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1857383925448263</v>
+        <v>0.0359085353567096</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08822934544257127</v>
+        <v>0.09753823687298752</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02039414332385651</v>
+        <v>0.03579110183210166</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09492327432421437</v>
+        <v>0.09833773061784806</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0478013915846159</v>
+        <v>0.08583522925607875</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09943874233366369</v>
+        <v>0.09650680894625123</v>
       </c>
       <c r="L188" t="n">
-        <v>0.11266925236071</v>
+        <v>0.1302263137328325</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08827537469215263</v>
+        <v>0.09629227999136711</v>
       </c>
       <c r="N188" t="n">
-        <v>0.186401323503307</v>
+        <v>0.03579110183210166</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08895253679865793</v>
+        <v>0.09833773061784806</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0223397546604839</v>
+        <v>0.0352811093179745</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0956950082618096</v>
+        <v>0.09913722436270862</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04734526350953731</v>
+        <v>0.08550568711246212</v>
       </c>
       <c r="K189" t="n">
-        <v>0.100247187393287</v>
+        <v>0.09729141714906628</v>
       </c>
       <c r="L189" t="n">
-        <v>0.112698806123852</v>
+        <v>0.130419759269764</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08899306066525955</v>
+        <v>0.09707514405633758</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1860479922793389</v>
+        <v>0.0352811093179745</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08967572815474457</v>
+        <v>0.09913722436270862</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02228431950941093</v>
+        <v>0.03537916104904597</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09646674219940483</v>
+        <v>0.09993671810756917</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04727721068401343</v>
+        <v>0.08516388153600774</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1010556324529103</v>
+        <v>0.09807602535188133</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1129053480085687</v>
+        <v>0.1290994534650529</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08971074663836649</v>
+        <v>0.09785800812130803</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1855781537576851</v>
+        <v>0.03537916104904597</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09039891951083122</v>
+        <v>0.09993671810756917</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02022790535546262</v>
+        <v>0.03478586026003394</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09723847613700008</v>
+        <v>0.1007362118524297</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04680126143321355</v>
+        <v>0.0838100269495072</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1018640775125335</v>
+        <v>0.09886063355469639</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1123901705100429</v>
+        <v>0.1286645728225939</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09042843261147342</v>
+        <v>0.0986408721862785</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1859915628231083</v>
+        <v>0.03478586026003394</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09112211086691788</v>
+        <v>0.1007362118524297</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02117057968346397</v>
+        <v>0.03490181018565633</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09801021007459532</v>
+        <v>0.1015357055972903</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0463214440823069</v>
+        <v>0.08364433777575211</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1026725225721568</v>
+        <v>0.09964524175751144</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1118545661234576</v>
+        <v>0.1276142938462816</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09114611858458035</v>
+        <v>0.09942373625124896</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1861495453442048</v>
+        <v>0.03490181018565633</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09184530222300452</v>
+        <v>0.1015357055972903</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02111240997823998</v>
+        <v>0.03482761406063097</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09878194401219055</v>
+        <v>0.1023351993421508</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04594178695646271</v>
+        <v>0.08186702843753407</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1034809676317801</v>
+        <v>0.1004298499603265</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1110998273439959</v>
+        <v>0.1277477930400108</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09186380455768728</v>
+        <v>0.1002066003162194</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1861489191975437</v>
+        <v>0.03482761406063097</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09256849357909118</v>
+        <v>0.1023351993421508</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02105346372461564</v>
+        <v>0.03466205225450159</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0995536779497858</v>
+        <v>0.1031346930870114</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04546631838085023</v>
+        <v>0.08147831335764455</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1042894126914034</v>
+        <v>0.1012144581631415</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1115272466668406</v>
+        <v>0.1268642469076759</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09258149053079422</v>
+        <v>0.1009894643811899</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1858929827792936</v>
+        <v>0.03466205225450159</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09329168493517782</v>
+        <v>0.1031346930870114</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02099380840741596</v>
+        <v>0.03410198130282714</v>
       </c>
       <c r="G195" t="n">
-        <v>0.100325411887381</v>
+        <v>0.1039341868318719</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04549906668063872</v>
+        <v>0.08043924746805475</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1050978577510267</v>
+        <v>0.1019990663659566</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1112381165871746</v>
+        <v>0.1262628319531718</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09329917650390115</v>
+        <v>0.1017723284461604</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1854916307647499</v>
+        <v>0.03410198130282714</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09401487629126447</v>
+        <v>0.1039341868318719</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02093351151146594</v>
+        <v>0.03424701658652578</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1010971458249763</v>
+        <v>0.1047336805767325</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04494406018099742</v>
+        <v>0.07947462569795827</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1059063028106499</v>
+        <v>0.1027836745687716</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1103337296001811</v>
+        <v>0.124942724680393</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09401686247700808</v>
+        <v>0.1025551925111308</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1836547578292084</v>
+        <v>0.03424701658652578</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09473806764735113</v>
+        <v>0.1047336805767325</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02187264052159058</v>
+        <v>0.03379683085276881</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1018688797625715</v>
+        <v>0.105533174321593</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04460532720709558</v>
+        <v>0.07859739580641437</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1067147478702732</v>
+        <v>0.1035682827715867</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1094153782010428</v>
+        <v>0.1241031015932341</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09473454845011502</v>
+        <v>0.1033380565761013</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1832922586479647</v>
+        <v>0.03379683085276881</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09546125900343777</v>
+        <v>0.105533174321593</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01981126292261487</v>
+        <v>0.03365109684872747</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1026406137001667</v>
+        <v>0.1063326680664536</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04418689608410246</v>
+        <v>0.07762341189314526</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1075231929298965</v>
+        <v>0.1043528909744017</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1089843548849427</v>
+        <v>0.1242431391955899</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09545223442322194</v>
+        <v>0.1041209206410718</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1823140278963144</v>
+        <v>0.03365109684872747</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09618445035952443</v>
+        <v>0.1063326680664536</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02174944619936384</v>
+        <v>0.03350948732157308</v>
       </c>
       <c r="G199" t="n">
-        <v>0.103412347637762</v>
+        <v>0.1071321618113142</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04399279513718726</v>
+        <v>0.07656852805787334</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1083316379895198</v>
+        <v>0.1051374991772168</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1086419521470639</v>
+        <v>0.1232620139913549</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09616992039632888</v>
+        <v>0.1049037847060422</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1823299602495533</v>
+        <v>0.03350948732157308</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09690764171561107</v>
+        <v>0.1071321618113142</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02068725783666244</v>
+        <v>0.03367167501847693</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1041840815753572</v>
+        <v>0.1079316555561747</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04392705269151929</v>
+        <v>0.07464859840032084</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1091400830491431</v>
+        <v>0.1059221073800318</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1091894624825892</v>
+        <v>0.1215588986518982</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09688760636943582</v>
+        <v>0.1056866487710127</v>
       </c>
       <c r="N200" t="n">
-        <v>0.180349950382977</v>
+        <v>0.03367167501847693</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09763083307169772</v>
+        <v>0.1079316555561747</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02162476531933573</v>
+        <v>0.03333733268661028</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1049558155129525</v>
+        <v>0.1087311493010353</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04339369707226777</v>
+        <v>0.07327947702021015</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1099485281087663</v>
+        <v>0.1067067155828469</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1081281783867017</v>
+        <v>0.1222902923655451</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09760529234254274</v>
+        <v>0.1064695128359831</v>
       </c>
       <c r="N201" t="n">
-        <v>0.179883892971881</v>
+        <v>0.03333733268661028</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09835402442778438</v>
+        <v>0.1087311493010353</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02056203613220867</v>
+        <v>0.03340613307314443</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1057275494505477</v>
+        <v>0.1095306430458958</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04309675660460194</v>
+        <v>0.07217701801726359</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1107569731683896</v>
+        <v>0.1074913237856619</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1077593923545841</v>
+        <v>0.1202250364559225</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09832297831564966</v>
+        <v>0.1072523769009536</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1778416826915611</v>
+        <v>0.03340613307314443</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09907721578387102</v>
+        <v>0.1095306430458958</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02149913776010626</v>
+        <v>0.03317774892525063</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1064992833881429</v>
+        <v>0.1103301367907564</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04304025961369104</v>
+        <v>0.07095707549120339</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1115654182280129</v>
+        <v>0.108275931988477</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1071843968814197</v>
+        <v>0.118578358406177</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0990406642887566</v>
+        <v>0.1080352409659241</v>
       </c>
       <c r="N203" t="n">
-        <v>0.176133214217313</v>
+        <v>0.03317774892525063</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09980040713995768</v>
+        <v>0.1103301367907564</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02143613768785353</v>
+        <v>0.03325185299010021</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1072710173257382</v>
+        <v>0.1111296305356169</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04282823442470433</v>
+        <v>0.06933550354175194</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1123738632876362</v>
+        <v>0.109060540191292</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1065044844623911</v>
+        <v>0.1185654856994553</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09975835026186354</v>
+        <v>0.1088181050308945</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1747683822244323</v>
+        <v>0.03325185299010021</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1005235984960443</v>
+        <v>0.1111296305356169</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02037310340027545</v>
+        <v>0.03272811801486446</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1080427512633334</v>
+        <v>0.1119291242804775</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04305601166932108</v>
+        <v>0.0684281562686315</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1131823083472595</v>
+        <v>0.1098451483941071</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1061209475926816</v>
+        <v>0.1175016458189039</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1004760362349705</v>
+        <v>0.109600969095865</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1743570813882145</v>
+        <v>0.03272811801486446</v>
       </c>
       <c r="O205" t="n">
-        <v>0.101246789852131</v>
+        <v>0.1119291242804775</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02131010238219703</v>
+        <v>0.03260621674671461</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1088144852009287</v>
+        <v>0.112728618025338</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04308893599508956</v>
+        <v>0.06685088777156439</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1139907534068828</v>
+        <v>0.1106297565969221</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1063350787674738</v>
+        <v>0.1157020662476694</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1011937222080774</v>
+        <v>0.1103838331608355</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1721092063839555</v>
+        <v>0.03260621674671461</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1019699812082176</v>
+        <v>0.112728618025338</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02024707426704529</v>
+        <v>0.03268582193282199</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1095862191385239</v>
+        <v>0.1135281117701986</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0430229446653415</v>
+        <v>0.06501955215027294</v>
       </c>
       <c r="K207" t="n">
-        <v>0.114799198466506</v>
+        <v>0.1114143647997372</v>
       </c>
       <c r="L207" t="n">
-        <v>0.105748170481951</v>
+        <v>0.1142819744688984</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1019114081811843</v>
+        <v>0.1111666972258059</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1705346518869507</v>
+        <v>0.03268582193282199</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1026931725643043</v>
+        <v>0.1135281117701986</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02118367327288306</v>
+        <v>0.03236660632035786</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1103579530761191</v>
+        <v>0.1143276055150591</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04285803984528665</v>
+        <v>0.06375000350447943</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1156076435261293</v>
+        <v>0.1121989730025522</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1053615152312958</v>
+        <v>0.1132565979657376</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1026290941542913</v>
+        <v>0.1119495612907764</v>
       </c>
       <c r="N208" t="n">
-        <v>0.169243312572496</v>
+        <v>0.03236660632035786</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1034163639203909</v>
+        <v>0.1143276055150591</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02011987375236821</v>
+        <v>0.03254824265649352</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1111296870137144</v>
+        <v>0.1151270992599197</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04279422370013476</v>
+        <v>0.06325809593390627</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1164160885857526</v>
+        <v>0.1129835812053673</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1039764055106914</v>
+        <v>0.1127411642213333</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1033467801273982</v>
+        <v>0.1127324253557469</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1684450831158869</v>
+        <v>0.03254824265649352</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1041395552764776</v>
+        <v>0.1151270992599197</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02105567421457367</v>
+        <v>0.03253040368840027</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1119014209513096</v>
+        <v>0.1159265930047802</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0426314983950956</v>
+        <v>0.06145968353827561</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1172245336453759</v>
+        <v>0.1137681894081823</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1043941338153208</v>
+        <v>0.1105509007188324</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1040644661005051</v>
+        <v>0.1135152894207173</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1665498581924191</v>
+        <v>0.03253040368840027</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1048627466325642</v>
+        <v>0.1159265930047802</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01999107316857237</v>
+        <v>0.03211276216324936</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1126731548889049</v>
+        <v>0.1167260867496408</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04246986609537892</v>
+        <v>0.06047062041730986</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1180329787049992</v>
+        <v>0.1145527976109974</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1039159926403667</v>
+        <v>0.1099010349413814</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1047821520736121</v>
+        <v>0.1142981534856878</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1642675324773883</v>
+        <v>0.03211276216324936</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1055859379886509</v>
+        <v>0.1167260867496408</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01892606912343726</v>
+        <v>0.03229499082821211</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1134448888265001</v>
+        <v>0.1175255804945013</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04240932896619451</v>
+        <v>0.06000676067073132</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1188414237646225</v>
+        <v>0.1153374058138124</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1028432744810122</v>
+        <v>0.1095067943721268</v>
       </c>
       <c r="M212" t="n">
-        <v>0.105499838046719</v>
+        <v>0.1150810175506582</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1630080006460901</v>
+        <v>0.03229499082821211</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1063091293447375</v>
+        <v>0.1175255804945013</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01886066058824126</v>
+        <v>0.03177676243045975</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1142166227640953</v>
+        <v>0.1183250742393619</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04224988917275209</v>
+        <v>0.05898395839826229</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1196498688242457</v>
+        <v>0.1161220140166275</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1018772718324403</v>
+        <v>0.1075822967902728</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1062175240198259</v>
+        <v>0.1158638816156287</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1619811573738201</v>
+        <v>0.03177676243045975</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1070323207008242</v>
+        <v>0.1183250742393619</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01979484607205732</v>
+        <v>0.0320577497171636</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1149883567016906</v>
+        <v>0.1191245679842225</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04219154888026144</v>
+        <v>0.05811806769962513</v>
       </c>
       <c r="K214" t="n">
-        <v>0.120458313883869</v>
+        <v>0.1169066222194425</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1018192771898339</v>
+        <v>0.1076872760292896</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1069352099929329</v>
+        <v>0.1166467456805992</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1610968973358741</v>
+        <v>0.0320577497171636</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1077555120569108</v>
+        <v>0.1191245679842225</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02072862408395837</v>
+        <v>0.03193762543549497</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1157600906392858</v>
+        <v>0.119924061729083</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04223431025393233</v>
+        <v>0.05802018508627521</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1212667589434923</v>
+        <v>0.1176912304222576</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1020705830483759</v>
+        <v>0.1052951521396939</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1076528959660398</v>
+        <v>0.1174296097455696</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1589651152075475</v>
+        <v>0.03193762543549497</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1084787034129975</v>
+        <v>0.119924061729083</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01866199313301733</v>
+        <v>0.03181606233262511</v>
       </c>
       <c r="G216" t="n">
-        <v>0.116531824576881</v>
+        <v>0.1207235554739435</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04207817545897451</v>
+        <v>0.05728023503437943</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1220752040031156</v>
+        <v>0.1184758386250726</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1016324819032493</v>
+        <v>0.1056060785390164</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1083705819391467</v>
+        <v>0.1182124738105401</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1582957056641362</v>
+        <v>0.03181606233262511</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1092018947690841</v>
+        <v>0.1207235554739435</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02059495172830716</v>
+        <v>0.0313927331557253</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1173035585144763</v>
+        <v>0.1215230492188041</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04212314666059776</v>
+        <v>0.0571464008905018</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1228836490627389</v>
+        <v>0.1192604468278877</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1010062662496371</v>
+        <v>0.1042202086447881</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1090882679122537</v>
+        <v>0.1189953378755106</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1572985633809358</v>
+        <v>0.0313927331557253</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1099250861251708</v>
+        <v>0.1215230492188041</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01852749837890078</v>
+        <v>0.03156731065196683</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1180752924520715</v>
+        <v>0.1223225429636647</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04216922602401181</v>
+        <v>0.05681872027164109</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1236920941223622</v>
+        <v>0.1200450550307027</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09989322858272215</v>
+        <v>0.1021376958745402</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1098059538853606</v>
+        <v>0.119778201940481</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1557765299391439</v>
+        <v>0.03156731065196683</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1106482774812574</v>
+        <v>0.1223225429636647</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01945963159387113</v>
+        <v>0.03103946756852101</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1188470263896668</v>
+        <v>0.1231220367085252</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04201641571442645</v>
+        <v>0.05709723079479598</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1245005391819854</v>
+        <v>0.1208296632335178</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1001946613976876</v>
+        <v>0.1018586936458034</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1105236398584675</v>
+        <v>0.1205610660054515</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1553706530225737</v>
+        <v>0.03103946756852101</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1113714688373441</v>
+        <v>0.1231220367085252</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01939134988229113</v>
+        <v>0.0312088766525591</v>
       </c>
       <c r="G220" t="n">
-        <v>0.119618760327262</v>
+        <v>0.1239215304533858</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04226471789705143</v>
+        <v>0.05598197007696512</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1253089842416087</v>
+        <v>0.1216142714363328</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09961056365533655</v>
+        <v>0.1011833553761088</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1112413258315745</v>
+        <v>0.121343930070422</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1528655049978812</v>
+        <v>0.0312088766525591</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1120946601934307</v>
+        <v>0.1239215304533858</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02032265175323374</v>
+        <v>0.03077521065125241</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1203904942648572</v>
+        <v>0.1247210241982463</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0418141347370965</v>
+        <v>0.05607297573514727</v>
       </c>
       <c r="K221" t="n">
-        <v>0.126117429301232</v>
+        <v>0.1223988796391479</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09912889627319757</v>
+        <v>0.09931183448298719</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1119590118046814</v>
+        <v>0.1221267941353924</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1519610964960275</v>
+        <v>0.03077521065125241</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1128178515495174</v>
+        <v>0.1247210241982463</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01925353571577189</v>
+        <v>0.03103814231177217</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1211622282024525</v>
+        <v>0.1255205179431069</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04176466839977143</v>
+        <v>0.05627028538634116</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1269258743608553</v>
+        <v>0.1231834878419629</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09814641429804158</v>
+        <v>0.09814428438396972</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1126766977777883</v>
+        <v>0.1229096582003629</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1521574381479739</v>
+        <v>0.03103814231177217</v>
       </c>
       <c r="O222" t="n">
-        <v>0.113541042905604</v>
+        <v>0.1255205179431069</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0181840002789785</v>
+        <v>0.03069734438128974</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1219339621400477</v>
+        <v>0.1263200116879674</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04191632105028598</v>
+        <v>0.0553739366475455</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1277343194204786</v>
+        <v>0.123968096044778</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09806311833123701</v>
+        <v>0.09838085849658729</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1133943837508952</v>
+        <v>0.1236925222653334</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1501545405846818</v>
+        <v>0.03069734438128974</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1142642342616907</v>
+        <v>0.1263200116879674</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01911404395192652</v>
+        <v>0.03075248960697634</v>
       </c>
       <c r="G224" t="n">
-        <v>0.122705696077643</v>
+        <v>0.127119505432828</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04186909485384992</v>
+        <v>0.05518396713575896</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1285427644801019</v>
+        <v>0.1247527042475931</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09767900897415233</v>
+        <v>0.09702171023837092</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1141120697240022</v>
+        <v>0.1244753863303038</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1484524144371122</v>
+        <v>0.03075248960697634</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1149874256177773</v>
+        <v>0.127119505432828</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01804366524368887</v>
+        <v>0.03060325073600328</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1234774300152382</v>
+        <v>0.1279189991776885</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04192299197567301</v>
+        <v>0.05470041446798027</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1293512095397251</v>
+        <v>0.1255373124504081</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09779408682815599</v>
+        <v>0.09586699302685148</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1148297556971091</v>
+        <v>0.1252582503952743</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1485510703362266</v>
+        <v>0.03060325073600328</v>
       </c>
       <c r="O225" t="n">
-        <v>0.115710616973864</v>
+        <v>0.1279189991776885</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0189728626633385</v>
+        <v>0.03024930051554185</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1242491639528334</v>
+        <v>0.1287184929225491</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04187801458096502</v>
+        <v>0.05502331626120818</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1301596545993484</v>
+        <v>0.1263219206532231</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09750835249461645</v>
+        <v>0.09551686027955997</v>
       </c>
       <c r="M226" t="n">
-        <v>0.115547441670216</v>
+        <v>0.1260411144602448</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1468505189129863</v>
+        <v>0.03024930051554185</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1164338083299506</v>
+        <v>0.1287184929225491</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01790163471994833</v>
+        <v>0.02989031169276332</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1250208978904287</v>
+        <v>0.1295179866674097</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04173416483493567</v>
+        <v>0.05435271013244131</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1309680996589717</v>
+        <v>0.1271065288560382</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0970218065749022</v>
+        <v>0.09507146541402739</v>
       </c>
       <c r="M227" t="n">
-        <v>0.116265127643323</v>
+        <v>0.1268239785252152</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1462507707983525</v>
+        <v>0.02989031169276332</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1171569996860373</v>
+        <v>0.1295179866674097</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01982997992259131</v>
+        <v>0.0299265456038327</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1257926318280239</v>
+        <v>0.1303174804122702</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04169144490279476</v>
+        <v>0.05408863369867847</v>
       </c>
       <c r="K228" t="n">
-        <v>0.131776544718595</v>
+        <v>0.1278911370588532</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0959344496703817</v>
+        <v>0.09263096184778469</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1169828136164299</v>
+        <v>0.1276068425901857</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1453518366232865</v>
+        <v>0.0299265456038327</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1178801910421239</v>
+        <v>0.1303174804122702</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01875789678034037</v>
+        <v>0.02975962771781127</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1265643657656192</v>
+        <v>0.1311169741571308</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04144985694975205</v>
+        <v>0.05443112457691832</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1325849897782183</v>
+        <v>0.1286757452616683</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09644628238242337</v>
+        <v>0.09249550299836279</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1177004995895368</v>
+        <v>0.1283897066551561</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1436537270187495</v>
+        <v>0.02975962771781127</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1186033823982106</v>
+        <v>0.1311169741571308</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01768538380226845</v>
+        <v>0.02978970888284846</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1273360997032144</v>
+        <v>0.1319164679019913</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04170940314101727</v>
+        <v>0.05368022038415957</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1333934348378415</v>
+        <v>0.1294603534644833</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09555730531239567</v>
+        <v>0.09076524228329269</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1184181855626438</v>
+        <v>0.1291725707201266</v>
       </c>
       <c r="N230" t="n">
-        <v>0.142156452615703</v>
+        <v>0.02978970888284846</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1193265737542972</v>
+        <v>0.1319164679019913</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01861243949744848</v>
+        <v>0.02921682415996299</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1281078336408096</v>
+        <v>0.1327159616468518</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04137008564180021</v>
+        <v>0.05333595873740088</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1342018798974648</v>
+        <v>0.1302449616672984</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09526751906166706</v>
+        <v>0.09124033312010532</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1191358715357507</v>
+        <v>0.1299554347850971</v>
       </c>
       <c r="N231" t="n">
-        <v>0.140860024045108</v>
+        <v>0.02921682415996299</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1200497651103839</v>
+        <v>0.1327159616468518</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01753906237495339</v>
+        <v>0.02904100861017352</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1288795675784049</v>
+        <v>0.1335154553917124</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04153190661731063</v>
+        <v>0.05299837725364107</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1350103249570881</v>
+        <v>0.1310295698701135</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0953769242316061</v>
+        <v>0.08872092892633177</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1198535575088576</v>
+        <v>0.1307382988500675</v>
       </c>
       <c r="N232" t="n">
-        <v>0.140264451937926</v>
+        <v>0.02904100861017352</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1207729564664705</v>
+        <v>0.1335154553917124</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01946525094385612</v>
+        <v>0.02906229729449877</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1296513015160001</v>
+        <v>0.134314949136573</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04159486823275829</v>
+        <v>0.05256751354987876</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1358187700167114</v>
+        <v>0.1318141780729285</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09438552142358111</v>
+        <v>0.08870718311950276</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1205712434819646</v>
+        <v>0.131521162915038</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1386697469251181</v>
+        <v>0.02906229729449877</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1214961478225572</v>
+        <v>0.134314949136573</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0183910037132296</v>
+        <v>0.02908072527395746</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1304230354535953</v>
+        <v>0.1351144428814335</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04155897265335293</v>
+        <v>0.05234340524311273</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1366272150763347</v>
+        <v>0.1325987862757436</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09399331123896063</v>
+        <v>0.08849924911714951</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1212889294550715</v>
+        <v>0.1323040269800085</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1376759196376457</v>
+        <v>0.02908072527395746</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1222193391786438</v>
+        <v>0.1351144428814335</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01731631919214677</v>
+        <v>0.02859632760956829</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1311947693911906</v>
+        <v>0.1359139366262941</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04132422204430435</v>
+        <v>0.05242608995034165</v>
       </c>
       <c r="K235" t="n">
-        <v>0.137435660135958</v>
+        <v>0.1333833944785586</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09350029427911305</v>
+        <v>0.08679728033680284</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1220066154281784</v>
+        <v>0.1330868910449789</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1375829807064701</v>
+        <v>0.02859632760956829</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1229425305347304</v>
+        <v>0.1359139366262941</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01724119588968057</v>
+        <v>0.02850913936234989</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1319665033287858</v>
+        <v>0.1367134303711546</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04159061857082227</v>
+        <v>0.05281560528856424</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1382441051955812</v>
+        <v>0.1341680026813737</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09300647114540697</v>
+        <v>0.08510143019599381</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1227243014012854</v>
+        <v>0.1338697551099494</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1362909407625524</v>
+        <v>0.02850913936234989</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1236657218908171</v>
+        <v>0.1367134303711546</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01916563231490394</v>
+        <v>0.02841919559332107</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1327382372663811</v>
+        <v>0.1375129241160152</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04135816439811646</v>
+        <v>0.0523119888747792</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1390525502552045</v>
+        <v>0.1349526108841887</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0931118424392107</v>
+        <v>0.08551185211225321</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1234419873743923</v>
+        <v>0.1346526191749199</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1346998104368542</v>
+        <v>0.02841919559332107</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1243889132469038</v>
+        <v>0.1375129241160152</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0190896269768898</v>
+        <v>0.02832653136350044</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1335099712039763</v>
+        <v>0.1383124178608758</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04142686169139671</v>
+        <v>0.05221527832598527</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1398609953148278</v>
+        <v>0.1357372190870038</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09271640876189274</v>
+        <v>0.08492869950311221</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1241596733474992</v>
+        <v>0.1354354832398903</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1336096003603365</v>
+        <v>0.02832653136350044</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1251121046029904</v>
+        <v>0.1383124178608758</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01901317838471108</v>
+        <v>0.02783118173390674</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1342817051415715</v>
+        <v>0.1391119116057363</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04149671261587276</v>
+        <v>0.05202551125918112</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1406694403744511</v>
+        <v>0.1365218272898188</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09212017071482159</v>
+        <v>0.08405212578610166</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1248773593206061</v>
+        <v>0.1362183473048608</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1332203211639606</v>
+        <v>0.02783118173390674</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1258352959590771</v>
+        <v>0.1391119116057363</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01893628504744074</v>
+        <v>0.02763318176555866</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1350534390791668</v>
+        <v>0.1399114053505968</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04106771933675438</v>
+        <v>0.05164272529136543</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1414778854340744</v>
+        <v>0.1373064354926339</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09112312889936572</v>
+        <v>0.08318228437875258</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1255950452937131</v>
+        <v>0.1370012113698313</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1320319834786879</v>
+        <v>0.02763318176555866</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1265584873151637</v>
+        <v>0.1399114053505968</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01885894547415169</v>
+        <v>0.02773256651947489</v>
       </c>
       <c r="G241" t="n">
-        <v>0.135825173016762</v>
+        <v>0.1407108990954574</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04143988401925132</v>
+        <v>0.05126695803953701</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1422863304936976</v>
+        <v>0.1380910436954489</v>
       </c>
       <c r="L241" t="n">
-        <v>0.09172528391689355</v>
+        <v>0.08211932869859584</v>
       </c>
       <c r="M241" t="n">
-        <v>0.12631273126682</v>
+        <v>0.1377840754348017</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1309445979354797</v>
+        <v>0.02773256651947489</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1272816786712504</v>
+        <v>0.1407108990954574</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01878115817391687</v>
+        <v>0.02742937105667416</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1365969069543573</v>
+        <v>0.1415103928403179</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04141320882857333</v>
+        <v>0.0507982471206945</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1430947755533209</v>
+        <v>0.138875651898264</v>
       </c>
       <c r="L242" t="n">
-        <v>0.09102663636877351</v>
+        <v>0.08086341216316256</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1270304172399269</v>
+        <v>0.1385669394997722</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1294581751652971</v>
+        <v>0.02742937105667416</v>
       </c>
       <c r="O242" t="n">
-        <v>0.128004870027337</v>
+        <v>0.1415103928403179</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01770292165580922</v>
+        <v>0.02722363043817513</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1373686408919525</v>
+        <v>0.1423098865851785</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0411876959299302</v>
+        <v>0.05103663015183665</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1439032206129442</v>
+        <v>0.139660260101079</v>
       </c>
       <c r="L243" t="n">
-        <v>0.09052718685637412</v>
+        <v>0.07901468818998347</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1277481032130339</v>
+        <v>0.1393498035647427</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1280727257991015</v>
+        <v>0.02722363043817513</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1287280613834237</v>
+        <v>0.1423098865851785</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01762423442890169</v>
+        <v>0.02681537972499654</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1381403748295477</v>
+        <v>0.143109380330039</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04116334748853168</v>
+        <v>0.05148214474996216</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1447116656725675</v>
+        <v>0.140444868303894</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08952693598106382</v>
+        <v>0.07877331019658979</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1284657891861408</v>
+        <v>0.1401326676297131</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1270882604678542</v>
+        <v>0.02681537972499654</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1294512527395103</v>
+        <v>0.143109380330039</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0165450950022672</v>
+        <v>0.02680465397815704</v>
       </c>
       <c r="G245" t="n">
-        <v>0.138912108767143</v>
+        <v>0.1439088740748996</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04114016566958752</v>
+        <v>0.05083482853206969</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1455201107321908</v>
+        <v>0.1412294765067091</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08982588434421102</v>
+        <v>0.07793943160051237</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1291834751592477</v>
+        <v>0.1409155316946836</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1270047898025164</v>
+        <v>0.02680465397815704</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1301744440955969</v>
+        <v>0.1439088740748996</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01746550188497868</v>
+        <v>0.02659148825867536</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1396838427047382</v>
+        <v>0.1447083678197602</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04101815263830749</v>
+        <v>0.05119471911515802</v>
       </c>
       <c r="K246" t="n">
-        <v>0.146328555791814</v>
+        <v>0.1420140847095241</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08892403254718431</v>
+        <v>0.07771320581928204</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1299011611323547</v>
+        <v>0.141698395759654</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1260223244340494</v>
+        <v>0.02659148825867536</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1308976354516836</v>
+        <v>0.1447083678197602</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01838545358610907</v>
+        <v>0.02617591762757022</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1404555766423334</v>
+        <v>0.1455078615646207</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04119731055990136</v>
+        <v>0.05046185411622583</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1471370008514373</v>
+        <v>0.1427986929123392</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08922138119135201</v>
+        <v>0.07709478627042998</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1306188471054616</v>
+        <v>0.1424812598246245</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1234408749934145</v>
+        <v>0.02617591762757022</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1316208268077703</v>
+        <v>0.1455078615646207</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01730494861473132</v>
+        <v>0.02585797714586027</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1412273105799287</v>
+        <v>0.1463073553094812</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04107764159957888</v>
+        <v>0.05043627115227181</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1479454459110606</v>
+        <v>0.1435833011151542</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08871793087808266</v>
+        <v>0.07488432637148712</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1313365330785685</v>
+        <v>0.1432641238895949</v>
       </c>
       <c r="N248" t="n">
-        <v>0.123460452111573</v>
+        <v>0.02585797714586027</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1323440181638569</v>
+        <v>0.1463073553094812</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01722398547991834</v>
+        <v>0.02593770187456423</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1419990445175239</v>
+        <v>0.1471068490543418</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0410591479225498</v>
+        <v>0.0507180078402947</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1487538909706839</v>
+        <v>0.1443679093179693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08791368220874468</v>
+        <v>0.07428197953998433</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1320542190516755</v>
+        <v>0.1440469879545654</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1211810664194862</v>
+        <v>0.02593770187456423</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1330672095199436</v>
+        <v>0.1471068490543418</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01714256269074308</v>
+        <v>0.02551512687470084</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1427707784551192</v>
+        <v>0.1479063427992024</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04104183169402394</v>
+        <v>0.05070710179729318</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1495623360303072</v>
+        <v>0.1451525175207844</v>
       </c>
       <c r="L250" t="n">
-        <v>0.08780863578470657</v>
+        <v>0.07348789919345261</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1327719050247824</v>
+        <v>0.1448298520195359</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1215027285481153</v>
+        <v>0.02551512687470084</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1337904008760302</v>
+        <v>0.1479063427992024</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01806067875627847</v>
+        <v>0.02559028720728873</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1435425123927144</v>
+        <v>0.1487058365440629</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04122569507921098</v>
+        <v>0.05010359064026604</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1503707810899305</v>
+        <v>0.1459371257235994</v>
       </c>
       <c r="L251" t="n">
-        <v>0.08700279220733678</v>
+        <v>0.07310223874942301</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1334895909978893</v>
+        <v>0.1456127160845063</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1206254491284217</v>
+        <v>0.02559028720728873</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1345135922321169</v>
+        <v>0.1487058365440629</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01697833218559745</v>
+        <v>0.02526321793334664</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1443142463303096</v>
+        <v>0.1495053302889235</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04121074024332072</v>
+        <v>0.05000751198621187</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1511792261495538</v>
+        <v>0.1467217339264145</v>
       </c>
       <c r="L252" t="n">
-        <v>0.08639615207800372</v>
+        <v>0.0728251516254263</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1342072769709963</v>
+        <v>0.1463955801494768</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1188492387913665</v>
+        <v>0.02526321793334664</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1352367835882035</v>
+        <v>0.1495053302889235</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01589552148777296</v>
+        <v>0.02513395411389327</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1450859802679049</v>
+        <v>0.150304824033784</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04119696935156293</v>
+        <v>0.0493189034521295</v>
       </c>
       <c r="K253" t="n">
-        <v>0.151987671209177</v>
+        <v>0.1475063421292295</v>
       </c>
       <c r="L253" t="n">
-        <v>0.08608871599807591</v>
+        <v>0.07135679123899358</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1349249629441032</v>
+        <v>0.1471784442144473</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1184741081679111</v>
+        <v>0.02513395411389327</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1359599749442902</v>
+        <v>0.150304824033784</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01581224517187791</v>
+        <v>0.02480253080994732</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1458577142055001</v>
+        <v>0.1511043177786446</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04088438456914736</v>
+        <v>0.04933780265501753</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1527961162688003</v>
+        <v>0.1482909503320446</v>
       </c>
       <c r="L254" t="n">
-        <v>0.08658048456892181</v>
+        <v>0.07089731100765589</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1356426489172101</v>
+        <v>0.1479613082794178</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1163000678890168</v>
+        <v>0.02480253080994732</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1366831663003768</v>
+        <v>0.1511043177786446</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01572850174698526</v>
+        <v>0.02426898308252746</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1466294481430953</v>
+        <v>0.1519038115235051</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04107298806128376</v>
+        <v>0.04926424721187478</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1536045613284236</v>
+        <v>0.1490755585348596</v>
       </c>
       <c r="L255" t="n">
-        <v>0.08577145839190978</v>
+        <v>0.06964686434894407</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1363603348903171</v>
+        <v>0.1487441723443882</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1159271285856447</v>
+        <v>0.02426898308252746</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1374063576564634</v>
+        <v>0.1519038115235051</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01564428972216794</v>
+        <v>0.02403334599265243</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1474011820806906</v>
+        <v>0.1527033052683657</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0410627819931819</v>
+        <v>0.05019827473969984</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1544130063880469</v>
+        <v>0.1498601667376747</v>
       </c>
       <c r="L256" t="n">
-        <v>0.08546163806840842</v>
+        <v>0.06880560468038904</v>
       </c>
       <c r="M256" t="n">
-        <v>0.137078020863424</v>
+        <v>0.1495270364093587</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1135553008887563</v>
+        <v>0.02403334599265243</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1381295490125501</v>
+        <v>0.1527033052683657</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01555960760649888</v>
+        <v>0.02419565460134089</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1481729160182858</v>
+        <v>0.1535027990132262</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04115376853005157</v>
+        <v>0.04913992285549151</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1552214514476702</v>
+        <v>0.1506447749404897</v>
       </c>
       <c r="L257" t="n">
-        <v>0.08475102419978614</v>
+        <v>0.0696736854195219</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1377957068365309</v>
+        <v>0.1503099004743291</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1125845954293129</v>
+        <v>0.02419565460134089</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1388527403686368</v>
+        <v>0.1535027990132262</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01547445390905102</v>
+        <v>0.02395594396961157</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1489446499558811</v>
+        <v>0.1543022927580868</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04094594983710249</v>
+        <v>0.04908922917624847</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1560298965072934</v>
+        <v>0.1514293831433048</v>
       </c>
       <c r="L258" t="n">
-        <v>0.08433961738741133</v>
+        <v>0.06855125998387357</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1385133928096379</v>
+        <v>0.1510927645392996</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1119150228382755</v>
+        <v>0.02395594396961157</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1395759317247234</v>
+        <v>0.1543022927580868</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01738882713889729</v>
+        <v>0.02371424915848315</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1497163838934763</v>
+        <v>0.1551017865029473</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04103932807954444</v>
+        <v>0.04914623131896945</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1568383415669167</v>
+        <v>0.1522139913461198</v>
       </c>
       <c r="L259" t="n">
-        <v>0.08342741823265254</v>
+        <v>0.06733848179097496</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1392310787827448</v>
+        <v>0.1518756286042701</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1116465937466056</v>
+        <v>0.02371424915848315</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1402991230808101</v>
+        <v>0.1551017865029473</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01630272580511063</v>
+        <v>0.02307060522897433</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1504881178310715</v>
+        <v>0.1559012802478079</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04103390542258717</v>
+        <v>0.04931096690065315</v>
       </c>
       <c r="K260" t="n">
-        <v>0.15764678662654</v>
+        <v>0.1529985995489349</v>
       </c>
       <c r="L260" t="n">
-        <v>0.08361442733687818</v>
+        <v>0.06613550425835713</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1399487647558517</v>
+        <v>0.1526584926692405</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1101793187852644</v>
+        <v>0.02307060522897433</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1410223144368967</v>
+        <v>0.1559012802478079</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01521614841676397</v>
+        <v>0.02292504724210384</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1512598517686668</v>
+        <v>0.1567007739926685</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04102968403144046</v>
+        <v>0.04988347353829828</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1584552316861633</v>
+        <v>0.1537832077517499</v>
       </c>
       <c r="L261" t="n">
-        <v>0.08330064530145675</v>
+        <v>0.06614248080355095</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1406664507289586</v>
+        <v>0.153441356734211</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1093132085852133</v>
+        <v>0.02292504724210384</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1417455057929834</v>
+        <v>0.1567007739926685</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01512909348293025</v>
+        <v>0.02277761025889036</v>
       </c>
       <c r="G262" t="n">
-        <v>0.152031585706262</v>
+        <v>0.157500267737529</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04102666607131404</v>
+        <v>0.04966378884890352</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1592636767457866</v>
+        <v>0.154567815954565</v>
       </c>
       <c r="L262" t="n">
-        <v>0.08318607272775666</v>
+        <v>0.06505956484408743</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1413841367020656</v>
+        <v>0.1542242207991815</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1072482737774135</v>
+        <v>0.02277761025889036</v>
       </c>
       <c r="O262" t="n">
-        <v>0.14246869714907</v>
+        <v>0.157500267737529</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0150415595126824</v>
+        <v>0.02272832934035256</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1528033196438573</v>
+        <v>0.1582997614823896</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0409248537074177</v>
+        <v>0.04965195044946763</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1600721218054098</v>
+        <v>0.15535242415738</v>
       </c>
       <c r="L263" t="n">
-        <v>0.08287071021714637</v>
+        <v>0.06428690979749746</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1421018226751725</v>
+        <v>0.1550070848641519</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1077845249928262</v>
+        <v>0.02272832934035256</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1431918885051567</v>
+        <v>0.1582997614823896</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01695354501509336</v>
+        <v>0.02207723954750918</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1535750535814525</v>
+        <v>0.1590992552272501</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04092424910496119</v>
+        <v>0.04894799595698926</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1608805668650331</v>
+        <v>0.1561370323601951</v>
       </c>
       <c r="L264" t="n">
-        <v>0.08215455837099445</v>
+        <v>0.0631246690813122</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1428195086482794</v>
+        <v>0.1557899489291224</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1058219728624127</v>
+        <v>0.02207723954750918</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1439150798612433</v>
+        <v>0.1590992552272501</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7580781044003323</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06064624835202659</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.07874234313200998</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02363591433868553</v>
+        <v>0.02874234313200998</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01606679415165409</v>
+        <v>0.01180826067165339</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001452313534358103</v>
+        <v>9.567320202250734e-05</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007994937448605533</v>
+        <v>0.0006239470774914484</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004705077318275935</v>
+        <v>0.002060128670521376</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007846082028150507</v>
+        <v>0.0007994937448605533</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00896792730742707</v>
+        <v>0.00589861490031407</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007828640649704643</v>
+        <v>0.0007917622599245859</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001452313534358103</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007994937448605533</v>
+        <v>0.001077358490566039</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.0003777812729941071</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001427499999999998</v>
+        <v>0.001247894154982897</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01007773295185177</v>
+        <v>0.004249422855261968</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001569216405630101</v>
+        <v>0.001598987489721107</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.01132320768221934</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001867757009345796</v>
+        <v>0.001583524519849172</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.01528850210724525</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001427499999999998</v>
+        <v>0.001566359511410543</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004604146474198358</v>
+        <v>0.0008389569102709923</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00239848123458166</v>
+        <v>0.001871841232474345</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01399999999999998</v>
+        <v>0.005955155664502082</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002056069958847734</v>
+        <v>0.00239848123458166</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02380256920475443</v>
+        <v>0.01753287352269062</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002348592194911393</v>
+        <v>0.002375286779773758</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004604146474198358</v>
+        <v>0.02213374419715236</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00239848123458166</v>
+        <v>0.002349539267115815</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006066218129992862</v>
+        <v>0.001471832811209293</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003197974979442213</v>
+        <v>0.002495788309965794</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0193110560573525</v>
+        <v>0.007864600208522067</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003138432811260203</v>
+        <v>0.003197974979442213</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03182844699830922</v>
+        <v>0.02298670759870283</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003131456259881857</v>
+        <v>0.003167049039698343</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006066218129992862</v>
+        <v>0.02962373431889664</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003197974979442213</v>
+        <v>0.003132719022821086</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001427499999999998</v>
+        <v>0.01082156494031474</v>
       </c>
       <c r="B70" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006992130358191281</v>
+        <v>0.00226904167316519</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003997468724302767</v>
+        <v>0.003119735387457242</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02385060769807285</v>
+        <v>0.009565029597602262</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003923041014075253</v>
+        <v>0.003997468724302767</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03835286497850104</v>
+        <v>0.02784380508723089</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003914320324852322</v>
+        <v>0.003958811299622929</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.006992130358191281</v>
+        <v>0.03652690123735547</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003997468724302767</v>
+        <v>0.003915898778526357</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008682779721969784</v>
+        <v>0.003223216193494818</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00479696246916332</v>
+        <v>0.00374368246494869</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02735371276172369</v>
+        <v>0.01124371694202298</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004707649216890303</v>
+        <v>0.00479696246916332</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04504666964907511</v>
+        <v>0.03236326116524965</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004697184389822785</v>
+        <v>0.004750573559547515</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008682779721969784</v>
+        <v>0.04311167371740582</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00479696246916332</v>
+        <v>0.004699078534231629</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009939062784504585</v>
+        <v>0.004326989069554359</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005596456214023874</v>
+        <v>0.004367629542440139</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03080772758548728</v>
+        <v>0.01288793535206458</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005492257419705354</v>
+        <v>0.005596456214023874</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05178070751377695</v>
+        <v>0.03650417100973402</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00548004845479325</v>
+        <v>0.0055423358194721</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009939062784504585</v>
+        <v>0.05094648052392514</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005596456214023874</v>
+        <v>0.0054822582899369</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01086187610897187</v>
+        <v>0.005572992998699969</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006395949958884426</v>
+        <v>0.004991576619931587</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0345000085065458</v>
+        <v>0.01438495793800736</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006276865622520405</v>
+        <v>0.006395949958884426</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05742582507635191</v>
+        <v>0.040325629797659</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006262912519763715</v>
+        <v>0.006334098079396687</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01086187610897187</v>
+        <v>0.05649975042179034</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006395949958884426</v>
+        <v>0.006265438045642171</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0120521162585478</v>
+        <v>0.006953860678287786</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007195443703744981</v>
+        <v>0.005615523697423036</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03851791186208151</v>
+        <v>0.01562205781013168</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007061473825335456</v>
+        <v>0.007195443703744981</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06385286884054542</v>
+        <v>0.04298673270599929</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007045776584734179</v>
+        <v>0.007125860339321273</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0120521162585478</v>
+        <v>0.06203991217587868</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007195443703744981</v>
+        <v>0.007048617801347442</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01341067979640861</v>
+        <v>0.008462224805673997</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007994937448605534</v>
+        <v>0.006239470774914485</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04204879398927663</v>
+        <v>0.017</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007846082028150507</v>
+        <v>0.008089166666666668</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06813268531010286</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007828640649704644</v>
+        <v>0.008017704517704513</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01341067979640861</v>
+        <v>0.06763539455106721</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007994937448605534</v>
+        <v>0.007831797557052714</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01463846328573047</v>
+        <v>0.01009071807821474</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008794431193466087</v>
+        <v>0.006863417852405932</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04538001122531346</v>
+        <v>0.01779623886802867</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008630690230965557</v>
+        <v>0.008794431193466087</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07423612098876969</v>
+        <v>0.046979968821945</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008611504714675108</v>
+        <v>0.008709384859170444</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01463846328573047</v>
+        <v>0.07245462631223332</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008794431193466087</v>
+        <v>0.008614977312757987</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01543636328968956</v>
+        <v>0.01183197319326618</v>
       </c>
       <c r="G77" t="n">
+        <v>0.00748736492989738</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01840420273300014</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009593924938326641</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04819891990737421</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009415298433780606</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07853402238029122</v>
+        <v>0.04900259580922997</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00939436877964557</v>
+        <v>0.00950114711909503</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01543636328968956</v>
+        <v>0.07796603622425397</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009593924938326641</v>
+        <v>0.009398157068463258</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0167052763714621</v>
+        <v>0.0136786228481845</v>
       </c>
       <c r="G78" t="n">
+        <v>0.00811131200738883</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01922879070078323</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01039341868318719</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.05099287637264108</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01019990663659566</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.08139723598841309</v>
+        <v>0.04969781013457036</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01017723284461604</v>
+        <v>0.01029290937901962</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0167052763714621</v>
+        <v>0.08203805305200651</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01039341868318719</v>
+        <v>0.01018133682416853</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01784609909422423</v>
+        <v>0.01562329974032581</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008735259084880279</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01998791747607348</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01119291242804775</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.05254923695829636</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01098451483941071</v>
-      </c>
       <c r="L79" t="n">
+        <v>0.05124686868187278</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0110846716389442</v>
+      </c>
+      <c r="N79" t="n">
         <v>0.08746097252079377</v>
       </c>
-      <c r="M79" t="n">
-        <v>0.01111264248094642</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.01784609909422423</v>
-      </c>
       <c r="O79" t="n">
-        <v>0.01119291242804775</v>
+        <v>0.01121747873076668</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01875972802115219</v>
+        <v>0.01765863656704631</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009359206162371727</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02039949776356634</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0119924061729083</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05554844342973966</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01165423324455517</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.08886118435617357</v>
+        <v>0.05183102833504363</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01174296097455696</v>
+        <v>0.01187643389886879</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01875972802115219</v>
+        <v>0.08865214317436759</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0119924061729083</v>
+        <v>0.01174769633557907</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01964705971542215</v>
+        <v>0.01977726602570214</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009983153239863174</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02098144626795732</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01279189991776885</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05726904818823284</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01255373124504081</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.09259657124764198</v>
+        <v>0.05343154597798935</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01252582503952743</v>
+        <v>0.01266819615879337</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01964705971542215</v>
+        <v>0.0924180898118071</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01279189991776885</v>
+        <v>0.01253087609128434</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02070899074021028</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01082156494031474</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02155167769394198</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01359139366262941</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05927175039325761</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01333833944785586</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.095608774097934</v>
+        <v>0.05554844342973966</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01330868910449789</v>
+        <v>0.0138313976968347</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02070899074021028</v>
+        <v>0.09615944941262999</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01359139366262941</v>
+        <v>0.01331405584698962</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02154641765869279</v>
+        <v>0.02535816014600616</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01123104739484607</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02232810674621578</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01439088740748996</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.06196390337697485</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01412294765067091</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.09899469714210379</v>
+        <v>0.0554869302284961</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01409155316946836</v>
+        <v>0.01425172067864255</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02154641765869279</v>
+        <v>0.09907315479519324</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01439088740748996</v>
+        <v>0.01409723560269488</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02266023703404589</v>
+        <v>0.02874234313200998</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01180826067165339</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02272864812947424</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01519038115235051</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.06424320207292497</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01490755585348596</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.1024512446152056</v>
+        <v>0.05714512340507547</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01487441723443882</v>
+        <v>0.01504348293856713</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02266023703404589</v>
+        <v>0.1024561387778535</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01519038115235051</v>
+        <v>0.01488041535840016</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.0296008338075355</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01247894154982897</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.02363591433868553</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01606679415165409</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0661073414146483</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01569216405630101</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.1051753207522936</v>
+        <v>0.05898516130640191</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01565728129940929</v>
+        <v>0.01583524519849172</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02363591433868553</v>
+        <v>0.1054053341789676</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01606679415165409</v>
+        <v>0.01566359511410543</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02433665744743715</v>
+        <v>0.03033643186102435</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01310288862732042</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02426313771612265</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01678936864207162</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.06815401633568524</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01647677225911606</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.109063829788422</v>
+        <v>0.06030013863954317</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01644014536437975</v>
+        <v>0.0166270074584163</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02433665744743715</v>
+        <v>0.1080176738168922</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01678936864207162</v>
+        <v>0.0164467748698107</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02493798678467299</v>
+        <v>0.03101429648603675</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01372683570481186</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02479409787318258</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01758886238693217</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.07038092176957619</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01726138046193111</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1126136759586449</v>
+        <v>0.06178315011156685</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01722300942935022</v>
+        <v>0.01741876971834089</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02493798678467299</v>
+        <v>0.1119900905099843</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01758886238693217</v>
+        <v>0.01722995462551597</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0259529354877876</v>
+        <v>0.03163741490598782</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01435078278230331</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02556038667936406</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01838835613179273</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.07138575264986155</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01804598866474617</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1160217634980167</v>
+        <v>0.06332729042954072</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01800587349432068</v>
+        <v>0.01821053197826547</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0259529354877876</v>
+        <v>0.1143195170766003</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01838835613179273</v>
+        <v>0.01801313438122124</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02687891871684688</v>
+        <v>0.03220877434429258</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01497472985979476</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02615838056076797</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01918784987665328</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.07376620391008168</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01883059686756121</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1177849966415913</v>
+        <v>0.06582565430053244</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01878873755929114</v>
+        <v>0.01900229423819006</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02687891871684688</v>
+        <v>0.1173028863350972</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01918784987665328</v>
+        <v>0.01879631413692652</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02801335163191659</v>
+        <v>0.03273136202436619</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01559867693728621</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02718445594349518</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01998734362151383</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.07631997048377692</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01961520507037626</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1220002796244232</v>
+        <v>0.06697133643160968</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01957160162426161</v>
+        <v>0.01979405649811464</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02801335163191659</v>
+        <v>0.1218371311038318</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01998734362151383</v>
+        <v>0.01957949389263179</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02905364939306262</v>
+        <v>0.03320816516962373</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01622262401477766</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0282349892536467</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02078683736637439</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.07764474730448773</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02039981327319132</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1240645166815663</v>
+        <v>0.06875743152984021</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02035446568923207</v>
+        <v>0.02058581875803923</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02905364939306262</v>
+        <v>0.1240191842011606</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02078683736637439</v>
+        <v>0.02036267364833706</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02979722716035077</v>
+        <v>0.03364217100348028</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01684657109226911</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02910635691732341</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02158633111123494</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.08003822930575438</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02118442147600636</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1277746120480749</v>
+        <v>0.07157703430229156</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02113732975420254</v>
+        <v>0.02137758101796382</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02979722716035077</v>
+        <v>0.1277459784454408</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02158633111123494</v>
+        <v>0.02114585340404233</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0305415000938469</v>
+        <v>0.03403636674935094</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01747051816976056</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02959493536062621</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0223858248560955</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.08129811142111737</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02196902967882142</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1305274699590032</v>
+        <v>0.07352323945603159</v>
       </c>
       <c r="M93" t="n">
-        <v>0.021920193819173</v>
+        <v>0.0221693432778884</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0305415000938469</v>
+        <v>0.1299144466550288</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0223858248560955</v>
+        <v>0.0219290331597476</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0318838833536168</v>
+        <v>0.03439373963065082</v>
       </c>
       <c r="G94" t="n">
+        <v>0.018094465247252</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03079710100965599</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02318531860095605</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.08382208858411702</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02275363788163647</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1323199946494055</v>
+        <v>0.07528914169812789</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02270305788414346</v>
+        <v>0.02296110553781299</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0318838833536168</v>
+        <v>0.1326215216482816</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02318531860095605</v>
+        <v>0.02271221291545287</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03282179209972634</v>
+        <v>0.03471727687079501</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01871841232474345</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.03150923029051374</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.0239848123458166</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.0852078557282937</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02353824608445152</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1355490903543357</v>
+        <v>0.0773678357356482</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02348592194911393</v>
+        <v>0.02375286779773757</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03282179209972634</v>
+        <v>0.1346641362435557</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0239848123458166</v>
+        <v>0.02349539267115814</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03355264149224133</v>
+        <v>0.03500996569319859</v>
       </c>
       <c r="G96" t="n">
+        <v>0.0193423594022349</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03232769962930032</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02478430609067716</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.08685310778718788</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02432285428726657</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1385116613088483</v>
+        <v>0.07885241627566017</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02426878601408439</v>
+        <v>0.02454463005766216</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03355264149224133</v>
+        <v>0.1377392232592082</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02478430609067716</v>
+        <v>0.02427857242686341</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03437384669122762</v>
+        <v>0.03527479332127666</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01996630647972635</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03364888545211665</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02558379983553771</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.08895553969433981</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02510746249008162</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1411046117479973</v>
+        <v>0.08073597802523147</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02505165007905486</v>
+        <v>0.02533639231758675</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03437384669122762</v>
+        <v>0.1410437155135956</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02558379983553771</v>
+        <v>0.02506175218256869</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03528282285675101</v>
+        <v>0.03551474697844433</v>
       </c>
       <c r="G98" t="n">
+        <v>0.0205902535572178</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03446916418506367</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02638329358039826</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.08981284638328996</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02589207069289667</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.144024845906837</v>
+        <v>0.08301161569142984</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02583451414402532</v>
+        <v>0.02612815457751133</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03528282285675101</v>
+        <v>0.1431745458250747</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02638329358039826</v>
+        <v>0.02584493193827396</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03607698514887735</v>
+        <v>0.03573281388811669</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02121420063470925</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03548491225424226</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02718278732525881</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.09132272278757872</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02667667889571172</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1460692680204213</v>
+        <v>0.08527242398132293</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02661737820899578</v>
+        <v>0.02691991683743591</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03607698514887735</v>
+        <v>0.1454286470120024</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02718278732525881</v>
+        <v>0.02662811169397923</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03735374872767246</v>
+        <v>0.03593198127370882</v>
       </c>
       <c r="G100" t="n">
+        <v>0.0218381477122007</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03639250608575338</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02798228107011936</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.09388286384074643</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02746128709852677</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1489347823238047</v>
+        <v>0.08661149760197848</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02740024227396625</v>
+        <v>0.0277116790973605</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03735374872767246</v>
+        <v>0.1477029518927353</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02798228107011936</v>
+        <v>0.0274112914496845</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0380105287532022</v>
+        <v>0.03611523635863582</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02246209478969214</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0370883221056979</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02878177481497992</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.09519096447633346</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02824589530134182</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1501182930520414</v>
+        <v>0.08842193126046413</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02818310633893671</v>
+        <v>0.02850344135728509</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0380105287532022</v>
+        <v>0.1502943932856302</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02878177481497992</v>
+        <v>0.02819447120538977</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03894474038553238</v>
+        <v>0.03628556636631282</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02308604186718359</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03816873674017678</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02958126855984047</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.09654471962788025</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02903050350415687</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1531167044401854</v>
+        <v>0.09049681966384754</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02896597040390718</v>
+        <v>0.02929520361720967</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03894474038553238</v>
+        <v>0.1529999040090441</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02958126855984047</v>
+        <v>0.02897765096109505</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03955379878472882</v>
+        <v>0.03644595852015488</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02370998894467504</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03903012641529088</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03038076230470103</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.09814182422892714</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02981511170697192</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1554269207232911</v>
+        <v>0.09292925751919653</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02974883446887764</v>
+        <v>0.03008696587713426</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03955379878472882</v>
+        <v>0.1538164168813335</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03038076230470103</v>
+        <v>0.02976083071680032</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04063511911085738</v>
+        <v>0.0365994000435771</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02433393602216649</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03946886755714117</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03118025604956158</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.09947997321301447</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03059971990978697</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1567458461364123</v>
+        <v>0.09451233953357865</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03053169853384811</v>
+        <v>0.03087872813705885</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04063511911085738</v>
+        <v>0.1559408647208552</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03118025604956158</v>
+        <v>0.03054401047250559</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04098611652398386</v>
+        <v>0.03674887815999456</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02495788309965794</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04038133659182855</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03197974979442213</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.1001568615136827</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03138432811260203</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1580703849146037</v>
+        <v>0.09613916041406162</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03131456259881858</v>
+        <v>0.03167049039698343</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04098611652398386</v>
+        <v>0.159070180345966</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03197974979442213</v>
+        <v>0.03132719022821086</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04170420618417413</v>
+        <v>0.0368973800928224</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02558183017714939</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0414639099454539</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03277924353928269</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.1014701840644723</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03216893631541708</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1608974412929191</v>
+        <v>0.09780281486771322</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03209742666378904</v>
+        <v>0.03246225265690802</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04170420618417413</v>
+        <v>0.1596012965750227</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03277924353928269</v>
+        <v>0.03211036998391613</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04238680325149398</v>
+        <v>0.03704789306547566</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02620577725464084</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04221296404411819</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03357873728414324</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.1032176357989233</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03295354451823213</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1621239195064128</v>
+        <v>0.09879639760160103</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0328802907287595</v>
+        <v>0.03325401491683261</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04238680325149398</v>
+        <v>0.162531146226382</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03357873728414324</v>
+        <v>0.0328935497396214</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04313132288600928</v>
+        <v>0.03720340430136949</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02682972433213228</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0426248753139223</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03437823102900379</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.1031969116505765</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03373815272104717</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1633467237901391</v>
+        <v>0.1004130033227927</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03366315479372996</v>
+        <v>0.03404577717675719</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04313132288600928</v>
+        <v>0.1638566621184008</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03437823102900379</v>
+        <v>0.03367672949532667</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04373518024778582</v>
+        <v>0.03736690102391894</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02745367140962373</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04349602018096714</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03517772477386435</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1046057065529721</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03452276092386223</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1661627583791521</v>
+        <v>0.1018457267383562</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03444601885870043</v>
+        <v>0.03483753943668177</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04373518024778582</v>
+        <v>0.1650747770694357</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03517772477386435</v>
+        <v>0.03445990925103195</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04459579049688944</v>
+        <v>0.03753728367990442</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02807761848711518</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04412277507135365</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.0359772185187249</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1056417154396505</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03530736912667728</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1659689275085058</v>
+        <v>0.1030876625553588</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03522888292367089</v>
+        <v>0.03562930169660636</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04459579049688944</v>
+        <v>0.1673824238978435</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0359772185187249</v>
+        <v>0.03524308900673721</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.044710568793386</v>
+        <v>0.0377068445438246</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02870156556460663</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04450151641118275</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03677671226358546</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.1067026332441519</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03609197732949233</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1683621354132547</v>
+        <v>0.1047319054808686</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03601174698864135</v>
+        <v>0.03642106395653095</v>
       </c>
       <c r="N111" t="n">
-        <v>0.044710568793386</v>
+        <v>0.1685765354219811</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03677671226358546</v>
+        <v>0.03602626876244248</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04547693029734132</v>
+        <v>0.0378752014530947</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02932551264209807</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04502862062655531</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.037576206008446</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1077861549000169</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03687658553230738</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1694392863284528</v>
+        <v>0.106471550221953</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03679461105361182</v>
+        <v>0.03721282621645553</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04547693029734132</v>
+        <v>0.1689540444602051</v>
       </c>
       <c r="O112" t="n">
-        <v>0.037576206008446</v>
+        <v>0.03680944851814776</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04559229016882123</v>
+        <v>0.03804227953283447</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02994945971958952</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04550046414357231</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03837569975330656</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1080899753407858</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03766119373512242</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1700972844891545</v>
+        <v>0.1069996914856797</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03757747511858228</v>
+        <v>0.03800458847638012</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04559229016882123</v>
+        <v>0.1708118838308723</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03837569975330656</v>
+        <v>0.03759262827385303</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04635406356789154</v>
+        <v>0.03820800390816367</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03057340679708098</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0461134233883346</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03917519349816712</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1086117894999991</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03844580193793748</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1719330341304138</v>
+        <v>0.1077094239791165</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03836033918355275</v>
+        <v>0.0387963507363047</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04635406356789154</v>
+        <v>0.1707469863523396</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03917519349816712</v>
+        <v>0.0383758080295583</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0465596656546181</v>
+        <v>0.03837229970420208</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03119735387457243</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04616387478694316</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03997468724302767</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1092492923111971</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03923041014075253</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1719434394872847</v>
+        <v>0.1085938424093312</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03914320324852322</v>
+        <v>0.03958811299622929</v>
       </c>
       <c r="N115" t="n">
-        <v>0.0465596656546181</v>
+        <v>0.1712562848429637</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03997468724302767</v>
+        <v>0.03915898778526358</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04690651158906675</v>
+        <v>0.03853509204606943</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03182130095206387</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04654819476549886</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04077418098788822</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1099001787079202</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04001501834356758</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1725254047948219</v>
+        <v>0.1089460414833913</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03992606731349368</v>
+        <v>0.04037987525615388</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04690651158906675</v>
+        <v>0.1733367121211011</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04077418098788822</v>
+        <v>0.03994216754096885</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04679201653130331</v>
+        <v>0.03869630605888554</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03244524802955532</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.04666275975010262</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04157367473274878</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1094621436237086</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04079962654638263</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1739758342880791</v>
+        <v>0.1098591159083645</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04070893137846415</v>
+        <v>0.04117163751607846</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04679201653130331</v>
+        <v>0.172785201005109</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04157367473274878</v>
+        <v>0.04072534729667412</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04681359564139362</v>
+        <v>0.03885586686777015</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03306919510704677</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04700394616685535</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04237316847760932</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.110132881992103</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04158423474919768</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1728916322021107</v>
+        <v>0.1101261603913185</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04149179544343461</v>
+        <v>0.04196339977600304</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04681359564139362</v>
+        <v>0.1744986843133439</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04237316847760932</v>
+        <v>0.04150852705237939</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.03901369959784305</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03369314218453821</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.04727182867737106</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04317266222246988</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1104100887466435</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04236884295201273</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1740697027719709</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04227465950840507</v>
+        <v>0.04275516203592764</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04727182867737106</v>
+        <v>0.1744740948641625</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04317266222246988</v>
+        <v>0.04229170680808466</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04706939154214604</v>
+        <v>0.03916972937422397</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03431708926202966</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04686983750775857</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04397215596733044</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1110968868594793</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04315345115482778</v>
-      </c>
       <c r="L120" t="n">
+        <v>0.110896233945639</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.04354692429585222</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1749219450415875</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04305752357337553</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.04706939154214604</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04397215596733044</v>
+        <v>0.04307488656378993</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04685757276637073</v>
+        <v>0.03932388132203271</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03494103633952111</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04696016955015087</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04477164971219099</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.1106928673008327</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04393805935764283</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1741072244718618</v>
+        <v>0.110365875424625</v>
       </c>
       <c r="M121" t="n">
-        <v>0.043840387638346</v>
+        <v>0.0443386865557768</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04685757276637073</v>
+        <v>0.1741102492613116</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04477164971219099</v>
+        <v>0.0438580663194952</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04713623596520784</v>
+        <v>0.03947608056638903</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03556498341701256</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04714268905926935</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04557114345705154</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1110720430914625</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04472266756045789</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1746056201068698</v>
+        <v>0.1104916967962416</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04462325170331647</v>
+        <v>0.04513044881570139</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04713623596520784</v>
+        <v>0.1737339885237956</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04557114345705154</v>
+        <v>0.04464124607520047</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0471057038172918</v>
+        <v>0.03962625223241269</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03618893049450401</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04691763497622446</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04637063720191209</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1102338601199807</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04550727576327294</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1736116693807438</v>
+        <v>0.1102757860119068</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04540611576828692</v>
+        <v>0.04592221107562598</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0471057038172918</v>
+        <v>0.1740894466893204</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04637063720191209</v>
+        <v>0.04542442583090574</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04696629900125704</v>
+        <v>0.03977432144522344</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03681287757199546</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04708524624212648</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04717013094677264</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1099787629025214</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04629188396608799</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.17333034161286</v>
+        <v>0.1097202310230387</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04618897983325739</v>
+        <v>0.04671397333555057</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04696629900125704</v>
+        <v>0.1742798083943619</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04717013094677264</v>
+        <v>0.04620760558661102</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04711834419573795</v>
+        <v>0.03992021332994108</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03743682464948691</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04694576179808579</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0479696246916332</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1107071959552186</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04707649216890303</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1725666061225944</v>
+        <v>0.1098271197810554</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04697184389822786</v>
+        <v>0.04750573559547515</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04711834419573795</v>
+        <v>0.1733082582753955</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0479696246916332</v>
+        <v>0.04699078534231629</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04666216207936895</v>
+        <v>0.04006385301168537</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03806077172697836</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04689942058521276</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04876911843649376</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1104196037942062</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04786110037171809</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1733254322293235</v>
+        <v>0.1093985402373751</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04775470796319832</v>
+        <v>0.04829749785539974</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04666216207936895</v>
+        <v>0.1736779809688974</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04876911843649376</v>
+        <v>0.04777396509802156</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04669807533078441</v>
+        <v>0.04020516561557606</v>
       </c>
       <c r="G127" t="n">
+        <v>0.0386847188044698</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04704646154461774</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04956861218135431</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1107164309356184</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04864570857453314</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.172611789252423</v>
+        <v>0.1097365803434157</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04853757202816879</v>
+        <v>0.04908926011532432</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04669807533078441</v>
+        <v>0.1731921611113429</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04956861218135431</v>
+        <v>0.04855714485372683</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04692640662861876</v>
+        <v>0.04034407626673293</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03930866588196125</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04668712361741108</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05036810592621486</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1094981218955892</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04943031677734819</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1712306465112693</v>
+        <v>0.1091433280505956</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04932043609313925</v>
+        <v>0.04988102237524891</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04692640662861876</v>
+        <v>0.1727539833392081</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05036810592621486</v>
+        <v>0.04934032460943211</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0464474786515064</v>
+        <v>0.04048051009027577</v>
       </c>
       <c r="G129" t="n">
+        <v>0.0399326129594527</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04682164574470311</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05116759967107541</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1104651211902525</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05021492498016324</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1713869733252383</v>
+        <v>0.1091208713103325</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05010330015810972</v>
+        <v>0.0506727846351735</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0464474786515064</v>
+        <v>0.1713666322889686</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05116759967107541</v>
+        <v>0.05012350436513737</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04666161407808175</v>
+        <v>0.0406143922113243</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04055656003694415</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04685026686760423</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05196709341593597</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1092178733357423</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05099953318297828</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1708857390137065</v>
+        <v>0.108371298074045</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05088616422308018</v>
+        <v>0.05146454689509808</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04666161407808175</v>
+        <v>0.1703332925971001</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05196709341593597</v>
+        <v>0.05090668412084264</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04646913558697921</v>
+        <v>0.04074564775499834</v>
       </c>
       <c r="G131" t="n">
+        <v>0.0411805071144356</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04647322592722476</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05276658716079652</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1099568228481929</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05178414138579334</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1701319128960497</v>
+        <v>0.1082966962931508</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05166902828805064</v>
+        <v>0.05225630915502266</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04646913558697921</v>
+        <v>0.1711571489000782</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05276658716079652</v>
+        <v>0.05168986387654792</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04617036585683319</v>
+        <v>0.0408742018464176</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04180445419192704</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04649076186467507</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05356608090565708</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.109282414243738</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05256874958860839</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1689304642916442</v>
+        <v>0.1080991539190682</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05245189235302111</v>
+        <v>0.05304807141494725</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04617036585683319</v>
+        <v>0.1707413858343789</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05356608090565708</v>
+        <v>0.05247304363225319</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04626562756627808</v>
+        <v>0.0409999796107019</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04242840126941849</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04640311362106553</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05436557465051763</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1096950920385116</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05335335779142344</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1669863625198659</v>
+        <v>0.1072807589032153</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05323475641799157</v>
+        <v>0.05383983367487183</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04626562756627808</v>
+        <v>0.1696891880364779</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05436557465051763</v>
+        <v>0.05325622338795846</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04605524339394833</v>
+        <v>0.04112290617297097</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04305234834690994</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04611052013750647</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05516506839537818</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.109095300748648</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05413796599423849</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1671045769000913</v>
+        <v>0.10724359919701</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05401762048296203</v>
+        <v>0.05463159593479643</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04605524339394833</v>
+        <v>0.1680037401428508</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05516506839537818</v>
+        <v>0.05403940314366373</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04613953601847828</v>
+        <v>0.0412429066583446</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04367629542440139</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04641322035510827</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05596456214023873</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.108383484890281</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05492257419705354</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1652900767516963</v>
+        <v>0.1069897627518707</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05480048454793249</v>
+        <v>0.05542335819472101</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04613953601847828</v>
+        <v>0.1683882267899734</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05596456214023873</v>
+        <v>0.054822582899369</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04611882811850239</v>
+        <v>0.04135990619194255</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04430024250189284</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04621145321498124</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05676405588509929</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1089600889795447</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0557071823998686</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.165647831394057</v>
+        <v>0.1058213375192154</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05558334861290296</v>
+        <v>0.05621512045464559</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04611882811850239</v>
+        <v>0.1673458326143215</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05676405588509929</v>
+        <v>0.05560576265507428</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04579344237265505</v>
+        <v>0.04147382989888457</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04492418957938429</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04600545765823578</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05756354962995985</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1081255575325731</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05649179060268365</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1638828101465497</v>
+        <v>0.105940411450462</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05636621267787343</v>
+        <v>0.05700688271457018</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04579344237265505</v>
+        <v>0.1658797422523708</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05756354962995985</v>
+        <v>0.05638894241077954</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04586370145957067</v>
+        <v>0.04158460290429046</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04554813665687574</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04589547262598223</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05836304337482039</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1085803350655002</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05727639880549869</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1636999823285504</v>
+        <v>0.1052490724970289</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05714907674284389</v>
+        <v>0.05779864497449477</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04586370145957067</v>
+        <v>0.1657931403405969</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05836304337482039</v>
+        <v>0.05717212216648481</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04532992805788365</v>
+        <v>0.04169215033327997</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04617208373436719</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04568173705933096</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05916253711968095</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.10762486609446</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05806100700831374</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1630043172594353</v>
+        <v>0.104049408610334</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05793194080781436</v>
+        <v>0.05859040723441935</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04532992805788365</v>
+        <v>0.1642892115154758</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05916253711968095</v>
+        <v>0.0579553019221901</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0454924448462284</v>
+        <v>0.04179639731097289</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04679603081185863</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0455644898993923</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05996203086454149</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1074595951355867</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0588456152111288</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1619007842585805</v>
+        <v>0.1038435077417955</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05871480487278482</v>
+        <v>0.05938216949434394</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0454924448462284</v>
+        <v>0.164471140413483</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05996203086454149</v>
+        <v>0.05873848167789536</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04545157450323933</v>
+        <v>0.04189726896248894</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04741997788935008</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04564397008727659</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06076152460940205</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1072849667050141</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05963022341394385</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1596943526453621</v>
+        <v>0.1030334578428315</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05949766893775529</v>
+        <v>0.06017393175426852</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04545157450323933</v>
+        <v>0.1633421116710944</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06076152460940205</v>
+        <v>0.05952166143360063</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04500763970755084</v>
+        <v>0.04199469041294793</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04804392496684153</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04532041656409426</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06156101835426261</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1070014253188763</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.0604148316167589</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1598899917391564</v>
+        <v>0.10262134686486</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06028053300272575</v>
+        <v>0.06096569401419311</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04500763970755084</v>
+        <v>0.1628053099247857</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06156101835426261</v>
+        <v>0.0603048411893059</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04496096313779734</v>
+        <v>0.0420885867874696</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04866787204433298</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04509406827095559</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06236051209912316</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1065094154933072</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06119943981957394</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1579926708593393</v>
+        <v>0.1030092627592993</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06106339706769622</v>
+        <v>0.0617574562741177</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04496096313779734</v>
+        <v>0.1619639198110326</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06236051209912316</v>
+        <v>0.06108802094501117</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04491186747261323</v>
+        <v>0.04217888321117375</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04929181912182443</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04526516414897096</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06316000584398372</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1065093817444411</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06198404802238901</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.156707359325287</v>
+        <v>0.1019992934775674</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06184626113266668</v>
+        <v>0.06254921853404227</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04491186747261323</v>
+        <v>0.1615211259663108</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06316000584398372</v>
+        <v>0.06187120070071644</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04446067539063295</v>
+        <v>0.04226550480918011</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04991576619931588</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04483394313925074</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06395949958884427</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1061017685884117</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06276865622520406</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1554390264563758</v>
+        <v>0.1013935269710823</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06262912519763715</v>
+        <v>0.06334098079396687</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04446067539063295</v>
+        <v>0.1599801130270961</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06395949958884427</v>
+        <v>0.06265438045642172</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04450770957049084</v>
+        <v>0.04234837670660846</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05053971327680733</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04470064418290527</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06475899333370483</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1056870205413533</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0635532644280191</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1555926415719816</v>
+        <v>0.1004940511912623</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0634119892626076</v>
+        <v>0.06413274305389145</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04450770957049084</v>
+        <v>0.1593440656298642</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06475899333370483</v>
+        <v>0.06343756021212699</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04435329269082137</v>
+        <v>0.04242742402857859</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05116366035429878</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04496550622104491</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06555848707856538</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1059655821193997</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06433787263083415</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1548731739914807</v>
+        <v>0.1004029540895254</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06419485332757807</v>
+        <v>0.06492450531381604</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04435329269082137</v>
+        <v>0.157316168411091</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06555848707856538</v>
+        <v>0.06422073996783226</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04399774743025894</v>
+        <v>0.04250257190021021</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05178760743179022</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04472876819478</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06635798082342592</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.105237897838685</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.0651224808336492</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1535855930342492</v>
+        <v>0.09952232361728969</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06497771739254854</v>
+        <v>0.06571626757374063</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04399774743025894</v>
+        <v>0.1581996060072519</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06635798082342592</v>
+        <v>0.06500391972353753</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04404139646743792</v>
+        <v>0.04257374544662317</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05241155450928167</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04429066904522092</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06715747456828648</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.1052044122153432</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06590708903646425</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1522348680196631</v>
+        <v>0.09935424772597326</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06576058145751901</v>
+        <v>0.06650802983366522</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04404139646743792</v>
+        <v>0.157297563054823</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06715747456828648</v>
+        <v>0.0657870994792428</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04398456248099274</v>
+        <v>0.04264086979293719</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05303550158677311</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04415144771347801</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06795696831314703</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1045655697655084</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0666916972392793</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1523259682670987</v>
+        <v>0.09960081436699428</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06654344552248947</v>
+        <v>0.06729979209358979</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04398456248099274</v>
+        <v>0.1555132241902798</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06795696831314703</v>
+        <v>0.06657027923494807</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04392756814955781</v>
+        <v>0.04270387006427204</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05365944866426457</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04421134314066162</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06875646205800759</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.1039218150053144</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06747630544209435</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.150163863095932</v>
+        <v>0.09876411149177078</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06732630958745993</v>
+        <v>0.06809155435351438</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04392756814955781</v>
+        <v>0.1558497740500981</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06875646205800759</v>
+        <v>0.06735345899065334</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04357073615176753</v>
+        <v>0.04276267138574748</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05428339574175602</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04427059426788213</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06955595580286814</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1043735924508956</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.0682609136449094</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1498535218255393</v>
+        <v>0.09834622705172094</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0681091736524304</v>
+        <v>0.06888331661343897</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04357073615176753</v>
+        <v>0.1549103972707537</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06955595580286814</v>
+        <v>0.06813663874635863</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04331438916625632</v>
+        <v>0.0428171988824833</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05490734281924746</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04412944003624987</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0703554495477287</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1039213466183856</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06904552184772446</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1502909394440783</v>
+        <v>0.09744924899826279</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06889203771740086</v>
+        <v>0.06967507887336355</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04331438916625632</v>
+        <v>0.1526982784887223</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0703554495477287</v>
+        <v>0.0689198185020639</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04345884987165856</v>
+        <v>0.04286737767959924</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05553128989673892</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04398811938687522</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07115494329258924</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1028655220239187</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06983013005053951</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1492468793921221</v>
+        <v>0.09687526528281454</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06967490178237133</v>
+        <v>0.07046684113328815</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04345884987165856</v>
+        <v>0.1524166023404795</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07115494329258924</v>
+        <v>0.06970299825776916</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04310444094660866</v>
+        <v>0.04291313290221509</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05615523697423036</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0438468712608685</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.0719544370374498</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1031065631836289</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07061473825335456</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.148417890362211</v>
+        <v>0.09672636385679415</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07045776584734179</v>
+        <v>0.07125860339321273</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04310444094660866</v>
+        <v>0.1527685534625013</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0719544370374498</v>
+        <v>0.07048617801347443</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04295148506974104</v>
+        <v>0.04295438967545061</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05677918405172181</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04350593459934009</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07275393078231036</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.10294491461365</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.0713993464561696</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1482031488582395</v>
+        <v>0.09730463267161985</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07124062991231224</v>
+        <v>0.07205036565313731</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04295148506974104</v>
+        <v>0.1519573164912633</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07275393078231036</v>
+        <v>0.0712693577691797</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04299956676781237</v>
+        <v>0.04299107312442554</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05740313112921325</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04316554834340033</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07355342452717091</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1022810208301162</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07218395465898467</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1463018313841024</v>
+        <v>0.09631215967870965</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07202349397728271</v>
+        <v>0.0728421279130619</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04299956676781237</v>
+        <v>0.1503860760632412</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07355342452717091</v>
+        <v>0.07205253752488497</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04243940707259608</v>
+        <v>0.04302310837425972</v>
       </c>
       <c r="G158" t="n">
+        <v>0.0580270782067047</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04312164288136182</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07435291827203146</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.1020153263491616</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07296856286179972</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1471131144436942</v>
+        <v>0.09594426713151699</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07280635804225317</v>
+        <v>0.07363389017298648</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04243940707259608</v>
+        <v>0.1496493610120972</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07435291827203146</v>
+        <v>0.07283571728059025</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04266859134632417</v>
+        <v>0.04305042055007285</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05865102528419615</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04296741727276718</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.075152412016892</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1016482756869199</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07375317106461476</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1466361745409097</v>
+        <v>0.09538967031303608</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07358922210722364</v>
+        <v>0.07442565243291106</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04266859134632417</v>
+        <v>0.1495328371118836</v>
       </c>
       <c r="O159" t="n">
-        <v>0.075152412016892</v>
+        <v>0.07361889703629552</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04218772282371447</v>
+        <v>0.04307293477698472</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05927497236168761</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04290321285342244</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07595190576175256</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.1012803133595254</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07453777926742981</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1462701881796433</v>
+        <v>0.09534727301531012</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07437208617219411</v>
+        <v>0.07521741469283566</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04218772282371447</v>
+        <v>0.149134758655712</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07595190576175256</v>
+        <v>0.0744020767920008</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04219740473948487</v>
+        <v>0.04309057618011509</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05989891943917904</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04292948091660206</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07675139950661312</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.100311883883112</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07532238747024485</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1447143318637898</v>
+        <v>0.09561617159347027</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07515495023716456</v>
+        <v>0.07600917695276024</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04219740473948487</v>
+        <v>0.1494536163906107</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07675139950661312</v>
+        <v>0.07518525654770607</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04179824032835329</v>
+        <v>0.04310326988458375</v>
       </c>
       <c r="G162" t="n">
+        <v>0.0605228665166705</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04254667275558055</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07755089325147367</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.1002434317738138</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07610699567305991</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1442677820972439</v>
+        <v>0.09489546240264746</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07593781430213503</v>
+        <v>0.07680093921268483</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04179824032835329</v>
+        <v>0.1491879010636087</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07755089325147367</v>
+        <v>0.07596843630341132</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04189083282503754</v>
+        <v>0.04311094101551044</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06114681359416195</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04225523966363237</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07835038699633423</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.1000754015477647</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07689160387587496</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1438297153839</v>
+        <v>0.09498424179797274</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0767206783671055</v>
+        <v>0.07759270147260941</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04189083282503754</v>
+        <v>0.1485361034217342</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07835038699633423</v>
+        <v>0.0767516160591166</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04147578546425557</v>
+        <v>0.04311351469801496</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06177076067165339</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04235563293403199</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07914988074119478</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.0998082377210989</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07767621207869001</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1431993082276531</v>
+        <v>0.09528160613457715</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07750354243207597</v>
+        <v>0.07838446373253399</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04147578546425557</v>
+        <v>0.1480967142120162</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07914988074119478</v>
+        <v>0.07753479581482187</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04135370148072522</v>
+        <v>0.04311351469801496</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06177076067165339</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04174830386005393</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07994937448605534</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.09913681867542401</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07846082028150506</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1432757371323975</v>
+        <v>0.09518665176759167</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07828640649704643</v>
+        <v>0.07917622599245858</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04135370148072522</v>
+        <v>0.1475682241814832</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07994937448605534</v>
+        <v>0.07831797557052715</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04082518410916439</v>
+        <v>0.04236345493071546</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06177049214318938</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04153370373497266</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08074886823091589</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.09924851617755018</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07924542848432012</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1419581786020281</v>
+        <v>0.09429847505214739</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07906927056201689</v>
+        <v>0.07996798825238317</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04082518410916439</v>
+        <v>0.1463491240771638</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08074886823091589</v>
+        <v>0.07910115532623242</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04099083658429094</v>
+        <v>0.04162191006219318</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06177022361472537</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04151228385206261</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08154836197577645</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.09854301852263239</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08003003668713517</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1417458091404393</v>
+        <v>0.09371617234337529</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07985213462698736</v>
+        <v>0.08075975051230776</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04099083658429094</v>
+        <v>0.1457379046460868</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08154836197577645</v>
+        <v>0.07988433508193769</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04035126214082277</v>
+        <v>0.04088930731815758</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06176995508626134</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04118449550459835</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08234785572063701</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.09782054013346217</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08081464488995022</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.141937805251526</v>
+        <v>0.09413883999640638</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08063499869195782</v>
+        <v>0.08155151277223234</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04035126214082277</v>
+        <v>0.1458330566352806</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08234785572063701</v>
+        <v>0.08066751483764296</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04040706401347775</v>
+        <v>0.04016607392441364</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06176968655779733</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04115078998585428</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08314734946549755</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09758129543283109</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08159925309276526</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1407333434391825</v>
+        <v>0.09356557436637172</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08141786275692829</v>
+        <v>0.08234327503215692</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04040706401347775</v>
+        <v>0.145133070791774</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08314734946549755</v>
+        <v>0.08145069459334824</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04025884543697376</v>
+        <v>0.03945263710667044</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06176941802933331</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.04071161858910495</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0839468432103581</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09702549884353076</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08238386129558033</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1403316002073039</v>
+        <v>0.0931954718084024</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08220072682189876</v>
+        <v>0.08313503729208151</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04025884543697376</v>
+        <v>0.1455364378625957</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0839468432103581</v>
+        <v>0.08223387434905349</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0397072096460287</v>
+        <v>0.03874942409066913</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06176914950086929</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04076743260762479</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08474633695521865</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09655336478835277</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08316846949839536</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1388317520597844</v>
+        <v>0.09312762867762933</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08298359088686921</v>
+        <v>0.08392679955200609</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0397072096460287</v>
+        <v>0.1449416485947742</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08474633695521865</v>
+        <v>0.08301705410475878</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03965275987536039</v>
+        <v>0.03805686210212099</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06176888097240527</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0403186833346883</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08554583070007921</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.0958651076900886</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08395307770121041</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.138332975500519</v>
+        <v>0.09296114132918357</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08376645495183968</v>
+        <v>0.08471856181193069</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03965275987536039</v>
+        <v>0.1443471937353381</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08554583070007921</v>
+        <v>0.08380023386046405</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03939609935968678</v>
+        <v>0.03737537836682747</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06176861244394125</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04006582206356998</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08634532444493975</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.09516094197152994</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08473768590402546</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.138534447033402</v>
+        <v>0.09359510611819613</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08454931901681015</v>
+        <v>0.08551032407185527</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03939609935968678</v>
+        <v>0.1433515640313162</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08634532444493975</v>
+        <v>0.08458341361616932</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03923783133372573</v>
+        <v>0.03670540011049939</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06176834391547724</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03970930008754429</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08714481818980031</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.09524108205546833</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08552229410684052</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1385353431623282</v>
+        <v>0.09292861939979813</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08533218308178062</v>
+        <v>0.08630208633177985</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03923783133372573</v>
+        <v>0.1430532502297371</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08714481818980031</v>
+        <v>0.08536659337187459</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0386785590321951</v>
+        <v>0.03604735455887786</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06176807538701323</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03964956869988573</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08794431193466087</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09480574236469533</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08630690230965557</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1383348403911924</v>
+        <v>0.0923607775291205</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08611504714675107</v>
+        <v>0.08709384859170444</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0386785590321951</v>
+        <v>0.1439507430776294</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08794431193466087</v>
+        <v>0.08614977312757986</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03851888568981275</v>
+        <v>0.03540166893767629</v>
       </c>
       <c r="G176" t="n">
+        <v>0.0617678068585492</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03918707919386878</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08874380567952142</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.09335513732200257</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08709151051247062</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.137532115223889</v>
+        <v>0.09319067686129431</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08689791121172154</v>
+        <v>0.08788561085162902</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03851888568981275</v>
+        <v>0.1424425333220217</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08874380567952142</v>
+        <v>0.08693295288328513</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03805941454129666</v>
+        <v>0.03476877047269203</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06176753833008519</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03902228286276788</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08954329942438198</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.09308948135018155</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08787611871528567</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1359263441643128</v>
+        <v>0.09301741375145056</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08768077527669201</v>
+        <v>0.0886773731115536</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03805941454129666</v>
+        <v>0.1416271117099426</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08954329942438198</v>
+        <v>0.0877161326389904</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03800074882136459</v>
+        <v>0.03414908638963786</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06176726980162117</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03855563099985758</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09034279316924253</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.09270898887202389</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08866072691810072</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1353167037163583</v>
+        <v>0.09194008455472025</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08846363934166247</v>
+        <v>0.0894691353714782</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03800074882136459</v>
+        <v>0.141602968988421</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09034279316924253</v>
+        <v>0.08849931239469568</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03774349176473447</v>
+        <v>0.03354304391425497</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06176700127315716</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0384875748984123</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09114228691410309</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.09201387431032115</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08944533512091578</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1362023703839202</v>
+        <v>0.09265778562623453</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08924650340663294</v>
+        <v>0.09026089763140278</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03774349176473447</v>
+        <v>0.1415685959044852</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09114228691410309</v>
+        <v>0.08928249215040095</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03738824660612422</v>
+        <v>0.03295107027225906</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06176673274469313</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03801856585170657</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09194178065896363</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.09110435208786491</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09022994332373083</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1345825206708933</v>
+        <v>0.09246961332112427</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09002936747160339</v>
+        <v>0.09105265989132738</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03738824660612422</v>
+        <v>0.1418224832051642</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09194178065896363</v>
+        <v>0.09006567190610622</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03743561658025166</v>
+        <v>0.03237359268944286</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06176646421622912</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03794905515301485</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09274127440382418</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.09128063662744679</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09101455152654588</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.134056331081172</v>
+        <v>0.09177466399452058</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09081223153657385</v>
+        <v>0.09184442215125195</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03743561658025166</v>
+        <v>0.1403631216374863</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09274127440382418</v>
+        <v>0.09084885166181149</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0369862049218347</v>
+        <v>0.03181103839152144</v>
       </c>
       <c r="G182" t="n">
+        <v>0.0617661956877651</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03767949409561161</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09354076814868474</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.09054294235185834</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09179915972936092</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1336229781186511</v>
+        <v>0.09167203400155446</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09159509560154432</v>
+        <v>0.09263618441117653</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0369862049218347</v>
+        <v>0.1408890019484803</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09354076814868474</v>
+        <v>0.09163203141751676</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03684061486559122</v>
+        <v>0.031263834604236</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06176592715930109</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03731033397277136</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09434026189354529</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08959148368389108</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09258376793217597</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1331816382872251</v>
+        <v>0.09116081969735693</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09237795966651478</v>
+        <v>0.09342794667110113</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03684061486559122</v>
+        <v>0.1397986148851749</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09434026189354529</v>
+        <v>0.09241521117322203</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03649944964623907</v>
+        <v>0.03073240855330488</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06176565863083706</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03694202607776857</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09513975563840585</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08872647504633668</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09336837613499102</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1327314880907888</v>
+        <v>0.09084011743705905</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09316082373148525</v>
+        <v>0.09421970893102571</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03649944964623907</v>
+        <v>0.1398904511945985</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09513975563840585</v>
+        <v>0.0931983909289273</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03606331249849618</v>
+        <v>0.03021718746451557</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06176539010237305</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03667502170387771</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.0959392493832664</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08854813086198668</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09415298433780607</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1321717040332367</v>
+        <v>0.09100902357579185</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09394368779645572</v>
+        <v>0.0950114711909503</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03606331249849618</v>
+        <v>0.1382630016237801</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0959392493832664</v>
+        <v>0.09398157068463257</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03583280665708038</v>
+        <v>0.02971859856358573</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06176512157390903</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03640977214437328</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09673874312812696</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08755666555363262</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09493759254062112</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1325014626184636</v>
+        <v>0.0902666344686863</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09472655186142617</v>
+        <v>0.09580323345087489</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03583280665708038</v>
+        <v>0.137414756919748</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09673874312812696</v>
+        <v>0.09476475044033784</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0359085353567096</v>
+        <v>0.02923706907625652</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06176485304544502</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03624672869252975</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09753823687298752</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08645229354406614</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09572220074343618</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.130719940350364</v>
+        <v>0.09001204647087346</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09550941592639664</v>
+        <v>0.09659499571079948</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0359085353567096</v>
+        <v>0.137944207829531</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09753823687298752</v>
+        <v>0.09554793019604312</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03579110183210166</v>
+        <v>0.02877302622824933</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06176458451698099</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0362863426416216</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09833773061784806</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08583522925607875</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09650680894625123</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1302263137328325</v>
+        <v>0.08994435593748434</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09629227999136711</v>
+        <v>0.09738675797072405</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03579110183210166</v>
+        <v>0.1362498451001578</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09833773061784806</v>
+        <v>0.09633110995174839</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0352811093179745</v>
+        <v>0.02832689724534571</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06176431598851698</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03572906528492334</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09913722436270862</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08550568711246212</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09729141714906628</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.130419759269764</v>
+        <v>0.08986265922365003</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09707514405633758</v>
+        <v>0.09817852023064864</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0352811093179745</v>
+        <v>0.1365301594786569</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09913722436270862</v>
+        <v>0.09711428970745366</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03537916104904597</v>
+        <v>0.02789736484815662</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06176404746005296</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03577534791570942</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09993671810756917</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.08516388153600774</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09807602535188133</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1290994534650529</v>
+        <v>0.08996605268450145</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09785800812130803</v>
+        <v>0.09897028249057323</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03537916104904597</v>
+        <v>0.136183641712057</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09993671810756917</v>
+        <v>0.09789746946315894</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03478586026003394</v>
+        <v>0.02747438923176451</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06176377893158895</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03542564182725433</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1007362118524297</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.0838100269495072</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09886063355469639</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1286645728225939</v>
+        <v>0.0894536326751697</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0986408721862785</v>
+        <v>0.09976204475049781</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03478586026003394</v>
+        <v>0.1356087825473868</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1007362118524297</v>
+        <v>0.09868064921886421</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03490181018565633</v>
+        <v>0.02705665311678254</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06176351040312492</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03508039831283255</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1015357055972903</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.08364433777575211</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09964524175751144</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1276142938462816</v>
+        <v>0.08872449555078582</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09942373625124896</v>
+        <v>0.1005538070104224</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03490181018565633</v>
+        <v>0.1334040727316748</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1015357055972903</v>
+        <v>0.09946382897456947</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03482761406063097</v>
+        <v>0.02664458372898827</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06176324187466091</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03463249415746295</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1023351993421508</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.08186702843753407</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1004298499603265</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1277477930400108</v>
+        <v>0.08864727711321058</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1002066003162194</v>
+        <v>0.101345569270347</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03482761406063097</v>
+        <v>0.1338114451216739</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1023351993421508</v>
+        <v>0.1002470087302747</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03466205225450159</v>
+        <v>0.02623860829410457</v>
       </c>
       <c r="G194" t="n">
+        <v>0.0617629733461969</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03457352198208224</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1031346930870114</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.08147831335764455</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1012144581631415</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1268642469076759</v>
+        <v>0.08808633117562897</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1009894643811899</v>
+        <v>0.1021373315302716</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03466205225450159</v>
+        <v>0.1326663934793769</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1031346930870114</v>
+        <v>0.10103018848598</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03410198130282714</v>
+        <v>0.0258391540378726</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06176270481773288</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03410438521353129</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1039341868318719</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.08043924746805475</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1019990663659566</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1262628319531718</v>
+        <v>0.08814641103825901</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1017723284461604</v>
+        <v>0.1029290937901962</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03410198130282714</v>
+        <v>0.130678273131915</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1039341868318719</v>
+        <v>0.1018133682416853</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03424701658652578</v>
+        <v>0.02544664818601659</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06176243628926886</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03412600764466417</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1047336805767325</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.07947462569795827</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1027836745687716</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.124942724680393</v>
+        <v>0.08683239786489022</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1025551925111308</v>
+        <v>0.1037208560501207</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03424701658652578</v>
+        <v>0.130156638154959</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1047336805767325</v>
+        <v>0.1025965479973906</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03379683085276881</v>
+        <v>0.02506151796431191</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06176216776080484</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.0338393130683349</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.105533174321593</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07859739580641437</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1035682827715867</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1241031015932341</v>
+        <v>0.0860491728193119</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1033380565761013</v>
+        <v>0.1045126183100453</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03379683085276881</v>
+        <v>0.1289110426241796</v>
       </c>
       <c r="O197" t="n">
-        <v>0.105533174321593</v>
+        <v>0.1033797277530958</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03365109684872747</v>
+        <v>0.02468419059848249</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06176189923234082</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03354522527739759</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1063326680664536</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07762341189314526</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1043528909744017</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1242431391955899</v>
+        <v>0.08500161706531345</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1041209206410718</v>
+        <v>0.1053043805699699</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03365109684872747</v>
+        <v>0.1278510406152474</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1063326680664536</v>
+        <v>0.1041629075088011</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03350948732157308</v>
+        <v>0.02431509331426951</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06176163070387681</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03294466806470626</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1071321618113142</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07656852805787334</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1051374991772168</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1232620139913549</v>
+        <v>0.08499461176668427</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1049037847060422</v>
+        <v>0.1060961428298945</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03350948732157308</v>
+        <v>0.1261861862038329</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1071321618113142</v>
+        <v>0.1049460872645064</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03367167501847693</v>
+        <v>0.02395465333739861</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06176136217541278</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03303856522311502</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1079316555561747</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07464859840032084</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1059221073800318</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1215588986518982</v>
+        <v>0.0844330380872137</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1056866487710127</v>
+        <v>0.1068879050898191</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03367167501847693</v>
+        <v>0.1243260334656069</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1079316555561747</v>
+        <v>0.1057292670202116</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03333733268661028</v>
+        <v>0.02360329789364238</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06176109364694877</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.0323278405454779</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1087311493010353</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07327947702021015</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1067067155828469</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1222902923655451</v>
+        <v>0.08302177719069123</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1064695128359831</v>
+        <v>0.1076796673497437</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03333733268661028</v>
+        <v>0.12278013647624</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1087311493010353</v>
+        <v>0.1065124467759169</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03340613307314443</v>
+        <v>0.02326145420872609</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06176082511848476</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03221341782464893</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1095306430458958</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07217701801726359</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1074913237856619</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1202250364559225</v>
+        <v>0.08166571024090616</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1072523769009536</v>
+        <v>0.1084714296096683</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03340613307314443</v>
+        <v>0.1212580493114028</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1095306430458958</v>
+        <v>0.1072956265316222</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03317774892525063</v>
+        <v>0.02292954950839091</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06176055659002074</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03179622085348223</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1103301367907564</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07095707549120339</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.108275931988477</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.118578358406177</v>
+        <v>0.08046971840164791</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1080352409659241</v>
+        <v>0.1092631918695929</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03317774892525063</v>
+        <v>0.118269326046766</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1103301367907564</v>
+        <v>0.1080788062873275</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03325185299010021</v>
+        <v>0.02260801101836427</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06176028806155671</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.0317771734248318</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1111296305356169</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.06933550354175194</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.109060540191292</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1185654856994553</v>
+        <v>0.07993868283670588</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1088181050308945</v>
+        <v>0.1100549541295174</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03325185299010021</v>
+        <v>0.1160235207580002</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1111296305356169</v>
+        <v>0.1088619860430327</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03272811801486446</v>
+        <v>0.02229726596441531</v>
       </c>
       <c r="G205" t="n">
+        <v>0.0617600195330927</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03105719933155177</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1119291242804775</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.0684281562686315</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1098451483941071</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1175016458189039</v>
+        <v>0.07887748470986944</v>
       </c>
       <c r="M205" t="n">
-        <v>0.109600969095865</v>
+        <v>0.110846716389442</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03272811801486446</v>
+        <v>0.115030187520776</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1119291242804775</v>
+        <v>0.109645165798738</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03260621674671461</v>
+        <v>0.021997741572271</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06175975100462869</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03083722236649615</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.112728618025338</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.06685088777156439</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1106297565969221</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1157020662476694</v>
+        <v>0.07829100518492793</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1103838331608355</v>
+        <v>0.1116384786493666</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03260621674671461</v>
+        <v>0.1121988804107641</v>
       </c>
       <c r="O206" t="n">
-        <v>0.112728618025338</v>
+        <v>0.1104283455544433</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03268582193282199</v>
+        <v>0.02170986506767249</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06175948247616467</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03061816632251899</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1135281117701986</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.06501955215027294</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1114143647997372</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1142819744688984</v>
+        <v>0.07698412542567085</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1111666972258059</v>
+        <v>0.1124302409092912</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03268582193282199</v>
+        <v>0.1102391535036352</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1135281117701986</v>
+        <v>0.1112115253101486</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03236660632035786</v>
+        <v>0.02143406367634923</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06175921394770065</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03030095499247441</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1143276055150591</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.06375000350447943</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1121989730025522</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1132565979657376</v>
+        <v>0.07546172659588748</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1119495612907764</v>
+        <v>0.1132220031692158</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03236660632035786</v>
+        <v>0.1094605608750599</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1143276055150591</v>
+        <v>0.1119947050658538</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03254824265649352</v>
+        <v>0.0211707646240664</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06175894541923663</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02988651216921642</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1151270992599197</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.06325809593390627</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1129835812053673</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1127411642213333</v>
+        <v>0.07412868985936727</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1127324253557469</v>
+        <v>0.1140137654291404</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03254824265649352</v>
+        <v>0.1062726566007088</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1151270992599197</v>
+        <v>0.1127778848215591</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03253040368840027</v>
+        <v>0.0209203951365529</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06175867689077261</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02947576164559912</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1159265930047802</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.06145968353827561</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1137681894081823</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1105509007188324</v>
+        <v>0.07328989637989966</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1135152894207173</v>
+        <v>0.1148055276890649</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03253040368840027</v>
+        <v>0.1040849947562525</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1159265930047802</v>
+        <v>0.1135610645772644</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03211276216324936</v>
+        <v>0.0206833824395499</v>
       </c>
       <c r="G211" t="n">
+        <v>0.0617584083623086</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02956962721447652</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1167260867496408</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.06047062041730986</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1145527976109974</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1099010349413814</v>
+        <v>0.0727502273212739</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1142981534856878</v>
+        <v>0.1155972899489895</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03211276216324936</v>
+        <v>0.1022071294173618</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1167260867496408</v>
+        <v>0.1143442443329696</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03229499082821211</v>
+        <v>0.02046015375878917</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06175813983384457</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02926903266870272</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1175255804945013</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.06000676067073132</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1153374058138124</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.1095067943721268</v>
+        <v>0.07121456384727948</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1150810175506582</v>
+        <v>0.1163890522089141</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03229499082821211</v>
+        <v>0.1003486146597071</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1175255804945013</v>
+        <v>0.1151274240886749</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03177676243045975</v>
+        <v>0.0202511363200313</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06175787130538056</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02867490180113176</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1183250742393619</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.05898395839826229</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1161220140166275</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.1075822967902728</v>
+        <v>0.06938778712170579</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1158638816156287</v>
+        <v>0.1171808144688387</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03177676243045975</v>
+        <v>0.09781900455895931</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1183250742393619</v>
+        <v>0.1159106038443802</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0320577497171636</v>
+        <v>0.02005675734900747</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06175760277691655</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02848815840461771</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1191245679842225</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.05811806769962513</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1169066222194425</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.1076872760292896</v>
+        <v>0.0693747783083421</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1166467456805992</v>
+        <v>0.1179725767287633</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0320577497171636</v>
+        <v>0.09682785319078896</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1191245679842225</v>
+        <v>0.1166937836000854</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03193762543549497</v>
+        <v>0.02005675734900747</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06175760277691655</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02810972627201466</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.119924061729083</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.05802018508627521</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1176912304222576</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.1052951521396939</v>
+        <v>0.06778041857097794</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1174296097455696</v>
+        <v>0.1187643389886879</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03193762543549497</v>
+        <v>0.09478471463086663</v>
       </c>
       <c r="O215" t="n">
-        <v>0.119924061729083</v>
+        <v>0.1174769633557907</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03181606233262511</v>
+        <v>0.01954648180671657</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06169678570382237</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02784052919617662</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1207235554739435</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.05728023503437943</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1184758386250726</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.1056060785390164</v>
+        <v>0.06680958907340265</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1182124738105401</v>
+        <v>0.1195561012486124</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03181606233262511</v>
+        <v>0.0930991429548631</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1207235554739435</v>
+        <v>0.118260143111496</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0313927331557253</v>
+        <v>0.01904213854763911</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06163596863072821</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02748149096995765</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1215230492188041</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.0571464008905018</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1192604468278877</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.1042202086447881</v>
+        <v>0.06536717097940561</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1189953378755106</v>
+        <v>0.120347863508537</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0313927331557253</v>
+        <v>0.09148069223844885</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1215230492188041</v>
+        <v>0.1190433228672013</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03156731065196683</v>
+        <v>0.01854407216665666</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06157515155763404</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02733353538621187</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1223225429636647</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.05681872027164109</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1200450550307027</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.1021376958745402</v>
+        <v>0.06475804545277619</v>
       </c>
       <c r="M218" t="n">
-        <v>0.119778201940481</v>
+        <v>0.1211396257684616</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03156731065196683</v>
+        <v>0.08823891655729466</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1223225429636647</v>
+        <v>0.1198265026229065</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03103946756852101</v>
+        <v>0.01805262725865103</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06151433448453986</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02709758623779329</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1231220367085252</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.05709723079479598</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1208296632335178</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.1018586936458034</v>
+        <v>0.06348709365730387</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1205610660054515</v>
+        <v>0.1219313880283862</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03103946756852101</v>
+        <v>0.08738336998707108</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1231220367085252</v>
+        <v>0.1206096823786118</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0312088766525591</v>
+        <v>0.01756814841850397</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06145351741144569</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02677456731755597</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1239215304533858</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.05598197007696512</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1216142714363328</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.1011833553761088</v>
+        <v>0.06215919675677789</v>
       </c>
       <c r="M220" t="n">
-        <v>0.121343930070422</v>
+        <v>0.1227231502883108</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0312088766525591</v>
+        <v>0.08492360660344866</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1239215304533858</v>
+        <v>0.1213928621343171</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03077521065125241</v>
+        <v>0.01709098024109731</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06139270033835153</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02696540241835402</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1247210241982463</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.05607297573514727</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1223988796391479</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.09931183448298719</v>
+        <v>0.06157923591498773</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1221267941353924</v>
+        <v>0.1235149125482354</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03077521065125241</v>
+        <v>0.08506918048209833</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1247210241982463</v>
+        <v>0.1221760418900223</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03103814231177217</v>
+        <v>0.0166214673213126</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06133188326525735</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02677101533304142</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1255205179431069</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.05627028538634116</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1231834878419629</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.09814428438396972</v>
+        <v>0.06115209229572277</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1229096582003629</v>
+        <v>0.12430667480816</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03103814231177217</v>
+        <v>0.08292964569869044</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1255205179431069</v>
+        <v>0.1229592216457276</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03069734438128974</v>
+        <v>0.01615995425403167</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06127106619216318</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02629232985447232</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1263200116879674</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0553739366475455</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.123968096044778</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.09838085849658729</v>
+        <v>0.0596826470627724</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1236925222653334</v>
+        <v>0.1250984370680845</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03069734438128974</v>
+        <v>0.08181455632889589</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1263200116879674</v>
+        <v>0.1237424014014329</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03075248960697634</v>
+        <v>0.01570678563413625</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06121024911906901</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02603026977550071</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.127119505432828</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.05518396713575896</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1247527042475931</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.09702171023837092</v>
+        <v>0.05967578137992596</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1244753863303038</v>
+        <v>0.1258901993280092</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03075248960697634</v>
+        <v>0.08013346644838509</v>
       </c>
       <c r="O224" t="n">
-        <v>0.127119505432828</v>
+        <v>0.1245255811571382</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03060325073600328</v>
+        <v>0.01526230605650818</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06114943204597485</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02608575888898067</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1279189991776885</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.05470041446798027</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1255373124504081</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.09586699302685148</v>
+        <v>0.05863637641097291</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1252582503952743</v>
+        <v>0.1266819615879337</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03060325073600328</v>
+        <v>0.07939593013282886</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1279189991776885</v>
+        <v>0.1253087609128434</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03024930051554185</v>
+        <v>0.01482686011602902</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06108861497288067</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.0257597209877663</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1287184929225491</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.05502331626120818</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1263219206532231</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.09551686027955997</v>
+        <v>0.05776931331970264</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1260411144602448</v>
+        <v>0.1274737238478583</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03024930051554185</v>
+        <v>0.07861150145789769</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1287184929225491</v>
+        <v>0.1260919406685487</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02989031169276332</v>
+        <v>0.01440079240758062</v>
       </c>
       <c r="G227" t="n">
+        <v>0.0610277978997865</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02605307986471161</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1295179866674097</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.05435271013244131</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1271065288560382</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.09507146541402739</v>
+        <v>0.05747947326990446</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1268239785252152</v>
+        <v>0.1282654861077829</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02989031169276332</v>
+        <v>0.07778973449926224</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1295179866674097</v>
+        <v>0.126875120424254</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0299265456038327</v>
+        <v>0.01398444752604466</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06096698082669233</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02576675931267068</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1303174804122702</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.05408863369867847</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1278911370588532</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.09263096184778469</v>
+        <v>0.05717173742536782</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1276068425901857</v>
+        <v>0.1290572483677075</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0299265456038327</v>
+        <v>0.07784018333259335</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1303174804122702</v>
+        <v>0.1276583001799592</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02975962771781127</v>
+        <v>0.01357817006630301</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06090616375359816</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02550168312449758</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1311169741571308</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.05443112457691832</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1286757452616683</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.09249550299836279</v>
+        <v>0.0566509869498821</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1283897066551561</v>
+        <v>0.1298490106276321</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02975962771781127</v>
+        <v>0.07677240203356145</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1311169741571308</v>
+        <v>0.1284414799356645</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02978970888284846</v>
+        <v>0.01318230462323722</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06084534668050399</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02555864604141821</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1319164679019913</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05368022038415957</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1294603534644833</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.09076524228329269</v>
+        <v>0.05742159918628947</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1291725707201266</v>
+        <v>0.1306407728875567</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02978970888284846</v>
+        <v>0.078194694948309</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1319164679019913</v>
+        <v>0.1292246596913698</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02921682415996299</v>
+        <v>0.01279719579172912</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06078452960740982</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02562509560530976</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1327159616468518</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.05333595873740088</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1302449616672984</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.09124033312010532</v>
+        <v>0.05663219760597679</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1299554347850971</v>
+        <v>0.1314325351474813</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02921682415996299</v>
+        <v>0.07709490068420322</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1327159616468518</v>
+        <v>0.1300078394470751</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02904100861017352</v>
+        <v>0.01242318816666044</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06072371253431565</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02569228856936641</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1335154553917124</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.05299837725364107</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1310295698701135</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.08872092892633177</v>
+        <v>0.05624613602780187</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1307382988500675</v>
+        <v>0.1322242974074058</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02904100861017352</v>
+        <v>0.07759610615550849</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1335154553917124</v>
+        <v>0.1307910192027804</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02906229729449877</v>
+        <v>0.01206062634291301</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06066289546122148</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.0256602408182126</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.134314949136573</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.05256751354987876</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1318141780729285</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.08870718311950276</v>
+        <v>0.05636355684890246</v>
       </c>
       <c r="M233" t="n">
-        <v>0.131521162915038</v>
+        <v>0.1330160596673304</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02906229729449877</v>
+        <v>0.07679921060360767</v>
       </c>
       <c r="O233" t="n">
-        <v>0.134314949136573</v>
+        <v>0.1315741989584856</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02908072527395746</v>
+        <v>0.0117098549153684</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06060207838812731</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02532896823647277</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1351144428814335</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05234340524311273</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1325987862757436</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.08849924911714951</v>
+        <v>0.05608460246641639</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1323040269800085</v>
+        <v>0.133807821927255</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02908072527395746</v>
+        <v>0.07780511326988371</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1351144428814335</v>
+        <v>0.1323573787141909</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02859632760956829</v>
+        <v>0.01137121847890844</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06054126131503314</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02569848670877138</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1359139366262941</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.05242608995034165</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1333833944785586</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.08679728033680284</v>
+        <v>0.0555094152774816</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1330868910449789</v>
+        <v>0.1345995841871796</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02859632760956829</v>
+        <v>0.07801471339571958</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1359139366262941</v>
+        <v>0.1331405584698961</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02850913936234989</v>
+        <v>0.01104506162841491</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06048044424193897</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02536881211973288</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1367134303711546</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.05281560528856424</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1341680026813737</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.08510143019599381</v>
+        <v>0.05533813767923587</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1338697551099494</v>
+        <v>0.1353913464471042</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02850913936234989</v>
+        <v>0.07702891022249814</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1367134303711546</v>
+        <v>0.1339237382256014</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02841919559332107</v>
+        <v>0.01073172895876944</v>
       </c>
       <c r="G237" t="n">
+        <v>0.0604196271688448</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02553996035398173</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1375129241160152</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.0523119888747792</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1349526108841887</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.08551185211225321</v>
+        <v>0.05547091206881702</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1346526191749199</v>
+        <v>0.1361831087070288</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02841919559332107</v>
+        <v>0.0778486029916024</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1375129241160152</v>
+        <v>0.1347069179813067</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02832653136350044</v>
+        <v>0.01043156506485383</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06035881009575063</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02531194729614242</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1383124178608758</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.05221527832598527</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1357372190870038</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.08492869950311221</v>
+        <v>0.05570788084336298</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1354354832398903</v>
+        <v>0.1369748709669533</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02832653136350044</v>
+        <v>0.07797469094441517</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1383124178608758</v>
+        <v>0.135490097737012</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02783118173390674</v>
+        <v>0.01014491454154981</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06029799302265645</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02538478883083935</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1391119116057363</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.05202551125918112</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1365218272898188</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.08405212578610166</v>
+        <v>0.0552491864000115</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1362183473048608</v>
+        <v>0.1377666332268779</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02783118173390674</v>
+        <v>0.07750807332231946</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1391119116057363</v>
+        <v>0.1362732774927173</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02763318176555866</v>
+        <v>0.00987071488797208</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06023717594956229</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.025358500842697</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1399114053505968</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05164272529136543</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1373064354926339</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.08318228437875258</v>
+        <v>0.05489497113590053</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1370012113698313</v>
+        <v>0.1385583954868025</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02763318176555866</v>
+        <v>0.07784964936669814</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1399114053505968</v>
+        <v>0.1370564572484225</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02773256651947489</v>
+        <v>0.009600868124399677</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06017635887646812</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02553309921633981</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1407108990954574</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05126695803953701</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1380910436954489</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.08211932869859584</v>
+        <v>0.05474537744816779</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1377840754348017</v>
+        <v>0.1393501577467271</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02773256651947489</v>
+        <v>0.07830031831893419</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1407108990954574</v>
+        <v>0.1378396370041278</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02742937105667416</v>
+        <v>0.009334311749947304</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06011554180337395</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02540859983639225</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1415103928403179</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.0507982471206945</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.138875651898264</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.08086341216316256</v>
+        <v>0.0544005477339512</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1385669394997722</v>
+        <v>0.1401419200066517</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02742937105667416</v>
+        <v>0.07806097942041046</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1415103928403179</v>
+        <v>0.138622816759833</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02722363043817513</v>
+        <v>0.009071390359496688</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06005472473027977</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02508501858747879</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1423098865851785</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05103663015183665</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.139660260101079</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.07901468818998347</v>
+        <v>0.0541606243903886</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1393498035647427</v>
+        <v>0.1409336822665763</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02722363043817513</v>
+        <v>0.07813253191250996</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1423098865851785</v>
+        <v>0.1394059965155383</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02681537972499654</v>
+        <v>0.008812448547929633</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05999390765718561</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02536237135422385</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.143109380330039</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05148214474996216</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.140444868303894</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.07877331019658979</v>
+        <v>0.05482574981461785</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1401326676297131</v>
+        <v>0.1417254445265008</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02681537972499654</v>
+        <v>0.07771587503661553</v>
       </c>
       <c r="O244" t="n">
-        <v>0.143109380330039</v>
+        <v>0.1401891762712436</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02680465397815704</v>
+        <v>0.008557830910127767</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05993309058409144</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02524067402125191</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1439088740748996</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05083482853206969</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1412294765067091</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.07793943160051237</v>
+        <v>0.05409606640377668</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1409155316946836</v>
+        <v>0.1425172067864255</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02680465397815704</v>
+        <v>0.07731190803411014</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1439088740748996</v>
+        <v>0.1409723560269489</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02659148825867536</v>
+        <v>0.008307882040972873</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05987227351099726</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02531994247318742</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1447083678197602</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05119471911515802</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1420140847095241</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.07771320581928204</v>
+        <v>0.05457171655500312</v>
       </c>
       <c r="M246" t="n">
-        <v>0.141698395759654</v>
+        <v>0.14330896904635</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02659148825867536</v>
+        <v>0.07812153014637674</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1447083678197602</v>
+        <v>0.1417555357826542</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02617591762757022</v>
+        <v>0.008062946535346706</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05981145643790309</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02510019259465485</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1455078615646207</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05046185411622583</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1427986929123392</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.07709478627042998</v>
+        <v>0.05445284266543488</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1424812598246245</v>
+        <v>0.1441007313062746</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02617591762757022</v>
+        <v>0.07874564061479816</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1455078615646207</v>
+        <v>0.1425387155383594</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02585797714586027</v>
+        <v>0.007823368988131039</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05975063936480893</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02498144027027861</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1463073553094812</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05043627115227181</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1435833011151542</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.07488432637148712</v>
+        <v>0.05453958713220985</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1432641238895949</v>
+        <v>0.1448924935661992</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02585797714586027</v>
+        <v>0.07848513868075752</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1463073553094812</v>
+        <v>0.1433218952940647</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02593770187456423</v>
+        <v>0.007589493994207511</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05968982229171475</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02536370138468319</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1471068490543418</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.0507180078402947</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1443679093179693</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.07428197953998433</v>
+        <v>0.05453209235246587</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1440469879545654</v>
+        <v>0.1456842558261238</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02593770187456423</v>
+        <v>0.07924092358563745</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1471068490543418</v>
+        <v>0.1441050750497699</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02551512687470084</v>
+        <v>0.007361666148457915</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05962900521862058</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02514699182249304</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1479063427992024</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05070710179729318</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1451525175207844</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.07348789919345261</v>
+        <v>0.05403050072334073</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1448298520195359</v>
+        <v>0.1464760180860484</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02551512687470084</v>
+        <v>0.07801389457082109</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1479063427992024</v>
+        <v>0.1448882548054752</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02559028720728873</v>
+        <v>0.007140230045764043</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05956818814552642</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02503132746833261</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1487058365440629</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05010359064026604</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1459371257235994</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.07310223874942301</v>
+        <v>0.05373495464197242</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1456127160845063</v>
+        <v>0.147267780345973</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02559028720728873</v>
+        <v>0.07860495087769132</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1487058365440629</v>
+        <v>0.1456714345611805</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02526321793334664</v>
+        <v>0.006925530281007522</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05950737107243224</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02521672420682636</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1495053302889235</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05000751198621187</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1467217339264145</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.0728251516254263</v>
+        <v>0.05374559650549859</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1463955801494768</v>
+        <v>0.1480595426058976</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02526321793334664</v>
+        <v>0.07851499174763105</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1495053302889235</v>
+        <v>0.1464546143168858</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02513395411389327</v>
+        <v>0.006717911449070156</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05944655399933807</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02530319792259873</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.150304824033784</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.0493189034521295</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1475063421292295</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.07135679123899358</v>
+        <v>0.05316256871105723</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1471784442144473</v>
+        <v>0.1488513048658221</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02513395411389327</v>
+        <v>0.07884491642202313</v>
       </c>
       <c r="O253" t="n">
-        <v>0.150304824033784</v>
+        <v>0.147237794072591</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02480253080994732</v>
+        <v>0.006517718144833672</v>
       </c>
       <c r="G254" t="n">
+        <v>0.0593857369262439</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02499076450027422</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1511043177786446</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04933780265501753</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1482909503320446</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.07089731100765589</v>
+        <v>0.05408601365578619</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1479613082794178</v>
+        <v>0.1496430671257467</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02480253080994732</v>
+        <v>0.07979562414225067</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1511043177786446</v>
+        <v>0.1480209738282963</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02426898308252746</v>
+        <v>0.006325294963179844</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05932491985314974</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02497943982447723</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1519038115235051</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04926424721187478</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1490755585348596</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.06964686434894407</v>
+        <v>0.05371607373682319</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1487441723443882</v>
+        <v>0.1504348293856713</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02426898308252746</v>
+        <v>0.07896801414969645</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1519038115235051</v>
+        <v>0.1488041535840016</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02403334599265243</v>
+        <v>0.006140986498990343</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05926410278005556</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02506923977983222</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1527033052683657</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05019827473969984</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1498601667376747</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.06880560468038904</v>
+        <v>0.05355289135130617</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1495270364093587</v>
+        <v>0.1512265916455959</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02403334599265243</v>
+        <v>0.08026298568574336</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1527033052683657</v>
+        <v>0.1495873333397068</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02419565460134089</v>
+        <v>0.005965137347146938</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05920328570696139</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02496018025096371</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1535027990132262</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.04913992285549151</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1506447749404897</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.0696736854195219</v>
+        <v>0.05329660889637297</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1503099004743291</v>
+        <v>0.1520183539055205</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02419565460134089</v>
+        <v>0.0812814379917744</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1535027990132262</v>
+        <v>0.1503705130954121</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02395594396961157</v>
+        <v>0.005798092102531377</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05914246863386721</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02505227712249605</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1543022927580868</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.04908922917624847</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1514293831433048</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.06855125998387357</v>
+        <v>0.05324736876916139</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1510927645392996</v>
+        <v>0.1528101161654451</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02395594396961157</v>
+        <v>0.08092427030917254</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1543022927580868</v>
+        <v>0.1511536928511174</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02371424915848315</v>
+        <v>0.005640195360025427</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05908165156077305</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02494554627905378</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1551017865029473</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.04914623131896945</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1522139913461198</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.06733848179097496</v>
+        <v>0.0533053133668093</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1518756286042701</v>
+        <v>0.1536018784253697</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02371424915848315</v>
+        <v>0.08159238187932061</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1551017865029473</v>
+        <v>0.1519368726068226</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02307060522897433</v>
+        <v>0.005491791714510759</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05902083448767888</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02494000360526133</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1559012802478079</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04931096690065315</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1529985995489349</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.06613550425835713</v>
+        <v>0.05377058508645455</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1526584926692405</v>
+        <v>0.1543936406852942</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02307060522897433</v>
+        <v>0.08068667194360157</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1559012802478079</v>
+        <v>0.1527200523625279</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02292504724210384</v>
+        <v>0.005353225760869135</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0589600174145847</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02483566498574315</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1567007739926685</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04988347353829828</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1537832077517499</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.06614248080355095</v>
+        <v>0.05324332632523499</v>
       </c>
       <c r="M261" t="n">
-        <v>0.153441356734211</v>
+        <v>0.1551854029452188</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02292504724210384</v>
+        <v>0.08280803974339834</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1567007739926685</v>
+        <v>0.1535032321182332</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02277761025889036</v>
+        <v>0.005224842093982308</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05889920034149053</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02483254630512369</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.157500267737529</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.04966378884890352</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.154567815954565</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.06505956484408743</v>
+        <v>0.05302367948028841</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1542242207991815</v>
+        <v>0.1559771652051434</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02277761025889036</v>
+        <v>0.08195738452009382</v>
       </c>
       <c r="O262" t="n">
-        <v>0.157500267737529</v>
+        <v>0.1542864118739385</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02272832934035256</v>
+        <v>0.005106985308732027</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05883838326839637</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02483066344802741</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1582997614823896</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.04965195044946763</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.15535242415738</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.06428690979749746</v>
+        <v>0.05261178694875276</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1550070848641519</v>
+        <v>0.156768927465068</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02272832934035256</v>
+        <v>0.08363560551507099</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1582997614823896</v>
+        <v>0.1550695916296437</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02207723954750918</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05877756619530219</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02483003229907876</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1590992552272501</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.04894799595698926</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1561370323601951</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.0631246690813122</v>
+        <v>0.05300779112776577</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1557899489291224</v>
+        <v>0.1575606897249926</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02207723954750918</v>
+        <v>0.08424360196971276</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1590992552272501</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.155852771385349</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05876440830056535</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005557765725632872</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05876467682902936</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006112204734095641</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05876494535749338</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006663275082568768</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0587652138859574</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007210934828160868</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05876548241442142</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007755142028052553</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05876575094288543</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.0082958547394004</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05876601947134945</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.00883303101938427</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05876628799981348</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009366628925113987</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05876655652827749</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.00989660651376955</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0587668250567415</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01042292184250755</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05876709358520552</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01094553296850721</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05876736211366954</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01146439794887961</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05876763064213356</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01197947484080414</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05876789917059757</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01249072170143737</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05876816769906159</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01299809658795786</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05876843622752561</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01350155755747802</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05876870475598963</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01400106266717658</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05876897328445364</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01449656997421011</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05876924181291766</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01498803753575648</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05876951034138168</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01547542340892947</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0587697788698457</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01595868565090713</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05877004739830971</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01643778231884604</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05877031592677372</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01691267146992333</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05877058445523775</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01738331116125424</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05877085298370176</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01784983071662675</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05877112151216578</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01831321579286153</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05877139004062979</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01877359571374582</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05877165856909382</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01923092853639613</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05877192709755783</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0196851723179891</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05877219562602185</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02013628511568132</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05877246415448587</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02058422498664875</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05877273268294989</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02102894998800902</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05877300121141391</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02147041817693822</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05877326973987792</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02190858761059293</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05877353826834193</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02234341634614857</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05877380679680596</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02277486244072386</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05877407532526997</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02320288395149436</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05877434385373399</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02362743893561664</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.058774612382198</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02404848545026551</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05877488091066203</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0244659815525609</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05877514943912604</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02487988529967777</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05877541796759006</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02529015474877271</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05877568649605407</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02569674795701986</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0587759550245181</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02609962298154042</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05877622355298211</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02649873787950872</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05877649208144613</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02689405070808136</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05877676060991014</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02728551952443185</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05877702913837417</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02767310238568266</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05877729766683818</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02805675734900746</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05877756619530219</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02805675734900748</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05876440830056535</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.02846084827038245</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05882576243058755</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.02886096180602186</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05888711656060976</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.02925697425494188</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05894847069063197</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.02964876191615835</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05900982482065417</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03003620108868739</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05907117895067637</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03041916807154503</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05913253308069857</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03079753916374738</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05919388721072079</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0311711906643103</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05925524134074299</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03153999887224995</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0593165954707652</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03190384008658231</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0593779496007874</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03226259060632344</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0594393037308096</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03261612673048944</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05950065786083181</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03296432475809621</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05956201199085401</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03330706098815982</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05962336612087622</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03364421171969634</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05968472025089842</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03397565325172185</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05974607438092063</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03430126188325225</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05980742851094284</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03462091391330364</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05986878264096504</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03493448564089208</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05993013677098724</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03524185336503353</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05999149090100944</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03554289338474419</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06005284503103166</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03583748199903987</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06011419916105386</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03612549550693674</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06017555329107607</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03640681020745076</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06023690742109827</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03668180751194929</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06029826155112048</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.03695339439355541</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06035961568114268</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.03722195226363641</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06042096981116488</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.03748735742120833</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06048232394118708</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.03774948616528725</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0605436780712093</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.03800821479488911</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0606050322012315</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.03826341960902997</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06066638633125371</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0385149769067259</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06072774046127591</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.03876276298699292</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06078909459129811</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.03900665414884706</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06085044872132032</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.03924652669130435</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06091180285134253</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.03948225691338079</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06097315698136473</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.03971372111409245</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06103451111138693</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.03994079559245541</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06109586524140914</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04016335664748558</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06115721937143135</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04038128057819906</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06121857350145355</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0405944436836119</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06127992763147575</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04080272226274011</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06134128176149795</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04100599261459978</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06140263589152017</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04120413103820685</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06146399002154237</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04139701383257736</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06152534415156458</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04158451729672742</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06158669828158678</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04176651772967305</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06164805241160899</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04194289143043019</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06170940654163119</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04211351469801496</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06177076067165339</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03474234313200998</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06177076067165339</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04222315219703686</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06347116388802317</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04232446814547471</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06517156710439294</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04241779097673937</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06687197032076271</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04250344912424177</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06857237353713248</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04258177102139282</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07027277675350226</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04265308510160339</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07197317996987203</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04271771979828444</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0736735831862418</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04277600354484684</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07537398640261157</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04282826477470152</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07707438961898135</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04287483192125936</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0787747928353511</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04291603341793129</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08047519605172089</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04295219769812822</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08217559926809065</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04298365319526107</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08387600248446044</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04301072834274071</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08557640570083019</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04303375157397807</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08727680891719998</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04305305132238404</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08897721213356974</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04306895602136955</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09067761534993951</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04308179410434548</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09237801856630928</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0430918940047228</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09407842178267907</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04309958415591232</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09577882499904883</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04310519299132505</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0974792282154186</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04310904894437181</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09917963143178837</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04311148044846357</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1008800346481581</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04311281593701119</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1025804378645279</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04311338384342561</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1042808410808977</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04311351260111773</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1059812442972675</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04309895777517642</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1076816475136372</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04302399888176128</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.109382050730007</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04288931530866699</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1110824539463768</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04269943449543968</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1127828571627466</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04245888388162555</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1144832603791163</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04217219090677075</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1161836635954861</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04184388301042145</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1178840668118558</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04147848763212381</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1195844700282256</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04108053221142399</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1212848732445954</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04065454418786818</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1229852764609652</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04020505100100251</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.124685679677335</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03973658009037317</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1263860828937047</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03925365889552632</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1280864861100745</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03876081485600812</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1297868893264443</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03826257541136474</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.131487292542814</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03776346800114233</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1331876957591838</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03726802006488708</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1348880989755536</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03678075904214513</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1365885021919234</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03630621237246268</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1382889054082931</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03584890749538587</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1399893086246629</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03541337185046085</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1416897118410327</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03500413287723385</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1433901150574024</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03462571801525094</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1450905182737722</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03428265470405835</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.146790921490142</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0339611907862772</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1484913247065117</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0336390052901813</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03331649922412977</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1518921311392513</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03299419175518456</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1535925343556211</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03267260205040752</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1552929375719908</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03235224927686059</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1569933407883606</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03203365260160569</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1586937440047304</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03171733119170472</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1603941472211002</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03140380421421959</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1620945504374699</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03109359083621223</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1637949536538397</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03078721022474455</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1654953568702095</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03048518154687842</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1671957600865792</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03018802396967581</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.168896163302949</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02989625666019861</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1705965665193188</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0296103987855087</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1722969697356886</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02933096951266803</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1739973729520583</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02905848800873852</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1756977761684281</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02879347344078205</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1773981793847979</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02853644497586053</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1790985826011676</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0282879217810359</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1807989858175374</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02804842302337006</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1824993890339072</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02781846786992492</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.184199792250277</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0275985754877624</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1859001954666467</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02738926504394439</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1876005986830165</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02719105570553282</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1893010018993863</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02700427940071566</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1910014051157561</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0268228350067132</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1927018083321258</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02664374966000266</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1944022115484956</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02646726948052866</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1961026147648654</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02629364058823588</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1978030179812351</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02612310910306896</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1995034211976049</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02595592114497257</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2012038244139747</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02579232283389131</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2029042276303445</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02563256028976989</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2046046308467142</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02547687963255295</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.206305034063084</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02532552698218513</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2080054372794538</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02517874845861109</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2097058404958236</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02503679018177547</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2114062437121933</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02489989827162294</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2131066469285631</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02476831884809814</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2148070501449328</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02464229803114573</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2165074533613026</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02452208194071036</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2182078565776724</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02440791669673668</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2199082597940422</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02430004841916934</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2216086630104119</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02419872322795301</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2233090662267817</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02410418724303231</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2250094694431515</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02401668658435192</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2267098726595212</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02393646737185649</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.228410275875891</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02386377572549065</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2301106790922608</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.07874234313200998</v>
+        <v>0.06193973014430523</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02874234313200998</v>
+        <v>0.01193973014430523</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01180826067165339</v>
+        <v>0.008116173705236053</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>9.567320202250734e-05</v>
+        <v>0.00271107932002107</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006239470774914484</v>
+        <v>0.001623006945841641</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002060128670521376</v>
+        <v>0.003085200532838908</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007994937448605533</v>
+        <v>0.001636022404609299</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00589861490031407</v>
+        <v>0.01114074999544032</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007917622599245859</v>
+        <v>0.001634967497721921</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01200000000000001</v>
+        <v>0.01548113502014975</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001077358490566039</v>
+        <v>0.0016413433085797</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0003777812729941071</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001247894154982897</v>
+        <v>0.002705391235078684</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004249422855261968</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001598987489721107</v>
+        <v>0.003568749999999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01132320768221934</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001583524519849172</v>
+        <v>0.003498774509803921</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01528850210724525</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001566359511410543</v>
+        <v>0.003921703296703294</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0008389569102709923</v>
+        <v>0.008720987411704295</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001871841232474345</v>
+        <v>0.004869020837524923</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005955155664502082</v>
+        <v>0.01032954827003544</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00239848123458166</v>
+        <v>0.004908067213827897</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01753287352269062</v>
+        <v>0.03014551706547619</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002375286779773758</v>
+        <v>0.004904902493165762</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02213374419715236</v>
+        <v>0.04379526343408541</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002349539267115815</v>
+        <v>0.004924029925739101</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.001471832811209293</v>
+        <v>0.009552843260114526</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002495788309965794</v>
+        <v>0.006492027783366563</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007864600208522067</v>
+        <v>0.01458023122446278</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003197974979442213</v>
+        <v>0.006544089618437196</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02298670759870283</v>
+        <v>0.03848414727147517</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003167049039698343</v>
+        <v>0.006539869990887683</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02962373431889664</v>
+        <v>0.05580695894114529</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003132719022821086</v>
+        <v>0.006565373234318802</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01082156494031474</v>
+        <v>0.002705391235078684</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00226904167316519</v>
+        <v>0.01193973014430523</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003119735387457242</v>
+        <v>0.008116173705236053</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009565029597602262</v>
+        <v>0.01861431564959334</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003997468724302767</v>
+        <v>0.008180112023046493</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02784380508723089</v>
+        <v>0.04620692829009565</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003958811299622929</v>
+        <v>0.008174837488609603</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03652690123735547</v>
+        <v>0.0663193396920429</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003915898778526357</v>
+        <v>0.008206716542898502</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.003223216193494818</v>
+        <v>0.01305123773245315</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00374368246494869</v>
+        <v>0.009738041675049845</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01124371694202298</v>
+        <v>0.02182398089682762</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00479696246916332</v>
+        <v>0.009816134427655793</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03236326116524965</v>
+        <v>0.05554844342973966</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004750573559547515</v>
+        <v>0.01049632352941176</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04311167371740582</v>
+        <v>0.07606798473888499</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004699078534231629</v>
+        <v>0.009848059851478201</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.004326989069554359</v>
+        <v>0.01310054218777144</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004367629542440139</v>
+        <v>0.01136104862089149</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01288793535206458</v>
+        <v>0.02363591433868553</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005596456214023874</v>
+        <v>0.01070624999999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03650417100973402</v>
+        <v>0.05803760478805256</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0055423358194721</v>
+        <v>0.01144477248405344</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05094648052392514</v>
+        <v>0.08746097252079377</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0054822582899369</v>
+        <v>0.01176510989010988</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005572992998699969</v>
+        <v>0.01308626334536703</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004991576619931587</v>
+        <v>0.01298405556673313</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01438495793800736</v>
+        <v>0.02647312369716492</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006395949958884426</v>
+        <v>0.01308817923687439</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.040325629797659</v>
+        <v>0.06235605408247821</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006334098079396687</v>
+        <v>0.01307973998177537</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05649975042179034</v>
+        <v>0.09240300192720197</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006265438045642171</v>
+        <v>0.0131307464686376</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.006953860678287786</v>
+        <v>0.01600782358238458</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005615523697423036</v>
+        <v>0.01460706251257477</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01562205781013168</v>
+        <v>0.02858640533047958</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007195443703744981</v>
+        <v>0.01472420164148369</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04298673270599929</v>
+        <v>0.06785707519014192</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007125860339321273</v>
+        <v>0.01471470747949729</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06203991217587868</v>
+        <v>0.099915187398748</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007048617801347442</v>
+        <v>0.0147720897772173</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008462224805673997</v>
+        <v>0.0158646452759687</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006239470774914485</v>
+        <v>0.01623006945841641</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.017</v>
+        <v>0.03058122245047111</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008089166666666668</v>
+        <v>0.01636022404609299</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.07222624901422073</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008017704517704513</v>
+        <v>0.01634967497721921</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06763539455106721</v>
+        <v>0.1067025259569357</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007831797557052714</v>
+        <v>0.016413433085797</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01009071807821474</v>
+        <v>0.01565615080326405</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006863417852405932</v>
+        <v>0.01785307640425805</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01779623886802867</v>
+        <v>0.03235477071202283</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008794431193466087</v>
+        <v>0.01799624645070229</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.046979968821945</v>
+        <v>0.07584915645789156</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008709384859170444</v>
+        <v>0.01798464247494113</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07245462631223332</v>
+        <v>0.1141232567347263</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008614977312757987</v>
+        <v>0.0180547763943767</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01183197319326618</v>
+        <v>0.01638176254141529</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00748736492989738</v>
+        <v>0.01947608335009969</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01840420273300014</v>
+        <v>0.03390424577001808</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009593924938326641</v>
+        <v>0.01963226885531159</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04900259580922997</v>
+        <v>0.07961137842433133</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00950114711909503</v>
+        <v>0.01961960997266305</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07796603622425397</v>
+        <v>0.1195356188650809</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009398157068463258</v>
+        <v>0.0196961197029564</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0136786228481845</v>
+        <v>0.01704090286756707</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00811131200738883</v>
+        <v>0.02109909029594133</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01922879070078323</v>
+        <v>0.03562684327934013</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01039341868318719</v>
+        <v>0.02126829125992089</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04969781013457036</v>
+        <v>0.08299849581671709</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01029290937901962</v>
+        <v>0.02125457747038497</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08203805305200651</v>
+        <v>0.1267978514809604</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01018133682416853</v>
+        <v>0.0213374630115361</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01562329974032581</v>
+        <v>0.01863299415886402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008735259084880279</v>
+        <v>0.02272209724178297</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01998791747607348</v>
+        <v>0.03661975889487228</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01119291242804775</v>
+        <v>0.02290431366453018</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05124686868187278</v>
+        <v>0.08679608953822571</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0110846716389442</v>
+        <v>0.02288954496810689</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08746097252079377</v>
+        <v>0.132068193715326</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01121747873076668</v>
+        <v>0.02297880632011581</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01765863656704631</v>
+        <v>0.01815745879245079</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009359206162371727</v>
+        <v>0.02434510418762461</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02039949776356634</v>
+        <v>0.03828018827149787</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0119924061729083</v>
+        <v>0.02454033606913948</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05183102833504363</v>
+        <v>0.0892897404920342</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01187643389886879</v>
+        <v>0.02452451246582881</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08865214317436759</v>
+        <v>0.1372048847011387</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01174769633557907</v>
+        <v>0.02462014962869551</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01977726602570214</v>
+        <v>0.01861371914547203</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009983153239863174</v>
+        <v>0.02596811113346625</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02098144626795732</v>
+        <v>0.03930532706410016</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01279189991776885</v>
+        <v>0.02617635847374878</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05343154597798935</v>
+        <v>0.09206502958131951</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01266819615879337</v>
+        <v>0.02615947996355073</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0924180898118071</v>
+        <v>0.1417661635713595</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01253087609128434</v>
+        <v>0.02626149293727521</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.0190011975950724</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01082156494031474</v>
+        <v>0.02759111807930789</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02155167769394198</v>
+        <v>0.04029237092756249</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01359139366262941</v>
+        <v>0.02781238087835808</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05554844342973966</v>
+        <v>0.09480753770925862</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0138313976968347</v>
+        <v>0.02779444746127265</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09615944941262999</v>
+        <v>0.1468102694589497</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01331405584698962</v>
+        <v>0.02790283624585491</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02535816014600616</v>
+        <v>0.02031937007189614</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01123104739484607</v>
+        <v>0.02921412502514954</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02232810674621578</v>
+        <v>0.04093851551676815</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01439088740748996</v>
+        <v>0.02944840328296738</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0554869302284961</v>
+        <v>0.09660284577902842</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01425172067864255</v>
+        <v>0.02942941495899457</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09907315479519324</v>
+        <v>0.1490954414968702</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01409723560269488</v>
+        <v>0.0295441795544346</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02874234313200998</v>
+        <v>0.01960178533785866</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01180826067165339</v>
+        <v>0.03083713197099118</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02272864812947424</v>
+        <v>0.04154095648660043</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01519038115235051</v>
+        <v>0.03108442568757668</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05714512340507547</v>
+        <v>0.098736534693806</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01504348293856713</v>
+        <v>0.03106438245671649</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1024561387778535</v>
+        <v>0.1532799188180822</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01488041535840016</v>
+        <v>0.03118552286301431</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0296008338075355</v>
+        <v>0.02087610124070101</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01247894154982897</v>
+        <v>0.03246013891683282</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02363591433868553</v>
+        <v>0.04212124304171008</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01606679415165409</v>
+        <v>0.03272044809218597</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05898516130640191</v>
+        <v>0.1000846197442837</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01583524519849172</v>
+        <v>0.03269934995443841</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1054053341789676</v>
+        <v>0.1554220495564625</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01566359511410543</v>
+        <v>0.03282686617159401</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03033643186102435</v>
+        <v>0.02214049736794246</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01310288862732042</v>
+        <v>0.03408314586267445</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02426313771612265</v>
+        <v>0.04297605046346971</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01678936864207162</v>
+        <v>0.03435647049679528</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06030013863954317</v>
+        <v>0.1005831425559197</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0166270074584163</v>
+        <v>0.03433431745216033</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1080176738168922</v>
+        <v>0.1567150437911272</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0164467748698107</v>
+        <v>0.03446820948017371</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03101429648603675</v>
+        <v>0.02039315330710226</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01372683570481186</v>
+        <v>0.0357061528085161</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02479409787318258</v>
+        <v>0.04361246964059209</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01758886238693217</v>
+        <v>0.03599249290140458</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06178315011156685</v>
+        <v>0.1016375112106351</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01741876971834089</v>
+        <v>0.03596928494988225</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1119900905099843</v>
+        <v>0.1602475104384571</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01722995462551597</v>
+        <v>0.03610955278875341</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03163741490598782</v>
+        <v>0.02063224864569969</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01435078278230331</v>
+        <v>0.03732915975435774</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02556038667936406</v>
+        <v>0.04372680948587367</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01838835613179273</v>
+        <v>0.03762851530601388</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06332729042954072</v>
+        <v>0.1032390677913485</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01821053197826547</v>
+        <v>0.03760425244760418</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1143195170766003</v>
+        <v>0.1620056575143808</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01801313438122124</v>
+        <v>0.03775089609733311</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03220877434429258</v>
+        <v>0.02285596297125404</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01497472985979476</v>
+        <v>0.03895216670019938</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02615838056076797</v>
+        <v>0.04431537891211083</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01918784987665328</v>
+        <v>0.03926453771062317</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06582565430053244</v>
+        <v>0.1049791543809787</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01900229423819006</v>
+        <v>0.03923921994532609</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1173028863350972</v>
+        <v>0.1629756930348271</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01879631413692652</v>
+        <v>0.03939223940591281</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03273136202436619</v>
+        <v>0.02106247587128453</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01559867693728621</v>
+        <v>0.04057517364604103</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02718445594349518</v>
+        <v>0.04497448683209998</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01998734362151383</v>
+        <v>0.04090056011523247</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06697133643160968</v>
+        <v>0.1056491130624442</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01979405649811464</v>
+        <v>0.04087418744304801</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1218371311038318</v>
+        <v>0.1658438250157248</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01957949389263179</v>
+        <v>0.04103358271449251</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03320816516962373</v>
+        <v>0.02124996693331048</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01622262401477766</v>
+        <v>0.04219818059188266</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0282349892536467</v>
+        <v>0.04530044215863753</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02078683736637439</v>
+        <v>0.04253658251984177</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06875743152984021</v>
+        <v>0.106040285918664</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02058581875803923</v>
+        <v>0.04250915494076993</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1240191842011606</v>
+        <v>0.1664962614730023</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02036267364833706</v>
+        <v>0.04267492602307221</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03364217100348028</v>
+        <v>0.02241661574485114</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01684657109226911</v>
+        <v>0.0438211875377243</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02910635691732341</v>
+        <v>0.04548955380451987</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02158633111123494</v>
+        <v>0.04417260492445107</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07157703430229156</v>
+        <v>0.1070440150325566</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02137758101796382</v>
+        <v>0.04414412243849185</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1277459784454408</v>
+        <v>0.1686192104225887</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02114585340404233</v>
+        <v>0.04431626933165191</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03403636674935094</v>
+        <v>0.02356060189342577</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01747051816976056</v>
+        <v>0.04544419448356594</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02959493536062621</v>
+        <v>0.04603813068254342</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0223858248560955</v>
+        <v>0.04580862732906037</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07352323945603159</v>
+        <v>0.1080516424870408</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0221693432778884</v>
+        <v>0.04577908993621378</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1299144466550288</v>
+        <v>0.1691988798804125</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0219290331597476</v>
+        <v>0.04595761264023161</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03439373963065082</v>
+        <v>0.02268010496655365</v>
       </c>
       <c r="G94" t="n">
-        <v>0.018094465247252</v>
+        <v>0.04706720142940759</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03079710100965599</v>
+        <v>0.0461424817055046</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02318531860095605</v>
+        <v>0.04744464973366967</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07528914169812789</v>
+        <v>0.1087545103650352</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02296110553781299</v>
+        <v>0.0474140574339357</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1326215216482816</v>
+        <v>0.1700214778624024</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02271221291545287</v>
+        <v>0.04759895594881131</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03471727687079501</v>
+        <v>0.02177330455175405</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01871841232474345</v>
+        <v>0.04869020837524923</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03150923029051374</v>
+        <v>0.04679891578619977</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0239848123458166</v>
+        <v>0.04908067213827896</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0773678357356482</v>
+        <v>0.1095439607494585</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02375286779773757</v>
+        <v>0.04904902493165762</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1346641362435557</v>
+        <v>0.1720732123844874</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02349539267115814</v>
+        <v>0.04924029925739101</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03500996569319859</v>
+        <v>0.02283838023654622</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0193423594022349</v>
+        <v>0.05031321532109087</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03232769962930032</v>
+        <v>0.04670374183742539</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02478430609067716</v>
+        <v>0.05071669454288827</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07885241627566017</v>
+        <v>0.1103113357232295</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02454463005766216</v>
+        <v>0.05068399242937954</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1377392232592082</v>
+        <v>0.1723402914625958</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02427857242686341</v>
+        <v>0.05088164256597071</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03527479332127666</v>
+        <v>0.02387946028861046</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01996630647972635</v>
+        <v>0.05193622226693251</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03364888545211665</v>
+        <v>0.0468532687719778</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02558379983553771</v>
+        <v>0.05235271694749757</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08073597802523147</v>
+        <v>0.1097479773692669</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02533639231758675</v>
+        <v>0.05231895992710146</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1410437155135956</v>
+        <v>0.1734089231126567</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02506175218256869</v>
+        <v>0.05252298587455041</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03551474697844433</v>
+        <v>0.02187821376304718</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0205902535572178</v>
+        <v>0.05355922921277415</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03446916418506367</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02638329358039826</v>
+        <v>0.05398873935210687</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08301161569142984</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02612815457751133</v>
+        <v>0.05395392742482338</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1431745458250747</v>
+        <v>0.1742653153505985</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02584493193827396</v>
+        <v>0.05416432918313011</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03573281388811669</v>
+        <v>0.0228642213863302</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02121420063470925</v>
+        <v>0.05518223615861579</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03548491225424226</v>
+        <v>0.04727174669071288</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02718278732525881</v>
+        <v>0.05562476175671616</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08527242398132293</v>
+        <v>0.1109956904231812</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02691991683743591</v>
+        <v>0.0555888949225453</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1454286470120024</v>
+        <v>0.1749219450415875</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02662811169397923</v>
+        <v>0.05580567249170981</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03593198127370882</v>
+        <v>0.02183545857169358</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0218381477122007</v>
+        <v>0.05680524310445743</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03639250608575338</v>
+        <v>0.04685363718194739</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02798228107011936</v>
+        <v>0.05726078416132546</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08661149760197848</v>
+        <v>0.1110453875559321</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0277116790973605</v>
+        <v>0.05722386242026722</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1477029518927353</v>
+        <v>0.1733047921037614</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0274112914496845</v>
+        <v>0.05744701580028951</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03611523635863582</v>
+        <v>0.02379288472901247</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02246209478969214</v>
+        <v>0.05842825005029907</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0370883221056979</v>
+        <v>0.04690520900682085</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02878177481497992</v>
+        <v>0.05889680656593475</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08842193126046413</v>
+        <v>0.110424405326653</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02850344135728509</v>
+        <v>0.05885882991798914</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1502943932856302</v>
+        <v>0.1744839629922623</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02819447120538977</v>
+        <v>0.05908835910886921</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03628556636631282</v>
+        <v>0.02373745926816198</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02308604186718359</v>
+        <v>0.06005125699614072</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03816873674017678</v>
+        <v>0.04682840747473457</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02958126855984047</v>
+        <v>0.06053282897054407</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09049681966384754</v>
+        <v>0.1107373067073262</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02929520361720967</v>
+        <v>0.06049379741571106</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1529999040090441</v>
+        <v>0.1739536177892515</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02897765096109505</v>
+        <v>0.06072970241744892</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03644595852015488</v>
+        <v>0.02367014159901725</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02370998894467504</v>
+        <v>0.06167426394198236</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03903012641529088</v>
+        <v>0.04672517789508993</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03038076230470103</v>
+        <v>0.06216885137515336</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09292925751919653</v>
+        <v>0.1102886546699341</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03008696587713426</v>
+        <v>0.06212876491343299</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1538164168813335</v>
+        <v>0.1740210252680732</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02976083071680032</v>
+        <v>0.06237104572602861</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0365994000435771</v>
+        <v>0.02359189113145341</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02433393602216649</v>
+        <v>0.063297270887824</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03946886755714117</v>
+        <v>0.04659746557728825</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03118025604956158</v>
+        <v>0.06380487377976266</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09451233953357865</v>
+        <v>0.1092830121864589</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03087872813705885</v>
+        <v>0.06376373241115491</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1559408647208552</v>
+        <v>0.1723934542020719</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03054401047250559</v>
+        <v>0.06401238903460831</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03674887815999456</v>
+        <v>0.02350366727534559</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02495788309965794</v>
+        <v>0.06492027783366563</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04038133659182855</v>
+        <v>0.04674721583073088</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03197974979442213</v>
+        <v>0.06544089618437195</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09613916041406162</v>
+        <v>0.109424942228883</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03167049039698343</v>
+        <v>0.06539869990887683</v>
       </c>
       <c r="N105" t="n">
-        <v>0.159070180345966</v>
+        <v>0.1724781733645919</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03132719022821086</v>
+        <v>0.06565373234318801</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0368973800928224</v>
+        <v>0.02240642944056892</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02558183017714939</v>
+        <v>0.06654328477950729</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0414639099454539</v>
+        <v>0.04627637396481919</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03277924353928269</v>
+        <v>0.06707691858898125</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09780281486771322</v>
+        <v>0.1094190077691888</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03246225265690802</v>
+        <v>0.06703366740659875</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1596012965750227</v>
+        <v>0.1710824515289776</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03211036998391613</v>
+        <v>0.06729507565176772</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03704789306547566</v>
+        <v>0.02330113703699854</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02620577725464084</v>
+        <v>0.06816629172534891</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04221296404411819</v>
+        <v>0.04618688528895451</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03357873728414324</v>
+        <v>0.06871294099359056</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09879639760160103</v>
+        <v>0.1079697717793585</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03325401491683261</v>
+        <v>0.06866863490432067</v>
       </c>
       <c r="N107" t="n">
-        <v>0.162531146226382</v>
+        <v>0.1704135574685731</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0328935497396214</v>
+        <v>0.06893641896034741</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03720340430136949</v>
+        <v>0.02318874947450955</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02682972433213228</v>
+        <v>0.06978929867119056</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0426248753139223</v>
+        <v>0.04598069511253819</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03437823102900379</v>
+        <v>0.07034896339819985</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1004130033227927</v>
+        <v>0.1075817972313745</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03404577717675719</v>
+        <v>0.07030360240204259</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1638566621184008</v>
+        <v>0.169678759956723</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03367672949532667</v>
+        <v>0.07057776226892711</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03736690102391894</v>
+        <v>0.02107022616297712</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02745367140962373</v>
+        <v>0.0714123056170322</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04349602018096714</v>
+        <v>0.04565974874497158</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03517772477386435</v>
+        <v>0.07198498580280915</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1018457267383562</v>
+        <v>0.1077596470972191</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03483753943668177</v>
+        <v>0.07193856989976451</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1650747770694357</v>
+        <v>0.1696853277667714</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03445990925103195</v>
+        <v>0.07221910557750681</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03753728367990442</v>
+        <v>0.02194652651227635</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02807761848711518</v>
+        <v>0.07303531256287384</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04412277507135365</v>
+        <v>0.04532599149565604</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0359772185187249</v>
+        <v>0.07362100820741845</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1030876625553588</v>
+        <v>0.1067078843488746</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03562930169660636</v>
+        <v>0.07357353739748644</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1673824238978435</v>
+        <v>0.1694405296720629</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03524308900673721</v>
+        <v>0.07386044888608652</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0377068445438246</v>
+        <v>0.02281860993228239</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02870156556460663</v>
+        <v>0.07465831950871549</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04450151641118275</v>
+        <v>0.0450813686739929</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03677671226358546</v>
+        <v>0.07525703061202775</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1047319054808686</v>
+        <v>0.1062310719583234</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03642106395653095</v>
+        <v>0.07520850489520836</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1685765354219811</v>
+        <v>0.1684516344459415</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03602626876244248</v>
+        <v>0.07550179219466621</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0378752014530947</v>
+        <v>0.02068743583287036</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02932551264209807</v>
+        <v>0.07628132645455712</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04502862062655531</v>
+        <v>0.04512782558938351</v>
       </c>
       <c r="K112" t="n">
-        <v>0.037576206008446</v>
+        <v>0.07689305301663706</v>
       </c>
       <c r="L112" t="n">
-        <v>0.106471550221953</v>
+        <v>0.1055337728975479</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03721282621645553</v>
+        <v>0.07684347239293028</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1689540444602051</v>
+        <v>0.1671259108617519</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03680944851814776</v>
+        <v>0.07714313550324592</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03804227953283447</v>
+        <v>0.02055396362391539</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02994945971958952</v>
+        <v>0.07790433340039876</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04550046414357231</v>
+        <v>0.04496730755122923</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03837569975330656</v>
+        <v>0.07852907542124635</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1069996914856797</v>
+        <v>0.1047205501385303</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03800458847638012</v>
+        <v>0.07847843989065219</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1708118838308723</v>
+        <v>0.1663706276928381</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03759262827385303</v>
+        <v>0.07878447881182561</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03820800390816367</v>
+        <v>0.02041915271529262</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03057340679708098</v>
+        <v>0.0795273403462404</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0461134233883346</v>
+        <v>0.04470175986893139</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03917519349816712</v>
+        <v>0.08016509782585564</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1077094239791165</v>
+        <v>0.1040959666532529</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0387963507363047</v>
+        <v>0.08011340738837411</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1707469863523396</v>
+        <v>0.1641930537125447</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0383758080295583</v>
+        <v>0.08042582212040532</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03837229970420208</v>
+        <v>0.02128396251687716</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03119735387457243</v>
+        <v>0.08115034729208205</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04616387478694316</v>
+        <v>0.04443312785189135</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03997468724302767</v>
+        <v>0.08180112023046494</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1085938424093312</v>
+        <v>0.1034645854136981</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03958811299622929</v>
+        <v>0.08174837488609603</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1712562848429637</v>
+        <v>0.1641004576942157</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03915898778526358</v>
+        <v>0.08206716542898503</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03853509204606943</v>
+        <v>0.02014935243854417</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03182130095206387</v>
+        <v>0.08277335423792369</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04654819476549886</v>
+        <v>0.04406335680951046</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04077418098788822</v>
+        <v>0.08343714263507424</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1089460414833913</v>
+        <v>0.1034309693918484</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04037987525615388</v>
+        <v>0.08338334238381795</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1733367121211011</v>
+        <v>0.1627001084111958</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03994216754096885</v>
+        <v>0.08370850873756472</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03869630605888554</v>
+        <v>0.02101628164964783</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03244524802955532</v>
+        <v>0.08439636118376533</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04666275975010262</v>
+        <v>0.04379439205119005</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04157367473274878</v>
+        <v>0.08507316503968354</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1098591159083645</v>
+        <v>0.1029996815596859</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04117163751607846</v>
+        <v>0.08501830988153987</v>
       </c>
       <c r="N117" t="n">
-        <v>0.172785201005109</v>
+        <v>0.1628992746368291</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04072534729667412</v>
+        <v>0.08534985204614441</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03885586686777015</v>
+        <v>0.02087353085621686</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03306919510704677</v>
+        <v>0.08601936812960698</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04700394616685535</v>
+        <v>0.0436281788863315</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04237316847760932</v>
+        <v>0.08670918744429285</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1101261603913185</v>
+        <v>0.1023752848891929</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04196339977600304</v>
+        <v>0.08665327737926179</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1744986843133439</v>
+        <v>0.16150522514446</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04150852705237939</v>
+        <v>0.08699119535472412</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03901369959784305</v>
+        <v>0.01971154308437088</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03369314218453821</v>
+        <v>0.0876423750754486</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04727182867737106</v>
+        <v>0.04294965255051852</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04317266222246988</v>
+        <v>0.08834520984890214</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1110968868594793</v>
+        <v>0.1016130495370235</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04275516203592764</v>
+        <v>0.08828824487698371</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1744740948641625</v>
+        <v>0.1608131413116651</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04229170680808466</v>
+        <v>0.08863253866330383</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03916972937422397</v>
+        <v>0.01953344420616635</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03431708926202966</v>
+        <v>0.08926538202129025</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04686983750775857</v>
+        <v>0.04293209291577894</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04397215596733044</v>
+        <v>0.08998123225351144</v>
       </c>
       <c r="L120" t="n">
-        <v>0.110896233945639</v>
+        <v>0.09995927688702683</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04354692429585222</v>
+        <v>0.08992321237470563</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1749219450415875</v>
+        <v>0.1592006121017311</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04307488656378993</v>
+        <v>0.09027388197188352</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03932388132203271</v>
+        <v>0.01934236009365971</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03494103633952111</v>
+        <v>0.09088838896713189</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04696016955015087</v>
+        <v>0.04248115288104735</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04477164971219099</v>
+        <v>0.09161725465812073</v>
       </c>
       <c r="L121" t="n">
-        <v>0.110365875424625</v>
+        <v>0.09952853700266709</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0443386865557768</v>
+        <v>0.09155817987242755</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1741102492613116</v>
+        <v>0.1572527037742549</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0438580663194952</v>
+        <v>0.09191522528046323</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03947608056638903</v>
+        <v>0.0201414166189074</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03556498341701256</v>
+        <v>0.09251139591297353</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04714268905926935</v>
+        <v>0.04210317049688632</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04557114345705154</v>
+        <v>0.09325327706273004</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1104916967962416</v>
+        <v>0.09893569659209869</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04513044881570139</v>
+        <v>0.09319314737014947</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1737339885237956</v>
+        <v>0.1563930988616666</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04464124607520047</v>
+        <v>0.09355656858904292</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03962625223241269</v>
+        <v>0.02093373965396587</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03618893049450401</v>
+        <v>0.09413440285881518</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04691763497622446</v>
+        <v>0.04150448381385846</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04637063720191209</v>
+        <v>0.09488929946733933</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1102757860119068</v>
+        <v>0.097295622363476</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04592221107562598</v>
+        <v>0.09482811486787139</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1740894466893204</v>
+        <v>0.1549454798963966</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04542442583090574</v>
+        <v>0.09519791189762261</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03977432144522344</v>
+        <v>0.01872245507089158</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03681287757199546</v>
+        <v>0.09575740980465682</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04708524624212648</v>
+        <v>0.04129143088252633</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04717013094677264</v>
+        <v>0.09652532187194864</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1097202310230387</v>
+        <v>0.09632318102495324</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04671397333555057</v>
+        <v>0.09646308236559331</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1742798083943619</v>
+        <v>0.1538335294108753</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04620760558661102</v>
+        <v>0.09683925520620232</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03992021332994108</v>
+        <v>0.01951068874174099</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03743682464948691</v>
+        <v>0.09738041675049845</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04694576179808579</v>
+        <v>0.04067034975345257</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0479696246916332</v>
+        <v>0.09816134427655793</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1098271197810554</v>
+        <v>0.09593323928468475</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04750573559547515</v>
+        <v>0.09809804986331523</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1733082582753955</v>
+        <v>0.1525809299375328</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04699078534231629</v>
+        <v>0.09848059851478203</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04006385301168537</v>
+        <v>0.01930156653857053</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03806077172697836</v>
+        <v>0.09900342369634009</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04689942058521276</v>
+        <v>0.0406475784771997</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04876911843649376</v>
+        <v>0.09979736668116723</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1093985402373751</v>
+        <v>0.09504066385082485</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04829749785539974</v>
+        <v>0.09973301736103717</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1736779809688974</v>
+        <v>0.1508113640087994</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04777396509802156</v>
+        <v>0.1001219418233617</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04020516561557606</v>
+        <v>0.02009821433343665</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0386847188044698</v>
+        <v>0.1006264306421817</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04704646154461774</v>
+        <v>0.04022945510433035</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04956861218135431</v>
+        <v>0.1014333890857765</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1097365803434157</v>
+        <v>0.09406032143152787</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04908926011532432</v>
+        <v>0.1013679848587591</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1731921611113429</v>
+        <v>0.1486485141571054</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04855714485372683</v>
+        <v>0.1017632851319414</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04034407626673293</v>
+        <v>0.0179037579983958</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03930866588196125</v>
+        <v>0.1022494375880234</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04668712361741108</v>
+        <v>0.03952231768540708</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05036810592621486</v>
+        <v>0.1030694114903858</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1091433280505956</v>
+        <v>0.09260707873494811</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04988102237524891</v>
+        <v>0.103002952356481</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1727539833392081</v>
+        <v>0.1472160629148812</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04934032460943211</v>
+        <v>0.1034046284405211</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04048051009027577</v>
+        <v>0.01770899574740509</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0399326129594527</v>
+        <v>0.103872444533865</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04682164574470311</v>
+        <v>0.0394325042709925</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05116759967107541</v>
+        <v>0.1047054338949951</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1091208713103325</v>
+        <v>0.09259580246923987</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0506727846351735</v>
+        <v>0.1046379198542029</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1713666322889686</v>
+        <v>0.145537692814557</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05012350436513737</v>
+        <v>0.1050459717491008</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0406143922113243</v>
+        <v>0.01749613690912918</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04055656003694415</v>
+        <v>0.1054954514797067</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04685026686760423</v>
+        <v>0.03874604117746566</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05196709341593597</v>
+        <v>0.1063414562996044</v>
       </c>
       <c r="L130" t="n">
-        <v>0.108371298074045</v>
+        <v>0.09138230872849351</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05146454689509808</v>
+        <v>0.1062728873519248</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1703332925971001</v>
+        <v>0.1445230575952968</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05090668412084264</v>
+        <v>0.1066873150576805</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04074564775499834</v>
+        <v>0.0182692448240491</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0411805071144356</v>
+        <v>0.1071184584255483</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04647322592722476</v>
+        <v>0.03862360611959847</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05276658716079652</v>
+        <v>0.1079774787042137</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1082966962931508</v>
+        <v>0.09028348682420959</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05225630915502266</v>
+        <v>0.1079078548496468</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1711571489000782</v>
+        <v>0.1431117805664079</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05168986387654792</v>
+        <v>0.1083286583662602</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0408742018464176</v>
+        <v>0.01703279417892941</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04180445419192704</v>
+        <v>0.10874146537139</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04649076186467507</v>
+        <v>0.03777234426219939</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05356608090565708</v>
+        <v>0.109613501108823</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1080991539190682</v>
+        <v>0.08931883060874571</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05304807141494725</v>
+        <v>0.1095428223473687</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1707413858343789</v>
+        <v>0.1418785225713625</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05247304363225319</v>
+        <v>0.1099700016748399</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0409999796107019</v>
+        <v>0.01879125966053465</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04242840126941849</v>
+        <v>0.1103644723172316</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04640311362106553</v>
+        <v>0.03730132852650547</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05436557465051763</v>
+        <v>0.1112495235134323</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1072807589032153</v>
+        <v>0.08770962177917993</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05383983367487183</v>
+        <v>0.1111777898450906</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1696891880364779</v>
+        <v>0.1397571851622721</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05325622338795846</v>
+        <v>0.1116113449834196</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04112290617297097</v>
+        <v>0.01854911595562935</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04305234834690994</v>
+        <v>0.1119874792630732</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04611052013750647</v>
+        <v>0.03701963183375381</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05516506839537818</v>
+        <v>0.1128855459180416</v>
       </c>
       <c r="L134" t="n">
-        <v>0.10724359919701</v>
+        <v>0.08627714203259043</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05463159593479643</v>
+        <v>0.1128127573428125</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1680037401428508</v>
+        <v>0.1383816698912487</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05403940314366373</v>
+        <v>0.1132526882919993</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0412429066583446</v>
+        <v>0.01831083775097803</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04367629542440139</v>
+        <v>0.1136104862089149</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04641322035510827</v>
+        <v>0.0363363271051815</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05596456214023873</v>
+        <v>0.1145215683226509</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1069897627518707</v>
+        <v>0.0861426730660553</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05542335819472101</v>
+        <v>0.1144477248405344</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1683882267899734</v>
+        <v>0.135785878310404</v>
       </c>
       <c r="O135" t="n">
-        <v>0.054822582899369</v>
+        <v>0.114894031600579</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04135990619194255</v>
+        <v>0.01808089973334525</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04430024250189284</v>
+        <v>0.1152334931547565</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04621145321498124</v>
+        <v>0.0362604872620256</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05676405588509929</v>
+        <v>0.1161575907272602</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1058213375192154</v>
+        <v>0.08452749657665262</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05621512045464559</v>
+        <v>0.1160826923382564</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1673458326143215</v>
+        <v>0.1341037119718497</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05560576265507428</v>
+        <v>0.1165353749091587</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04147382989888457</v>
+        <v>0.01686377658949553</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04492418957938429</v>
+        <v>0.1168565001005981</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04600545765823578</v>
+        <v>0.03540118522552321</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05756354962995985</v>
+        <v>0.1177936131318695</v>
       </c>
       <c r="L137" t="n">
-        <v>0.105940411450462</v>
+        <v>0.0837528942614606</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05700688271457018</v>
+        <v>0.1177176598359783</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1658797422523708</v>
+        <v>0.1319690724276978</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05638894241077954</v>
+        <v>0.1181767182177384</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04158460290429046</v>
+        <v>0.0156639430061934</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04554813665687574</v>
+        <v>0.1184795070464398</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04589547262598223</v>
+        <v>0.03506749391691141</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05836304337482039</v>
+        <v>0.1194296355364788</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1052490724970289</v>
+        <v>0.08254014781755731</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05779864497449477</v>
+        <v>0.1193526273337002</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1657931403405969</v>
+        <v>0.1303158612300598</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05717212216648481</v>
+        <v>0.1198180615263181</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04169215033327997</v>
+        <v>0.01548587367020342</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04617208373436719</v>
+        <v>0.1201025139922814</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04568173705933096</v>
+        <v>0.03466848625742726</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05916253711968095</v>
+        <v>0.1210656579410881</v>
       </c>
       <c r="L139" t="n">
-        <v>0.104049408610334</v>
+        <v>0.08101053894202087</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05859040723441935</v>
+        <v>0.1209875948314221</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1642892115154758</v>
+        <v>0.1284779799310477</v>
       </c>
       <c r="O139" t="n">
-        <v>0.0579553019221901</v>
+        <v>0.1214594048348978</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04179639731097289</v>
+        <v>0.0153340432682901</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04679603081185863</v>
+        <v>0.1217255209381231</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0455644898993923</v>
+        <v>0.03421323516830788</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05996203086454149</v>
+        <v>0.1227016803456974</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1038435077417955</v>
+        <v>0.08028534933192932</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05938216949434394</v>
+        <v>0.122622562329144</v>
       </c>
       <c r="N140" t="n">
-        <v>0.164471140413483</v>
+        <v>0.1272893300827732</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05873848167789536</v>
+        <v>0.1231007481434775</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04189726896248894</v>
+        <v>0.01721292648721798</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04741997788935008</v>
+        <v>0.1233485278839647</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04564397008727659</v>
+        <v>0.03391081357079033</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06076152460940205</v>
+        <v>0.1243377027503067</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1030334578428315</v>
+        <v>0.07948586068436092</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06017393175426852</v>
+        <v>0.124257529826866</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1633421116710944</v>
+        <v>0.126383813237348</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05952166143360063</v>
+        <v>0.1247420914520572</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04199469041294793</v>
+        <v>0.01612699801375159</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04804392496684153</v>
+        <v>0.1249715348298063</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04532041656409426</v>
+        <v>0.03397029438611168</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06156101835426261</v>
+        <v>0.125973725154916</v>
       </c>
       <c r="L142" t="n">
-        <v>0.10262134686486</v>
+        <v>0.08003335469639372</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06096569401419311</v>
+        <v>0.1258924973245879</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1628053099247857</v>
+        <v>0.1246953309468842</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0603048411893059</v>
+        <v>0.1263834347606369</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0420885867874696</v>
+        <v>0.01708073253465549</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04866787204433298</v>
+        <v>0.126594541775648</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04509406827095559</v>
+        <v>0.03350075053550906</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06236051209912316</v>
+        <v>0.1276097475595253</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1030092627592993</v>
+        <v>0.0786491130651058</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0617574562741177</v>
+        <v>0.1275274648223098</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1619639198110326</v>
+        <v>0.1241577847634932</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06108802094501117</v>
+        <v>0.1280247780692166</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04217888321117375</v>
+        <v>0.0150744977483468</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04929181912182443</v>
+        <v>0.1282175487214896</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04526516414897096</v>
+        <v>0.03371125494021952</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06316000584398372</v>
+        <v>0.1292457699641346</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1019992934775674</v>
+        <v>0.07845441748757537</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06254921853404227</v>
+        <v>0.1291624323200317</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1615211259663108</v>
+        <v>0.1249050762392869</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06187120070071644</v>
+        <v>0.1296661213777963</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04226550480918011</v>
+        <v>0.01708079220293253</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04991576619931588</v>
+        <v>0.1298405556673313</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04483394313925074</v>
+        <v>0.0336009982977824</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06395949958884427</v>
+        <v>0.1308817923687439</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1013935269710823</v>
+        <v>0.07913942044032035</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06334098079396687</v>
+        <v>0.1307973998177537</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1599801130270961</v>
+        <v>0.1242694687089851</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06265438045642172</v>
+        <v>0.131307464686376</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04234837670660846</v>
+        <v>0.01609340469130092</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05053971327680733</v>
+        <v>0.1314635626131729</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04470064418290527</v>
+        <v>0.0338142004768885</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06475899333370483</v>
+        <v>0.1325178147733532</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1004940511912623</v>
+        <v>0.0784727574298652</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06413274305389145</v>
+        <v>0.1324323673154756</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1593440656298642</v>
+        <v>0.1242996866567306</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06343756021212699</v>
+        <v>0.1329488079949557</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04242742402857859</v>
+        <v>0.01711200641509852</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05116366035429878</v>
+        <v>0.1330865695590146</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04496550622104491</v>
+        <v>0.03354007572530374</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06555848707856538</v>
+        <v>0.1341538371779625</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1004029540895254</v>
+        <v>0.07913572084562767</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06492450531381604</v>
+        <v>0.1340673348131975</v>
       </c>
       <c r="N147" t="n">
-        <v>0.157316168411091</v>
+        <v>0.1235780577454045</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06422073996783226</v>
+        <v>0.1345901513035354</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04250257190021021</v>
+        <v>0.01513626857597184</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05178760743179022</v>
+        <v>0.1347095765048562</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04472876819478</v>
+        <v>0.03357795736808059</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06635798082342592</v>
+        <v>0.1357898595825718</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09952232361728969</v>
+        <v>0.0794267469162587</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06571626757374063</v>
+        <v>0.1357023023109194</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1581996060072519</v>
+        <v>0.124502090901307</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06500391972353753</v>
+        <v>0.1362314946121151</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04257374544662317</v>
+        <v>0.01616586237556741</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05241155450928167</v>
+        <v>0.1363325834506978</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04429066904522092</v>
+        <v>0.03392717873027148</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06715747456828648</v>
+        <v>0.1374258819871811</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09935424772597326</v>
+        <v>0.07974427187040922</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06650802983366522</v>
+        <v>0.1373372698086413</v>
       </c>
       <c r="N149" t="n">
-        <v>0.157297563054823</v>
+        <v>0.123869295050738</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0657870994792428</v>
+        <v>0.1378728379206948</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04264086979293719</v>
+        <v>0.01520045901553177</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05303550158677311</v>
+        <v>0.1379555903965395</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04415144771347801</v>
+        <v>0.03358707313692896</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06795696831314703</v>
+        <v>0.1390619043917904</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09960081436699428</v>
+        <v>0.07888673193673021</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06729979209358979</v>
+        <v>0.1389722373063632</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1555132241902798</v>
+        <v>0.1255771791199978</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06657027923494807</v>
+        <v>0.1395141812292745</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04270387006427204</v>
+        <v>0.01623972969751144</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05365944866426457</v>
+        <v>0.1395785973423811</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04421134314066162</v>
+        <v>0.03405697391310546</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06875646205800759</v>
+        <v>0.1406979267963997</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09876411149177078</v>
+        <v>0.07895256334387257</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06809155435351438</v>
+        <v>0.1406072048040852</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1558497740500981</v>
+        <v>0.1247232520353863</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06735345899065334</v>
+        <v>0.1411555245378542</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04276267138574748</v>
+        <v>0.01628334562315294</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05428339574175602</v>
+        <v>0.1412016042882228</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04427059426788213</v>
+        <v>0.03373621438385346</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06955595580286814</v>
+        <v>0.142333949201009</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09834622705172094</v>
+        <v>0.07994020232048726</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06888331661343897</v>
+        <v>0.1422421723018071</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1549103972707537</v>
+        <v>0.1255050227232035</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06813663874635863</v>
+        <v>0.1427968678464339</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0428171988824833</v>
+        <v>0.0163309779941028</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05490734281924746</v>
+        <v>0.1428246112340644</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04412944003624987</v>
+        <v>0.03402412787422544</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0703554495477287</v>
+        <v>0.1439699716056183</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09744924899826279</v>
+        <v>0.08004808509522521</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06967507887336355</v>
+        <v>0.143877139799529</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1526982784887223</v>
+        <v>0.1254200001097496</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0689198185020639</v>
+        <v>0.1444382111550136</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04286737767959924</v>
+        <v>0.01738229801200756</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05553128989673892</v>
+        <v>0.144447618179906</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04398811938687522</v>
+        <v>0.03422004770927388</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07115494329258924</v>
+        <v>0.1456059940102276</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09687526528281454</v>
+        <v>0.08027464789673738</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07046684113328815</v>
+        <v>0.1455121072972509</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1524166023404795</v>
+        <v>0.1261656931213249</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06970299825776916</v>
+        <v>0.1460795544635933</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04291313290221509</v>
+        <v>0.01643697687851373</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05615523697423036</v>
+        <v>0.1460706251257477</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0438468712608685</v>
+        <v>0.03412330721405125</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0719544370374498</v>
+        <v>0.1472420164148369</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09672636385679415</v>
+        <v>0.08011832695367474</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07125860339321273</v>
+        <v>0.1471470747949729</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1527685534625013</v>
+        <v>0.1256396106842291</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07048617801347443</v>
+        <v>0.147720897772173</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04295438967545061</v>
+        <v>0.0174979603029406</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05677918405172181</v>
+        <v>0.1476936320715893</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04350593459934009</v>
+        <v>0.03413323971361001</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07275393078231036</v>
+        <v>0.1488780388194462</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09730463267161985</v>
+        <v>0.08117755849468819</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07205036565313731</v>
+        <v>0.1487820422926948</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1519573164912633</v>
+        <v>0.1276392617247624</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0712693577691797</v>
+        <v>0.1493622410807527</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04299107312442554</v>
+        <v>0.01760405620212725</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05740313112921325</v>
+        <v>0.149316639017431</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04316554834340033</v>
+        <v>0.03466219554553372</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07355342452717091</v>
+        <v>0.1505140612240555</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09631215967870965</v>
+        <v>0.08149077118293471</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0728421279130619</v>
+        <v>0.1504170097904167</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1503860760632412</v>
+        <v>0.1271656225155239</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07205253752488497</v>
+        <v>0.1510035843893324</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04302310837425972</v>
+        <v>0.01575885448042742</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0580270782067047</v>
+        <v>0.1509396459632726</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04312164288136182</v>
+        <v>0.03448931158587436</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07435291827203146</v>
+        <v>0.1521500836286648</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09594426713151699</v>
+        <v>0.08194101986231059</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07363389017298648</v>
+        <v>0.1520519772881386</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1496493610120972</v>
+        <v>0.1286692020782428</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07283571728059025</v>
+        <v>0.1526449276979121</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04305042055007285</v>
+        <v>0.01595242950913289</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05865102528419615</v>
+        <v>0.1525626529091142</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04296741727276718</v>
+        <v>0.03481139770607783</v>
       </c>
       <c r="K159" t="n">
-        <v>0.075152412016892</v>
+        <v>0.1537861060332741</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09538967031303608</v>
+        <v>0.08201094815354262</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07442565243291106</v>
+        <v>0.1536869447858606</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1495328371118836</v>
+        <v>0.1289523338968841</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07361889703629552</v>
+        <v>0.1542862710064918</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04307293477698472</v>
+        <v>0.01717485565953543</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05927497236168761</v>
+        <v>0.1541856598549559</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04290321285342244</v>
+        <v>0.03530832859855569</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07595190576175256</v>
+        <v>0.1554221284378834</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09534727301531012</v>
+        <v>0.08305334957389943</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07521741469283566</v>
+        <v>0.1553219122835825</v>
       </c>
       <c r="N160" t="n">
-        <v>0.149134758655712</v>
+        <v>0.1303398184688679</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0744020767920008</v>
+        <v>0.1559276143150715</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04309057618011509</v>
+        <v>0.01641620730292685</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05989891943917904</v>
+        <v>0.1558086668007975</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04292948091660206</v>
+        <v>0.03575997895571952</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07675139950661312</v>
+        <v>0.1570581508424927</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09561617159347027</v>
+        <v>0.08382101764064973</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07600917695276024</v>
+        <v>0.1569568797813044</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1494536163906107</v>
+        <v>0.1315564562916143</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07518525654770607</v>
+        <v>0.1575689576236512</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04310326988458375</v>
+        <v>0.01866655881059892</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0605228665166705</v>
+        <v>0.1574316737466392</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04254667275558055</v>
+        <v>0.03614622346998086</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07755089325147367</v>
+        <v>0.158694173247102</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09489546240264746</v>
+        <v>0.08506674587106219</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07680093921268483</v>
+        <v>0.1585918472790263</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1491879010636087</v>
+        <v>0.1342270478625436</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07596843630341132</v>
+        <v>0.1592103009322309</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04311094101551044</v>
+        <v>0.01691598455384342</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06114681359416195</v>
+        <v>0.1590546806924808</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04225523966363237</v>
+        <v>0.03664693683375131</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07835038699633423</v>
+        <v>0.1603301956517113</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09498424179797274</v>
+        <v>0.08674332778240551</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07759270147260941</v>
+        <v>0.1602268147767482</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1485361034217342</v>
+        <v>0.1363763936790758</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0767516160591166</v>
+        <v>0.1608516442408106</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04311351469801496</v>
+        <v>0.01815455890395217</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06177076067165339</v>
+        <v>0.1606776876383224</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04235563293403199</v>
+        <v>0.0374419937394424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07914988074119478</v>
+        <v>0.1619662180563206</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09528160613457715</v>
+        <v>0.08730355689194841</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07838446373253399</v>
+        <v>0.1618617822744702</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1480967142120162</v>
+        <v>0.1377292942386311</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07753479581482187</v>
+        <v>0.1624929875493903</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04311351469801496</v>
+        <v>0.01937235623221693</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06177076067165339</v>
+        <v>0.1623006945841641</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04174830386005393</v>
+        <v>0.03801126887946575</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07994937448605534</v>
+        <v>0.1636022404609299</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09518665176759167</v>
+        <v>0.08930022671695947</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07917622599245858</v>
+        <v>0.1634967497721921</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1475682241814832</v>
+        <v>0.1392105500386296</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07831797557052715</v>
+        <v>0.1641343308579701</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04236345493071546</v>
+        <v>0.01756049661908955</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06177049214318938</v>
+        <v>0.1639237015300057</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04153370373497266</v>
+        <v>0.03833463694623289</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08074886823091589</v>
+        <v>0.1652382628655392</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09429847505214739</v>
+        <v>0.08998613077470743</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07996798825238317</v>
+        <v>0.165131717269914</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1463491240771638</v>
+        <v>0.1407449615764915</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07910115532623242</v>
+        <v>0.1657756741665497</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04162191006219318</v>
+        <v>0.01873527181588157</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06177022361472537</v>
+        <v>0.1655467084758474</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04151228385206261</v>
+        <v>0.03839961299997055</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08154836197577645</v>
+        <v>0.1668742852701485</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09371617234337529</v>
+        <v>0.09113731435653552</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08075975051230776</v>
+        <v>0.1667666847676359</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1457379046460868</v>
+        <v>0.1431601651567697</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07988433508193769</v>
+        <v>0.1674170174751294</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04088930731815758</v>
+        <v>0.01890577617119268</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06176995508626134</v>
+        <v>0.167169715421689</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04118449550459835</v>
+        <v>0.03894639117373133</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08234785572063701</v>
+        <v>0.1685103076747578</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09413883999640638</v>
+        <v>0.09145049892348428</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08155151277223234</v>
+        <v>0.1684016522653578</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1458330566352806</v>
+        <v>0.1436578652786383</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08066751483764296</v>
+        <v>0.1690583607837091</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04016607392441364</v>
+        <v>0.01807232455583948</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06176968655779733</v>
+        <v>0.1687927223675307</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04115078998585428</v>
+        <v>0.03918472439916368</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08314734946549755</v>
+        <v>0.1701463300793671</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09356557436637172</v>
+        <v>0.0920439547614216</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08234327503215692</v>
+        <v>0.1700366197630797</v>
       </c>
       <c r="N169" t="n">
-        <v>0.145133070791774</v>
+        <v>0.1448233701899586</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08145069459334824</v>
+        <v>0.1706997040922888</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03945263710667044</v>
+        <v>0.0202352318406386</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06176941802933331</v>
+        <v>0.1704157293133723</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04071161858910495</v>
+        <v>0.03981525111159709</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0839468432103581</v>
+        <v>0.1717823524839764</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0931954718084024</v>
+        <v>0.09281917940206108</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08313503729208151</v>
+        <v>0.1716715872608017</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1455364378625957</v>
+        <v>0.1460590654452868</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08223387434905349</v>
+        <v>0.1723410474008685</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03874942409066913</v>
+        <v>0.01939481289640666</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06176914950086929</v>
+        <v>0.172038736259214</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04076743260762479</v>
+        <v>0.03993860974636107</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08474633695521865</v>
+        <v>0.1734183748885857</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09312762867762933</v>
+        <v>0.09397767037711618</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08392679955200609</v>
+        <v>0.1733065547585236</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1449416485947742</v>
+        <v>0.1473673365991788</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08301705410475878</v>
+        <v>0.1739823907094482</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03805686210212099</v>
+        <v>0.02055138259396027</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06176888097240527</v>
+        <v>0.1736617432050556</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0403186833346883</v>
+        <v>0.04045543873878521</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08554583070007921</v>
+        <v>0.175054397293195</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09296114132918357</v>
+        <v>0.09442092521830053</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08471856181193069</v>
+        <v>0.1749415222562455</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1443471937353381</v>
+        <v>0.1484505692061908</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08380023386046405</v>
+        <v>0.1756237340180279</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03737537836682747</v>
+        <v>0.01970525580411606</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06176861244394125</v>
+        <v>0.1752847501508972</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04006582206356998</v>
+        <v>0.04046637652419902</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08634532444493975</v>
+        <v>0.1766904196978043</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09359510611819613</v>
+        <v>0.09505044145732763</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08551032407185527</v>
+        <v>0.1765764897539674</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1433515640313162</v>
+        <v>0.1498111488208789</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08458341361616932</v>
+        <v>0.1772650773266077</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03670540011049939</v>
+        <v>0.01985674739769066</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06176834391547724</v>
+        <v>0.1769077570967389</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03970930008754429</v>
+        <v>0.04077206153793199</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08714481818980031</v>
+        <v>0.1783264421024136</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09292861939979813</v>
+        <v>0.09576771662591099</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08630208633177985</v>
+        <v>0.1782114572516894</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1430532502297371</v>
+        <v>0.150951460997799</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08536659337187459</v>
+        <v>0.1789064206351874</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03604735455887786</v>
+        <v>0.02100617224550066</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06176807538701323</v>
+        <v>0.1785307640425805</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03964956869988573</v>
+        <v>0.04127313221531366</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08794431193466087</v>
+        <v>0.1799624645070229</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0923607775291205</v>
+        <v>0.09647424825576417</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08709384859170444</v>
+        <v>0.1798464247494113</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1439507430776294</v>
+        <v>0.1519738912915072</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08614977312757986</v>
+        <v>0.180547763943767</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03540166893767629</v>
+        <v>0.02115384521836269</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0617678068585492</v>
+        <v>0.1801537709884221</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03918707919386878</v>
+        <v>0.04157022699167359</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08874380567952142</v>
+        <v>0.1815984869116322</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09319067686129431</v>
+        <v>0.0971715338786007</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08788561085162902</v>
+        <v>0.1814813922471332</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1424425333220217</v>
+        <v>0.1525808252565598</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08693295288328513</v>
+        <v>0.1821891072523467</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03476877047269203</v>
+        <v>0.02030008118709338</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06176753833008519</v>
+        <v>0.1817767779342638</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03902228286276788</v>
+        <v>0.04176398430234127</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08954329942438198</v>
+        <v>0.1832345093162415</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09301741375145056</v>
+        <v>0.09826107102613413</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0886773731115536</v>
+        <v>0.1831163597448551</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1416271117099426</v>
+        <v>0.1547746484475127</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0877161326389904</v>
+        <v>0.1838304505609265</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03414908638963786</v>
+        <v>0.02145006255680237</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06176726980162117</v>
+        <v>0.1833997848801054</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03855563099985758</v>
+        <v>0.04225555080224662</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09034279316924253</v>
+        <v>0.1848705317208508</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09194008455472025</v>
+        <v>0.09934632941678137</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0894691353714782</v>
+        <v>0.184751327242577</v>
       </c>
       <c r="N178" t="n">
-        <v>0.141602968988421</v>
+        <v>0.1555577464189218</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08849931239469568</v>
+        <v>0.1854717938695061</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03354304391425497</v>
+        <v>0.01960827177986772</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06176700127315716</v>
+        <v>0.1850227918259471</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0384875748984123</v>
+        <v>0.04226101594565368</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09114228691410309</v>
+        <v>0.1865065541254601</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09265778562623453</v>
+        <v>0.099366154550835</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09026089763140278</v>
+        <v>0.1863862947402989</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1415685959044852</v>
+        <v>0.1563712041039034</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08928249215040095</v>
+        <v>0.1871131371780858</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03295107027225906</v>
+        <v>0.02176939952103338</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06176673274469313</v>
+        <v>0.1866457987717887</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03801856585170657</v>
+        <v>0.04287976788350205</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09194178065896363</v>
+        <v>0.1881425765300694</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09246961332112427</v>
+        <v>0.1006157548266987</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09105265989132738</v>
+        <v>0.1880212622380209</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1418224832051642</v>
+        <v>0.1572450217121436</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09006567190610622</v>
+        <v>0.1887544804866655</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03237359268944286</v>
+        <v>0.01992803685501638</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06176646421622912</v>
+        <v>0.1882688057176304</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03794905515301485</v>
+        <v>0.04290083942285701</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09274127440382418</v>
+        <v>0.1897785989346787</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09177466399452058</v>
+        <v>0.1004694052907728</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09184442215125195</v>
+        <v>0.1896562297357428</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1403631216374863</v>
+        <v>0.1591386377660579</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09084885166181149</v>
+        <v>0.1903958237952452</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03181103839152144</v>
+        <v>0.02007877485653378</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0617661956877651</v>
+        <v>0.189891812663472</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03767949409561161</v>
+        <v>0.0432132633707837</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09354076814868474</v>
+        <v>0.191414621339288</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09167203400155446</v>
+        <v>0.1022013809894579</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09263618441117653</v>
+        <v>0.1912911972334647</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1408890019484803</v>
+        <v>0.1594110726458431</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09163203141751676</v>
+        <v>0.1920371671038249</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.031263834604236</v>
+        <v>0.02221620460030263</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06176592715930109</v>
+        <v>0.1915148196093136</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03731033397277136</v>
+        <v>0.04350607253434731</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09434026189354529</v>
+        <v>0.1930506437438973</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09116081969735693</v>
+        <v>0.1019859569691545</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09342794667110113</v>
+        <v>0.1929261647311866</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1397986148851749</v>
+        <v>0.1616213467316964</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09241521117322203</v>
+        <v>0.1936785104124046</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03073240855330488</v>
+        <v>0.02033491716103997</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06176565863083706</v>
+        <v>0.1931378265551553</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03694202607776857</v>
+        <v>0.04396829972061302</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09513975563840585</v>
+        <v>0.1946866661485066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09084011743705905</v>
+        <v>0.1029974082762631</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09421970893102571</v>
+        <v>0.1945611322289086</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1398904511945985</v>
+        <v>0.1624284804038143</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0931983909289273</v>
+        <v>0.1953198537209843</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03021718746451557</v>
+        <v>0.02242950361346284</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06176539010237305</v>
+        <v>0.1947608335009969</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03667502170387771</v>
+        <v>0.04388897773664603</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0959392493832664</v>
+        <v>0.1963226885531159</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09100902357579185</v>
+        <v>0.1034100099571841</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0950114711909503</v>
+        <v>0.1961960997266305</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1382630016237801</v>
+        <v>0.1625914940423938</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09398157068463257</v>
+        <v>0.1969611970295641</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02971859856358573</v>
+        <v>0.02249614402660376</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06176512157390903</v>
+        <v>0.1963838404468385</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03640977214437328</v>
+        <v>0.04435713938951152</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09673874312812696</v>
+        <v>0.1979587109577252</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0902666344686863</v>
+        <v>0.104298037058318</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09580323345087489</v>
+        <v>0.1978310672243524</v>
       </c>
       <c r="N186" t="n">
-        <v>0.137414756919748</v>
+        <v>0.1643694080276317</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09476475044033784</v>
+        <v>0.1986025403381437</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02923706907625652</v>
+        <v>0.02155426223976745</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06176485304544502</v>
+        <v>0.1980068473926802</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03624672869252975</v>
+        <v>0.04417771411626623</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09753823687298752</v>
+        <v>0.1995947333623345</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09001204647087346</v>
+        <v>0.1036788161570346</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09659499571079948</v>
+        <v>0.1994660347220743</v>
       </c>
       <c r="N187" t="n">
-        <v>0.137944207829531</v>
+        <v>0.1643447634524723</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09554793019604312</v>
+        <v>0.2002438836467234</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02877302622824933</v>
+        <v>0.02261111642058319</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06176458451698099</v>
+        <v>0.1996298543385218</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0362863426416216</v>
+        <v>0.04429271742944541</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09833773061784806</v>
+        <v>0.2012307557669437</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08994435593748434</v>
+        <v>0.1042486252005636</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09738675797072405</v>
+        <v>0.2011010022197962</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1362498451001578</v>
+        <v>0.1635740386974958</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09633110995174839</v>
+        <v>0.2018852269553031</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02832689724534571</v>
+        <v>0.02166668666347402</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06176431598851698</v>
+        <v>0.2012528612843635</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03572906528492334</v>
+        <v>0.04450516253067086</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09913722436270862</v>
+        <v>0.2028667781715531</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08986265922365003</v>
+        <v>0.1050124251167599</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09817852023064864</v>
+        <v>0.2027359697175182</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1365301594786569</v>
+        <v>0.1648938231637794</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09711428970745366</v>
+        <v>0.2035265702638828</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02789736484815662</v>
+        <v>0.02172095306286297</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06176404746005296</v>
+        <v>0.2028758682302051</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03577534791570942</v>
+        <v>0.04471500905918852</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09993671810756917</v>
+        <v>0.2045028005761624</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08996605268450145</v>
+        <v>0.1053701212343132</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09897028249057323</v>
+        <v>0.2043709372152401</v>
       </c>
       <c r="N190" t="n">
-        <v>0.136183641712057</v>
+        <v>0.1647039660407769</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09789746946315894</v>
+        <v>0.2051679135724625</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02747438923176451</v>
+        <v>0.02077389571317308</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06176377893158895</v>
+        <v>0.2044988751760467</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03542564182725433</v>
+        <v>0.04502221665424434</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1007362118524297</v>
+        <v>0.2061388229807717</v>
       </c>
       <c r="L191" t="n">
-        <v>0.0894536326751697</v>
+        <v>0.1052216188819131</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09976204475049781</v>
+        <v>0.206005904712962</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1356087825473868</v>
+        <v>0.165204316517942</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09868064921886421</v>
+        <v>0.2068092568810422</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02705665311678254</v>
+        <v>0.02282549470882741</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06176351040312492</v>
+        <v>0.2061218821218884</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03508039831283255</v>
+        <v>0.04482674495508429</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1015357055972903</v>
+        <v>0.207774845385381</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08872449555078582</v>
+        <v>0.1051668233882492</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1005538070104224</v>
+        <v>0.2076408722106839</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1334040727316748</v>
+        <v>0.166694723784729</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09946382897456947</v>
+        <v>0.2084506001896219</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02664458372898827</v>
+        <v>0.02287573014424896</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06176324187466091</v>
+        <v>0.20774488906773</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03463249415746295</v>
+        <v>0.0450285536009543</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1023351993421508</v>
+        <v>0.2094108677899903</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08864727711321058</v>
+        <v>0.1053056400820117</v>
       </c>
       <c r="M193" t="n">
-        <v>0.101345569270347</v>
+        <v>0.2092758397084059</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1338114451216739</v>
+        <v>0.1670750370305915</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1002470087302747</v>
+        <v>0.2100919434982016</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02623860829410457</v>
+        <v>0.0219245821138608</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0617629733461969</v>
+        <v>0.2093678960135717</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03457352198208224</v>
+        <v>0.04522760223110035</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1031346930870114</v>
+        <v>0.2110468901945996</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08808633117562897</v>
+        <v>0.1054379742918899</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1021373315302716</v>
+        <v>0.2109108072061278</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1326663934793769</v>
+        <v>0.1674451054449833</v>
       </c>
       <c r="O194" t="n">
-        <v>0.10103018848598</v>
+        <v>0.2117332868067813</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0258391540378726</v>
+        <v>0.02197203071208596</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06176270481773288</v>
+        <v>0.2109909029594133</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03410438521353129</v>
+        <v>0.04522385048476836</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1039341868318719</v>
+        <v>0.2126829125992089</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08814641103825901</v>
+        <v>0.1056637313465738</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1029290937901962</v>
+        <v>0.2125457747038497</v>
       </c>
       <c r="N195" t="n">
-        <v>0.130678273131915</v>
+        <v>0.1666047782173584</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1018133682416853</v>
+        <v>0.2133746301153611</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02544664818601659</v>
+        <v>0.02101805603334748</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06176243628926886</v>
+        <v>0.212613909905255</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03412600764466417</v>
+        <v>0.04521725800120431</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1047336805767325</v>
+        <v>0.2143189350038182</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08683239786489022</v>
+        <v>0.106882816574753</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1037208560501207</v>
+        <v>0.2141807422015716</v>
       </c>
       <c r="N196" t="n">
-        <v>0.130156638154959</v>
+        <v>0.1668539045371707</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1025965479973906</v>
+        <v>0.2150159734239407</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02506151796431191</v>
+        <v>0.0210626381720684</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06176216776080484</v>
+        <v>0.2142369168510966</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0338393130683349</v>
+        <v>0.04520778441965413</v>
       </c>
       <c r="K197" t="n">
-        <v>0.105533174321593</v>
+        <v>0.2159549574084275</v>
       </c>
       <c r="L197" t="n">
-        <v>0.0860491728193119</v>
+        <v>0.1071951353051172</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1045126183100453</v>
+        <v>0.2158157096992935</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1289110426241796</v>
+        <v>0.1675923335938742</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1033797277530958</v>
+        <v>0.2166573167325204</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02468419059848249</v>
+        <v>0.02310575722267175</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06176189923234082</v>
+        <v>0.2158599237969382</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03354522527739759</v>
+        <v>0.04549538937936377</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1063326680664536</v>
+        <v>0.2175909798130368</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08500161706531345</v>
+        <v>0.1071005928663561</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1053043805699699</v>
+        <v>0.2174506771970155</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1278510406152474</v>
+        <v>0.1675199145769225</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1041629075088011</v>
+        <v>0.2182986600411002</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02431509331426951</v>
+        <v>0.02314739327958058</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06176163070387681</v>
+        <v>0.2174829307427799</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03294466806470626</v>
+        <v>0.04578003251957923</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1071321618113142</v>
+        <v>0.219227002217646</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08499461176668427</v>
+        <v>0.1064990945871596</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1060961428298945</v>
+        <v>0.2190856446947373</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1261861862038329</v>
+        <v>0.1683364966757697</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1049460872645064</v>
+        <v>0.2199400033496798</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02395465333739861</v>
+        <v>0.02218752643721792</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06176136217541278</v>
+        <v>0.2191059376886215</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03303856522311502</v>
+        <v>0.04586167347954639</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1079316555561747</v>
+        <v>0.2208630246222553</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0844330380872137</v>
+        <v>0.1077905457962173</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1068879050898191</v>
+        <v>0.2207206121924593</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1243260334656069</v>
+        <v>0.1682419290798697</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1057292670202116</v>
+        <v>0.2215813466582595</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02360329789364238</v>
+        <v>0.02222613679000682</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06176109364694877</v>
+        <v>0.2207289446344632</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0323278405454779</v>
+        <v>0.04584027189851124</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1087311493010353</v>
+        <v>0.2224990470268647</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08302177719069123</v>
+        <v>0.1069748518222191</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1076796673497437</v>
+        <v>0.2223555796901812</v>
       </c>
       <c r="N201" t="n">
-        <v>0.12278013647624</v>
+        <v>0.1694360609786763</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1065124467759169</v>
+        <v>0.2232226899668392</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02326145420872609</v>
+        <v>0.02126320443237031</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06176082511848476</v>
+        <v>0.2223519515803048</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03221341782464893</v>
+        <v>0.04561578741571976</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1095306430458958</v>
+        <v>0.224135069431474</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08166571024090616</v>
+        <v>0.1074519179938544</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1084714296096683</v>
+        <v>0.2239905471879031</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1212580493114028</v>
+        <v>0.1695187415616433</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1072956265316222</v>
+        <v>0.224864033275419</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02292954950839091</v>
+        <v>0.02129870945873143</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06176055659002074</v>
+        <v>0.2239749585261464</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03179622085348223</v>
+        <v>0.04578817967041784</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1103301367907564</v>
+        <v>0.2257710918360832</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08046971840164791</v>
+        <v>0.1079216496398132</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1092631918695929</v>
+        <v>0.225625514685625</v>
       </c>
       <c r="N203" t="n">
-        <v>0.118269326046766</v>
+        <v>0.1703898200182248</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1080788062873275</v>
+        <v>0.2265053765839986</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02260801101836427</v>
+        <v>0.02133263196351322</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06176028806155671</v>
+        <v>0.2255979654719881</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0317771734248318</v>
+        <v>0.04595740830185145</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1111296305356169</v>
+        <v>0.2274071142406925</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07993868283670588</v>
+        <v>0.1083839520887852</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1100549541295174</v>
+        <v>0.227260482183347</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1160235207580002</v>
+        <v>0.1702491455378745</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1088619860430327</v>
+        <v>0.2281467198925784</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02229726596441531</v>
+        <v>0.02136495204113872</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0617600195330927</v>
+        <v>0.2272209724178297</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03105719933155177</v>
+        <v>0.04592343294926657</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1119291242804775</v>
+        <v>0.2290431366453018</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07887748470986944</v>
+        <v>0.10753873066946</v>
       </c>
       <c r="M205" t="n">
-        <v>0.110846716389442</v>
+        <v>0.2288954496810689</v>
       </c>
       <c r="N205" t="n">
-        <v>0.115030187520776</v>
+        <v>0.1693965673100463</v>
       </c>
       <c r="O205" t="n">
-        <v>0.109645165798738</v>
+        <v>0.229788063201158</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.021997741572271</v>
+        <v>0.02339564978603097</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06175975100462869</v>
+        <v>0.2288439793636713</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03083722236649615</v>
+        <v>0.04598621325190916</v>
       </c>
       <c r="K206" t="n">
-        <v>0.112728618025338</v>
+        <v>0.2306791590499111</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07829100518492793</v>
+        <v>0.1085858907105275</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1116384786493666</v>
+        <v>0.2305304171787908</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1121988804107641</v>
+        <v>0.1707319345241942</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1104283455544433</v>
+        <v>0.2314294065097377</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02170986506767249</v>
+        <v>0.02342470529261301</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06175948247616467</v>
+        <v>0.230466986309513</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03061816632251899</v>
+        <v>0.04634570884902511</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1135281117701986</v>
+        <v>0.2323151814545204</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07698412542567085</v>
+        <v>0.1083253375406773</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1124302409092912</v>
+        <v>0.2321653846765127</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1102391535036352</v>
+        <v>0.171055096369772</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1112115253101486</v>
+        <v>0.2330707498183175</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02143406367634923</v>
+        <v>0.02245209865530788</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06175921394770065</v>
+        <v>0.2320899932553547</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03030095499247441</v>
+        <v>0.04610187937986043</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1143276055150591</v>
+        <v>0.2339512038591297</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07546172659588748</v>
+        <v>0.1081569764885992</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1132220031692158</v>
+        <v>0.2338003521742346</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1094605608750599</v>
+        <v>0.1708659020362335</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1119947050658538</v>
+        <v>0.2347120931268971</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0211707646240664</v>
+        <v>0.02347780996853861</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06175894541923663</v>
+        <v>0.2337130002011963</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02988651216921642</v>
+        <v>0.04635468448366103</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1151270992599197</v>
+        <v>0.235587226263739</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07412868985936727</v>
+        <v>0.1086807128829829</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1140137654291404</v>
+        <v>0.2354353196719566</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1062726566007088</v>
+        <v>0.1718642007130329</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1127778848215591</v>
+        <v>0.2363534364354768</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0209203951365529</v>
+        <v>0.02150181932672825</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06175867689077261</v>
+        <v>0.2353360071470379</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02947576164559912</v>
+        <v>0.04610408379967294</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1159265930047802</v>
+        <v>0.2372232486683483</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07328989637989966</v>
+        <v>0.109196452052518</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1148055276890649</v>
+        <v>0.2370702871696785</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1040849947562525</v>
+        <v>0.1716498415896238</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1135610645772644</v>
+        <v>0.2379947797440566</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0206833824395499</v>
+        <v>0.02352410682429984</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0617584083623086</v>
+        <v>0.2369590140928796</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02956962721447652</v>
+        <v>0.04615003696714201</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1167260867496408</v>
+        <v>0.2388592710729576</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0727502273212739</v>
+        <v>0.1087040993258945</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1155972899489895</v>
+        <v>0.2387052546674004</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1022071294173618</v>
+        <v>0.17082267385546</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1143442443329696</v>
+        <v>0.2396361230526363</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02046015375878917</v>
+        <v>0.0225446525556764</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06175813983384457</v>
+        <v>0.2385820210387212</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02926903266870272</v>
+        <v>0.04619250362531424</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1175255804945013</v>
+        <v>0.2404952934775669</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07121456384727948</v>
+        <v>0.1092035600318019</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1163890522089141</v>
+        <v>0.2403402221651223</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1003486146597071</v>
+        <v>0.1715825466999957</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1151274240886749</v>
+        <v>0.2412774663612159</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0202511363200313</v>
+        <v>0.02256343661528099</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06175787130538056</v>
+        <v>0.2402050279845629</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02867490180113176</v>
+        <v>0.04633144341343559</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1183250742393619</v>
+        <v>0.2421313158821763</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06938778712170579</v>
+        <v>0.1092947394989301</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1171808144688387</v>
+        <v>0.2419751896628443</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09781900455895931</v>
+        <v>0.1722293093126845</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1159106038443802</v>
+        <v>0.2429188096697957</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02005675734900747</v>
+        <v>0.02258043909753664</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06175760277691655</v>
+        <v>0.2418280349304045</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02848815840461771</v>
+        <v>0.04656681597075202</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1191245679842225</v>
+        <v>0.2437673382867855</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0693747783083421</v>
+        <v>0.1087775430559688</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1179725767287633</v>
+        <v>0.2436101571605662</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09682785319078896</v>
+        <v>0.1715628108829805</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1166937836000854</v>
+        <v>0.2445601529783754</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02005675734900747</v>
+        <v>0.02259564009686639</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06175760277691655</v>
+        <v>0.2434510418762461</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02810972627201466</v>
+        <v>0.04629858093650943</v>
       </c>
       <c r="K215" t="n">
-        <v>0.119924061729083</v>
+        <v>0.2454033606913948</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06778041857097794</v>
+        <v>0.1088518760316076</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1187643389886879</v>
+        <v>0.2452451246582881</v>
       </c>
       <c r="N215" t="n">
-        <v>0.09478471463086663</v>
+        <v>0.1716829006003376</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1174769633557907</v>
+        <v>0.246201496286955</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01954648180671657</v>
+        <v>0.02260901970769328</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06169678570382237</v>
+        <v>0.2450740488220878</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02784052919617662</v>
+        <v>0.04632669794995381</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1207235554739435</v>
+        <v>0.2470393830960042</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06680958907340265</v>
+        <v>0.1091176437545364</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1195561012486124</v>
+        <v>0.24688009215601</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0930991429548631</v>
+        <v>0.1725894276542094</v>
       </c>
       <c r="O216" t="n">
-        <v>0.118260143111496</v>
+        <v>0.2478428395955348</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01904213854763911</v>
+        <v>0.02162055802444035</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06163596863072821</v>
+        <v>0.2466970557679294</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02748149096995765</v>
+        <v>0.04655112665033112</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1215230492188041</v>
+        <v>0.2486754055006134</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06536717097940561</v>
+        <v>0.1096747515534447</v>
       </c>
       <c r="M217" t="n">
-        <v>0.120347863508537</v>
+        <v>0.2485150596537319</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09148069223844885</v>
+        <v>0.1726822412340499</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1190433228672013</v>
+        <v>0.2494841829041144</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01854407216665666</v>
+        <v>0.02163023514153063</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06157515155763404</v>
+        <v>0.2483200627137711</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02733353538621187</v>
+        <v>0.04667182667688732</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1223225429636647</v>
+        <v>0.2503114279052228</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06475804545277619</v>
+        <v>0.1089231047570224</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1211396257684616</v>
+        <v>0.2501500271514539</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08823891655729466</v>
+        <v>0.1723611905293133</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1198265026229065</v>
+        <v>0.2511255262126941</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01805262725865103</v>
+        <v>0.02363803115338717</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06151433448453986</v>
+        <v>0.2499430696596127</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02709758623779329</v>
+        <v>0.04668875766886831</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1231220367085252</v>
+        <v>0.251947450309832</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06348709365730387</v>
+        <v>0.1094626086939592</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1219313880283862</v>
+        <v>0.2517849946491758</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08738336998707108</v>
+        <v>0.1730261247294531</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1206096823786118</v>
+        <v>0.2527668695212739</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01756814841850397</v>
+        <v>0.02264392615443302</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06145351741144569</v>
+        <v>0.2515660766054544</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02677456731755597</v>
+        <v>0.04660187926552008</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1239215304533858</v>
+        <v>0.2535834727144413</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06215919675677789</v>
+        <v>0.1090931686929449</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1227231502883108</v>
+        <v>0.2534199621468977</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08492360660344866</v>
+        <v>0.1731768930239232</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1213928621343171</v>
+        <v>0.2544082128298535</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01709098024109731</v>
+        <v>0.0236479002390912</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06139270033835153</v>
+        <v>0.253189083551296</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02696540241835402</v>
+        <v>0.04671115110608859</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1247210241982463</v>
+        <v>0.2552194951190506</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06157923591498773</v>
+        <v>0.1093146900826691</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1235149125482354</v>
+        <v>0.2550549296446196</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08506918048209833</v>
+        <v>0.1719133446021777</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1221760418900223</v>
+        <v>0.2560495561384332</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0166214673213126</v>
+        <v>0.02364993350178474</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06133188326525735</v>
+        <v>0.2548120904971376</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02677101533304142</v>
+        <v>0.04681653282981976</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1255205179431069</v>
+        <v>0.2568555175236599</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06115209229572277</v>
+        <v>0.1098270781918216</v>
       </c>
       <c r="M222" t="n">
-        <v>0.12430667480816</v>
+        <v>0.2566898971423416</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08292964569869044</v>
+        <v>0.1729353286536703</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1229592216457276</v>
+        <v>0.257690899447013</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01615995425403167</v>
+        <v>0.02164363964349517</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06127106619216318</v>
+        <v>0.2564350974429793</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02629232985447232</v>
+        <v>0.04641691552219616</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1263200116879674</v>
+        <v>0.2584915399282692</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0596826470627724</v>
+        <v>0.1097266320886524</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1250984370680845</v>
+        <v>0.2583248646400634</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08181455632889589</v>
+        <v>0.1732426943678551</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1237424014014329</v>
+        <v>0.2593322427555926</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01570678563413625</v>
+        <v>0.02158671120365318</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06121024911906901</v>
+        <v>0.2580581043888209</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02603026977550071</v>
+        <v>0.04634053715135719</v>
       </c>
       <c r="K224" t="n">
-        <v>0.127119505432828</v>
+        <v>0.2601275623328785</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05967578137992596</v>
+        <v>0.109340045969497</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1258901993280092</v>
+        <v>0.2599598321377854</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08013346644838509</v>
+        <v>0.1725170348146305</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1245255811571382</v>
+        <v>0.2609735860641724</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01526230605650818</v>
+        <v>0.02347647486046048</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06114943204597485</v>
+        <v>0.2596811113346625</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02608575888898067</v>
+        <v>0.04615292708784392</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1279189991776885</v>
+        <v>0.2617635847374878</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05863637641097291</v>
+        <v>0.1086931450420802</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1266819615879337</v>
+        <v>0.2615947996355073</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07939593013282886</v>
+        <v>0.1711710018980082</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1253087609128434</v>
+        <v>0.262614929372752</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01482686011602902</v>
+        <v>0.02131913604580962</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06108861497288067</v>
+        <v>0.2613041182805042</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0257597209877663</v>
+        <v>0.04626666752964381</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1287184929225491</v>
+        <v>0.2633996071420971</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05776931331970264</v>
+        <v>0.1081154424608924</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1274737238478583</v>
+        <v>0.2632297671332292</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07861150145789769</v>
+        <v>0.1699516097668964</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1260919406685487</v>
+        <v>0.2642562726813318</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01440079240758062</v>
+        <v>0.02212090019159318</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0610277978997865</v>
+        <v>0.2629271252263458</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02605307986471161</v>
+        <v>0.04559434067474435</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1295179866674097</v>
+        <v>0.2650356295467064</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05747947326990446</v>
+        <v>0.1070364513804234</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1282654861077829</v>
+        <v>0.2648647346309511</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07778973449926224</v>
+        <v>0.1695058726110593</v>
       </c>
       <c r="O227" t="n">
-        <v>0.126875120424254</v>
+        <v>0.2658976159899115</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01398444752604466</v>
+        <v>0.02088797272970371</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06096698082669233</v>
+        <v>0.2645501321721875</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02576675931267068</v>
+        <v>0.04544852872113302</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1303174804122702</v>
+        <v>0.2666716519513157</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05717173742536782</v>
+        <v>0.1061856849551636</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1290572483677075</v>
+        <v>0.2664997021286731</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07784018333259335</v>
+        <v>0.1679808046202603</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1276583001799592</v>
+        <v>0.2675389592984911</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01357817006630301</v>
+        <v>0.02162655909203379</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06090616375359816</v>
+        <v>0.2661731391180291</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02550168312449758</v>
+        <v>0.04454181386679724</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1311169741571308</v>
+        <v>0.268307674355925</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0566509869498821</v>
+        <v>0.1055926563396028</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1298490106276321</v>
+        <v>0.268134669626395</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07677240203356145</v>
+        <v>0.1658234199842637</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1284414799356645</v>
+        <v>0.2691803026070709</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01318230462323722</v>
+        <v>0.02234286471047598</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06084534668050399</v>
+        <v>0.2677961460638708</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02555864604141821</v>
+        <v>0.04418677830972453</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1319164679019913</v>
+        <v>0.2699436967605343</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05742159918628947</v>
+        <v>0.1039868786882312</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1306407728875567</v>
+        <v>0.2697696371241169</v>
       </c>
       <c r="N230" t="n">
-        <v>0.078194694948309</v>
+        <v>0.1633807328928332</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1292246596913698</v>
+        <v>0.2708216459156506</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01279719579172912</v>
+        <v>0.02004309501692282</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06078452960740982</v>
+        <v>0.2694191530097124</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02562509560530976</v>
+        <v>0.0434960042479024</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1327159616468518</v>
+        <v>0.2715797191651436</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05663219760597679</v>
+        <v>0.1022978651555389</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1314325351474813</v>
+        <v>0.2714046046218388</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07709490068420322</v>
+        <v>0.1619997575357328</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1300078394470751</v>
+        <v>0.2724629892242302</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01242318816666044</v>
+        <v>0.02073345544326689</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06072371253431565</v>
+        <v>0.271042159955554</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02569228856936641</v>
+        <v>0.04288207387931824</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1335154553917124</v>
+        <v>0.2732157415697529</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05624613602780187</v>
+        <v>0.1011551288960159</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1322242974074058</v>
+        <v>0.2730395721195608</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07759610615550849</v>
+        <v>0.1591275081027264</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1307910192027804</v>
+        <v>0.27410433253281</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01206062634291301</v>
+        <v>0.02042015142140077</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06066289546122148</v>
+        <v>0.2726651669013956</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0256602408182126</v>
+        <v>0.04215756940195955</v>
       </c>
       <c r="K233" t="n">
-        <v>0.134314949136573</v>
+        <v>0.2748517639743622</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05636355684890246</v>
+        <v>0.09988818306415234</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1330160596673304</v>
+        <v>0.2746745396172827</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07679921060360767</v>
+        <v>0.1565109987835777</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1315741989584856</v>
+        <v>0.2757456758413896</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0117098549153684</v>
+        <v>0.01910938838321699</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06060207838812731</v>
+        <v>0.2742881738472373</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02532896823647277</v>
+        <v>0.04153507301381384</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1351144428814335</v>
+        <v>0.2764877863789715</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05608460246641639</v>
+        <v>0.09792654081443825</v>
       </c>
       <c r="M234" t="n">
-        <v>0.133807821927255</v>
+        <v>0.2763095071150046</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07780511326988371</v>
+        <v>0.1539972437680508</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1323573787141909</v>
+        <v>0.2773870191499693</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01137121847890844</v>
+        <v>0.01880737176060813</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06054126131503314</v>
+        <v>0.275911180793079</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02569848670877138</v>
+        <v>0.04092716691286857</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1359139366262941</v>
+        <v>0.2781238087835808</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0555094152774816</v>
+        <v>0.09629971530136372</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1345995841871796</v>
+        <v>0.2779444746127265</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07801471339571958</v>
+        <v>0.1528332572459095</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1331405584698961</v>
+        <v>0.2790283624585491</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01104506162841491</v>
+        <v>0.01852030698546676</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06048044424193897</v>
+        <v>0.2775341877389206</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02536881211973288</v>
+        <v>0.0405464332971112</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1367134303711546</v>
+        <v>0.2797598311881901</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05533813767923587</v>
+        <v>0.09553721967941883</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1353913464471042</v>
+        <v>0.2795794421104484</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07702891022249814</v>
+        <v>0.1497660534069179</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1339237382256014</v>
+        <v>0.2806697057671287</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01073172895876944</v>
+        <v>0.01825439948968543</v>
       </c>
       <c r="G237" t="n">
-        <v>0.0604196271688448</v>
+        <v>0.2791571946847622</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02553996035398173</v>
+        <v>0.04010545436452921</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1375129241160152</v>
+        <v>0.2813958535927994</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05547091206881702</v>
+        <v>0.09416856710309368</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1361831087070288</v>
+        <v>0.2812144096081703</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0778486029916024</v>
+        <v>0.1476426464408396</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1347069179813067</v>
+        <v>0.2823110490757084</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01043156506485383</v>
+        <v>0.01800762565016777</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06035881009575063</v>
+        <v>0.2807802016306039</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02531194729614242</v>
+        <v>0.039408676655553</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1383124178608758</v>
+        <v>0.2830318759974087</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05570788084336298</v>
+        <v>0.09280285074420774</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1369748709669533</v>
+        <v>0.2828493771058923</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07797469094441517</v>
+        <v>0.1454892146014646</v>
       </c>
       <c r="O238" t="n">
-        <v>0.135490097737012</v>
+        <v>0.2839523923842882</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01014491454154981</v>
+        <v>0.01876106222989811</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06029799302265645</v>
+        <v>0.2824032085764455</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02538478883083935</v>
+        <v>0.0388170421189193</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1391119116057363</v>
+        <v>0.284667898402018</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0552491864000115</v>
+        <v>0.09104809878442457</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1377666332268779</v>
+        <v>0.2844843446036142</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07750807332231946</v>
+        <v>0.1439646529045342</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1362732774927173</v>
+        <v>0.2855937356928678</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.00987071488797208</v>
+        <v>0.0185135656835317</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06023717594956229</v>
+        <v>0.2840262155222872</v>
       </c>
       <c r="J240" t="n">
-        <v>0.025358500842697</v>
+        <v>0.03842353654659068</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1399114053505968</v>
+        <v>0.2863039208066273</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05489497113590053</v>
+        <v>0.09078895411164192</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1385583954868025</v>
+        <v>0.2861193121013361</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07784964936669814</v>
+        <v>0.1433331316535876</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1370564572484225</v>
+        <v>0.2872350790014475</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009600868124399677</v>
+        <v>0.01726512131017027</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06017635887646812</v>
+        <v>0.2856492224681288</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02553309921633981</v>
+        <v>0.03812813013087353</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1407108990954574</v>
+        <v>0.2879399432112366</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05474537744816779</v>
+        <v>0.08912534680810247</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1393501577467271</v>
+        <v>0.287754279599058</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07830031831893419</v>
+        <v>0.1401945394702656</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1378396370041278</v>
+        <v>0.2888764223100272</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009334311749947304</v>
+        <v>0.01701571440891557</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06011554180337395</v>
+        <v>0.2872722294139704</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02540859983639225</v>
+        <v>0.03763079306407421</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1415103928403179</v>
+        <v>0.2895759656158459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0544005477339512</v>
+        <v>0.0881572069560487</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1401419200066517</v>
+        <v>0.2893892470967799</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07806097942041046</v>
+        <v>0.1396487649762095</v>
       </c>
       <c r="O242" t="n">
-        <v>0.138622816759833</v>
+        <v>0.2905177656186069</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009071390359496688</v>
+        <v>0.01876533027886931</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06005472473027977</v>
+        <v>0.2888952363598121</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02508501858747879</v>
+        <v>0.03693149553849913</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1423098865851785</v>
+        <v>0.2912119880204552</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0541606243903886</v>
+        <v>0.08648446463772322</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1409336822665763</v>
+        <v>0.2910242145945019</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07813253191250996</v>
+        <v>0.13659569679306</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1394059965155383</v>
+        <v>0.2921591089271867</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008812448547929633</v>
+        <v>0.01751395421913322</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05999390765718561</v>
+        <v>0.2905182433056537</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02536237135422385</v>
+        <v>0.03663020774645463</v>
       </c>
       <c r="K244" t="n">
-        <v>0.143109380330039</v>
+        <v>0.2928480104250645</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05482574981461785</v>
+        <v>0.08620704993536857</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1417254445265008</v>
+        <v>0.2926591820922238</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07771587503661553</v>
+        <v>0.1360352235424582</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1401891762712436</v>
+        <v>0.2938004522357664</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008557830910127767</v>
+        <v>0.01626157152880903</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05993309058409144</v>
+        <v>0.2921412502514953</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02524067402125191</v>
+        <v>0.03582689988024712</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1439088740748996</v>
+        <v>0.2944840328296738</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05409606640377668</v>
+        <v>0.08482489293122733</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1425172067864255</v>
+        <v>0.2942941495899458</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07731190803411014</v>
+        <v>0.1330672338460452</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1409723560269489</v>
+        <v>0.2954417955443461</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008307882040972873</v>
+        <v>0.01600816750699847</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05987227351099726</v>
+        <v>0.293764257197337</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02531994247318742</v>
+        <v>0.03562154213218292</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1447083678197602</v>
+        <v>0.2961200552342831</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05457171655500312</v>
+        <v>0.08303792370754204</v>
       </c>
       <c r="M246" t="n">
-        <v>0.14330896904635</v>
+        <v>0.2959291170876676</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07812153014637674</v>
+        <v>0.1308916163254619</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1417555357826542</v>
+        <v>0.2970831388529258</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008062946535346706</v>
+        <v>0.01775372745280326</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05981145643790309</v>
+        <v>0.2953872641431787</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02510019259465485</v>
+        <v>0.03491410469456849</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1455078615646207</v>
+        <v>0.2977560776388924</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05445284266543488</v>
+        <v>0.0826460723465553</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1441007313062746</v>
+        <v>0.2975640845853896</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07874564061479816</v>
+        <v>0.1301082596023493</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1425387155383594</v>
+        <v>0.2987244821615055</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.007823368988131039</v>
+        <v>0.01749823666532513</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05975063936480893</v>
+        <v>0.2970102710890203</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02498144027027861</v>
+        <v>0.03470455775971013</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1463073553094812</v>
+        <v>0.2993921000435017</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05453958713220985</v>
+        <v>0.0812492689305096</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1448924935661992</v>
+        <v>0.2991990520831115</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07848513868075752</v>
+        <v>0.1270170522983485</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1433218952940647</v>
+        <v>0.3003658254700852</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007589493994207511</v>
+        <v>0.01724168044366581</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05968982229171475</v>
+        <v>0.2986332780348619</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02536370138468319</v>
+        <v>0.03419287151991425</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1471068490543418</v>
+        <v>0.301028122448111</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05453209235246587</v>
+        <v>0.07934744354164752</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1456842558261238</v>
+        <v>0.3008340195808334</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07924092358563745</v>
+        <v>0.1255178830351004</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1441050750497699</v>
+        <v>0.3020071687786648</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007361666148457915</v>
+        <v>0.01598404408692702</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05962900521862058</v>
+        <v>0.3002562849807036</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02514699182249304</v>
+        <v>0.03327901616748723</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1479063427992024</v>
+        <v>0.3026641448527203</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05403050072334073</v>
+        <v>0.07804052626221175</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1464760180860484</v>
+        <v>0.3024689870785553</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07801389457082109</v>
+        <v>0.123110640434246</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1448882548054752</v>
+        <v>0.3036485120872446</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007140230045764043</v>
+        <v>0.0157253128942105</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05956818814552642</v>
+        <v>0.3018792919265452</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02503132746833261</v>
+        <v>0.03306296189473543</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1487058365440629</v>
+        <v>0.3043001672573296</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05373495464197242</v>
+        <v>0.07712844717444464</v>
       </c>
       <c r="M251" t="n">
-        <v>0.147267780345973</v>
+        <v>0.3041039545762773</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07860495087769132</v>
+        <v>0.1224952131174263</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1456714345611805</v>
+        <v>0.3052898553958243</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.006925530281007522</v>
+        <v>0.01546547216461797</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05950737107243224</v>
+        <v>0.3035022988723868</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02521672420682636</v>
+        <v>0.03234467889396521</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1495053302889235</v>
+        <v>0.3059361896619389</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05374559650549859</v>
+        <v>0.0757111363605889</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1480595426058976</v>
+        <v>0.3057389220739992</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07851499174763105</v>
+        <v>0.1196714897062824</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1464546143168858</v>
+        <v>0.3069311987044039</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006717911449070156</v>
+        <v>0.01520450719725115</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05944655399933807</v>
+        <v>0.3051253058182285</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02530319792259873</v>
+        <v>0.03212413735748298</v>
       </c>
       <c r="K253" t="n">
-        <v>0.150304824033784</v>
+        <v>0.3075722120665482</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05316256871105723</v>
+        <v>0.07478852390288704</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1488513048658221</v>
+        <v>0.3073738895717211</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07884491642202313</v>
+        <v>0.1184393588224551</v>
       </c>
       <c r="O253" t="n">
-        <v>0.147237794072591</v>
+        <v>0.3085725420129837</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006517718144833672</v>
+        <v>0.01394240329121179</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0593857369262439</v>
+        <v>0.3067483127640701</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02499076450027422</v>
+        <v>0.03120130747759511</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1511043177786446</v>
+        <v>0.3092082344711575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05408601365578619</v>
+        <v>0.07426053988358172</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1496430671257467</v>
+        <v>0.309008857069443</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07979562414225067</v>
+        <v>0.1167987090875857</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1480209738282963</v>
+        <v>0.3102138853215634</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006325294963179844</v>
+        <v>0.01367914574560158</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05932491985314974</v>
+        <v>0.3083713197099118</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02497943982447723</v>
+        <v>0.03087615944660797</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1519038115235051</v>
+        <v>0.3108442568757668</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05371607373682319</v>
+        <v>0.07202711438491535</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1504348293856713</v>
+        <v>0.3106438245671649</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07896801414969645</v>
+        <v>0.1139494291233149</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1488041535840016</v>
+        <v>0.311855228630143</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006140986498990343</v>
+        <v>0.01541471985952229</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05926410278005556</v>
+        <v>0.3099943266557534</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02506923977983222</v>
+        <v>0.03044866345682797</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1527033052683657</v>
+        <v>0.3124802792803761</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05355289135130617</v>
+        <v>0.07118817748913059</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1512265916455959</v>
+        <v>0.3122787920648868</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08026298568574336</v>
+        <v>0.1120914075512838</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1495873333397068</v>
+        <v>0.3134965719387228</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.005965137347146938</v>
+        <v>0.01514911093207563</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05920328570696139</v>
+        <v>0.311617333601595</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02496018025096371</v>
+        <v>0.0299187897005614</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1535027990132262</v>
+        <v>0.3141163016849854</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05329660889637297</v>
+        <v>0.07034365927847</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1520183539055205</v>
+        <v>0.3139137595626088</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0812814379917744</v>
+        <v>0.1104245329931335</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1503705130954121</v>
+        <v>0.3151379152473024</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005798092102531377</v>
+        <v>0.01388230426236332</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05914246863386721</v>
+        <v>0.3132403405474367</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02505227712249605</v>
+        <v>0.02928650837011472</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1543022927580868</v>
+        <v>0.3157523240895947</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05324736876916139</v>
+        <v>0.06829348983517608</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1528101161654451</v>
+        <v>0.3155487270603307</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08092427030917254</v>
+        <v>0.1077486940705048</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1511536928511174</v>
+        <v>0.3167792585558821</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005640195360025427</v>
+        <v>0.01361428514948709</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05908165156077305</v>
+        <v>0.3148633474932783</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02494554627905378</v>
+        <v>0.02875178965779425</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1551017865029473</v>
+        <v>0.317388346494204</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0533053133668093</v>
+        <v>0.06733759924149144</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1536018784253697</v>
+        <v>0.3171836945580526</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08159238187932061</v>
+        <v>0.1071637794050389</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1519368726068226</v>
+        <v>0.3184206018644619</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005491791714510759</v>
+        <v>0.01434503889254868</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05902083448767888</v>
+        <v>0.3164863544391199</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02494000360526133</v>
+        <v>0.02801460375590643</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1559012802478079</v>
+        <v>0.3190243688988133</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05377058508645455</v>
+        <v>0.06577591757965862</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1543936406852942</v>
+        <v>0.3188186620557745</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08068667194360157</v>
+        <v>0.1034696776183768</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1527200523625279</v>
+        <v>0.3200619451730415</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005353225760869135</v>
+        <v>0.01207455079064979</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0589600174145847</v>
+        <v>0.3181093613849616</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02483566498574315</v>
+        <v>0.02747492085675757</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1567007739926685</v>
+        <v>0.3206603913034226</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05324332632523499</v>
+        <v>0.06440837493192025</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1551854029452188</v>
+        <v>0.3204536295534964</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08280803974339834</v>
+        <v>0.1019662773321593</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1535032321182332</v>
+        <v>0.3217032884816213</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005224842093982308</v>
+        <v>0.01380280614289218</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05889920034149053</v>
+        <v>0.3197323683308033</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02483254630512369</v>
+        <v>0.02703271115265408</v>
       </c>
       <c r="K262" t="n">
-        <v>0.157500267737529</v>
+        <v>0.3222964137080319</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05302367948028841</v>
+        <v>0.06393490138051874</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1559771652051434</v>
+        <v>0.3220885970512183</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08195738452009382</v>
+        <v>0.1002534671680275</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1542864118739385</v>
+        <v>0.323344631790201</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005106985308732027</v>
+        <v>0.01152979024837757</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05883838326839637</v>
+        <v>0.3213553752766449</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02483066344802741</v>
+        <v>0.02678794483590233</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1582997614823896</v>
+        <v>0.3239324361126412</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05261178694875276</v>
+        <v>0.06205542700769681</v>
       </c>
       <c r="M263" t="n">
-        <v>0.156768927465068</v>
+        <v>0.3237235645489403</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08363560551507099</v>
+        <v>0.09873113574762254</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1550695916296437</v>
+        <v>0.3249859750987807</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01325548840620767</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05877756619530219</v>
+        <v>0.3229783822224865</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02483003229907876</v>
+        <v>0.02624059209880868</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1590992552272501</v>
+        <v>0.3255684585172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05300779112776577</v>
+        <v>0.06106988189569695</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1575606897249926</v>
+        <v>0.3253585320466622</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08424360196971276</v>
+        <v>0.09629917169258523</v>
       </c>
       <c r="O264" t="n">
-        <v>0.155852771385349</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05876440830056535</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005557765725632872</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05876467682902936</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006112204734095641</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05876494535749338</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006663275082568768</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0587652138859574</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007210934828160868</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05876548241442142</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.007755142028052553</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05876575094288543</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.0082958547394004</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05876601947134945</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.00883303101938427</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05876628799981348</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009366628925113987</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05876655652827749</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.00989660651376955</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0587668250567415</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01042292184250755</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05876709358520552</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01094553296850721</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05876736211366954</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01146439794887961</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05876763064213356</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01197947484080414</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05876789917059757</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01249072170143737</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05876816769906159</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01299809658795786</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05876843622752561</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01350155755747802</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05876870475598963</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01400106266717658</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05876897328445364</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01449656997421011</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05876924181291766</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01498803753575648</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05876951034138168</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01547542340892947</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.0587697788698457</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01595868565090713</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05877004739830971</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01643778231884604</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05877031592677372</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01691267146992333</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05877058445523775</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01738331116125424</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05877085298370176</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01784983071662675</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05877112151216578</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01831321579286153</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05877139004062979</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01877359571374582</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05877165856909382</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.01923092853639613</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05877192709755783</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.0196851723179891</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05877219562602185</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02013628511568132</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05877246415448587</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02058422498664875</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05877273268294989</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02102894998800902</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05877300121141391</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02147041817693822</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05877326973987792</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02190858761059293</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05877353826834193</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02234341634614857</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05877380679680596</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02277486244072386</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05877407532526997</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02320288395149436</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05877434385373399</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02362743893561664</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.058774612382198</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02404848545026551</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05877488091066203</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.0244659815525609</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05877514943912604</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02487988529967777</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05877541796759006</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02529015474877271</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05877568649605407</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02569674795701986</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.0587759550245181</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02609962298154042</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05877622355298211</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02649873787950872</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05877649208144613</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02689405070808136</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05877676060991014</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02728551952443185</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05877702913837417</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02767310238568266</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05877729766683818</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.02805675734900746</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05877756619530219</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.02805675734900748</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05876440830056535</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.02846084827038245</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05882576243058755</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.02886096180602186</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05888711656060976</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.02925697425494188</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05894847069063197</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.02964876191615835</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05900982482065417</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03003620108868739</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05907117895067637</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03041916807154503</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05913253308069857</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03079753916374738</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05919388721072079</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.0311711906643103</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05925524134074299</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03153999887224995</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.0593165954707652</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03190384008658231</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.0593779496007874</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03226259060632344</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0594393037308096</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03261612673048944</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05950065786083181</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03296432475809621</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05956201199085401</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03330706098815982</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05962336612087622</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03364421171969634</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05968472025089842</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03397565325172185</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05974607438092063</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03430126188325225</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05980742851094284</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03462091391330364</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05986878264096504</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03493448564089208</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05993013677098724</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03524185336503353</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05999149090100944</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03554289338474419</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06005284503103166</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03583748199903987</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06011419916105386</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03612549550693674</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06017555329107607</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03640681020745076</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06023690742109827</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03668180751194929</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06029826155112048</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.03695339439355541</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06035961568114268</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.03722195226363641</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06042096981116488</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.03748735742120833</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06048232394118708</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.03774948616528725</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.0605436780712093</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.03800821479488911</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0606050322012315</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.03826341960902997</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06066638633125371</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0385149769067259</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06072774046127591</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.03876276298699292</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06078909459129811</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.03900665414884706</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06085044872132032</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.03924652669130435</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06091180285134253</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.03948225691338079</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06097315698136473</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.03971372111409245</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06103451111138693</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.03994079559245541</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06109586524140914</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04016335664748558</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06115721937143135</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04038128057819906</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06121857350145355</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0405944436836119</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06127992763147575</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04080272226274011</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06134128176149795</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04100599261459978</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06140263589152017</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04120413103820685</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06146399002154237</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04139701383257736</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06152534415156458</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04158451729672742</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06158669828158678</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04176651772967305</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06164805241160899</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04194289143043019</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06170940654163119</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04211351469801496</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06177076067165339</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03474234313200998</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06177076067165339</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04222315219703686</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06347116388802317</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04232446814547471</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06517156710439294</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04241779097673937</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06687197032076271</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04250344912424177</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06857237353713248</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04258177102139282</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07027277675350226</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04265308510160339</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07197317996987203</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04271771979828444</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.0736735831862418</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04277600354484684</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07537398640261157</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04282826477470152</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07707438961898135</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04287483192125936</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0787747928353511</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04291603341793129</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08047519605172089</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04295219769812822</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08217559926809065</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04298365319526107</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08387600248446044</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04301072834274071</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08557640570083019</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04303375157397807</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08727680891719998</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04305305132238404</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08897721213356974</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04306895602136955</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09067761534993951</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04308179410434548</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09237801856630928</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.0430918940047228</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09407842178267907</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04309958415591232</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09577882499904883</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04310519299132505</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0974792282154186</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04310904894437181</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09917963143178837</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04311148044846357</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1008800346481581</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04311281593701119</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1025804378645279</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04311338384342561</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1042808410808977</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04311351260111773</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1059812442972675</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04309895777517642</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1076816475136372</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04302399888176128</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.109382050730007</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04288931530866699</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1110824539463768</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04269943449543968</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1127828571627466</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04245888388162555</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1144832603791163</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04217219090677075</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1161836635954861</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04184388301042145</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1178840668118558</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04147848763212381</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1195844700282256</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04108053221142399</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1212848732445954</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04065454418786818</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1229852764609652</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04020505100100251</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.124685679677335</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.03973658009037317</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1263860828937047</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.03925365889552632</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1280864861100745</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.03876081485600812</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1297868893264443</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.03826257541136474</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.131487292542814</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.03776346800114233</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1331876957591838</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.03726802006488708</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1348880989755536</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.03678075904214513</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1365885021919234</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.03630621237246268</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1382889054082931</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03584890749538587</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1399893086246629</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03541337185046085</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1416897118410327</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03500413287723385</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1433901150574024</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03462571801525094</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1450905182737722</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03428265470405835</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.146790921490142</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.0339611907862772</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1484913247065117</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.0336390052901813</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03331649922412977</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1518921311392513</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03299419175518456</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1535925343556211</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03267260205040752</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1552929375719908</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03235224927686059</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1569933407883606</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03203365260160569</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1586937440047304</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03171733119170472</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1603941472211002</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03140380421421959</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1620945504374699</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03109359083621223</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1637949536538397</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03078721022474455</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1654953568702095</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03048518154687842</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1671957600865792</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03018802396967581</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.168896163302949</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.02989625666019861</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1705965665193188</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.0296103987855087</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1722969697356886</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.02933096951266803</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1739973729520583</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.02905848800873852</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1756977761684281</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.02879347344078205</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1773981793847979</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.02853644497586053</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1790985826011676</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.0282879217810359</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1807989858175374</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.02804842302337006</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1824993890339072</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.02781846786992492</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.184199792250277</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.0275985754877624</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1859001954666467</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02738926504394439</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1876005986830165</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02719105570553282</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1893010018993863</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02700427940071566</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1910014051157561</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.0268228350067132</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1927018083321258</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02664374966000266</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1944022115484956</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02646726948052866</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1961026147648654</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02629364058823588</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1978030179812351</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02612310910306896</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1995034211976049</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02595592114497257</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2012038244139747</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02579232283389131</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2029042276303445</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02563256028976989</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2046046308467142</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02547687963255295</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.206305034063084</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02532552698218513</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2080054372794538</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02517874845861109</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2097058404958236</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02503679018177547</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2114062437121933</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02489989827162294</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2131066469285631</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02476831884809814</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2148070501449328</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02464229803114573</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2165074533613026</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02452208194071036</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2182078565776724</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02440791669673668</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2199082597940422</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02430004841916934</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2216086630104119</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02419872322795301</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2233090662267817</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02410418724303231</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2250094694431515</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02401668658435192</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2267098726595212</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02393646737185649</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.228410275875891</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02386377572549065</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2301106790922608</v>
-      </c>
-    </row>
+        <v>0.3266273184073604</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1150.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00271107932002107</v>
+        <v>0.001163943990283391</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001623006945841641</v>
+        <v>0.0004857189263155156</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003085200532838908</v>
+        <v>0.001881893733809654</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001636022404609299</v>
+        <v>0.0008679341697194799</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01114074999544032</v>
+        <v>0.005242334513229058</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001634967497721921</v>
+        <v>0.0008530809950886783</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01548113502014975</v>
+        <v>0.009129708398148639</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0016413433085797</v>
+        <v>0.0008521436783227731</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.002292637814964263</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002705391235078684</v>
+        <v>0.0009714378526310312</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.003516090548484528</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003568749999999996</v>
+        <v>0.00173586833943896</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01048960921896888</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003498774509803921</v>
+        <v>0.001706161990177357</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.01703780632683738</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003921703296703294</v>
+        <v>0.001704287356645546</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008720987411704295</v>
+        <v>0.003363049132102516</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004869020837524923</v>
+        <v>0.001457156778946547</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01032954827003544</v>
+        <v>0.005726210997309904</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004908067213827897</v>
+        <v>0.00260380250915844</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03014551706547619</v>
+        <v>0.01545116319439999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004904902493165762</v>
+        <v>0.002559242985266035</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04379526343408541</v>
+        <v>0.02494590829987037</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004924029925739101</v>
+        <v>0.002556431034968319</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009552843260114526</v>
+        <v>0.004352145599758106</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006492027783366563</v>
+        <v>0.001942875705262062</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01458023122446278</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006544089618437196</v>
+        <v>0.003568749999999996</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03848414727147517</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006539869990887683</v>
+        <v>0.003717447916666664</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05580695894114529</v>
+        <v>0.03237562883105188</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006565373234318802</v>
+        <v>0.003408574713291093</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01193973014430523</v>
+        <v>0.005236894875990931</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008116173705236053</v>
+        <v>0.002428594631577578</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01861431564959334</v>
+        <v>0.008558627253181308</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008180112023046493</v>
+        <v>0.004339670848597399</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04620692829009565</v>
+        <v>0.02447981959179343</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008174837488609603</v>
+        <v>0.004265404975443391</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0663193396920429</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008206716542898502</v>
+        <v>0.00387907608695652</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01305123773245315</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009738041675049845</v>
+        <v>0.002705391235078684</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02182398089682762</v>
+        <v>0.009704558754735172</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009816134427655793</v>
+        <v>0.00520760501831688</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05554844342973966</v>
+        <v>0.02863266760991759</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01049632352941176</v>
+        <v>0.00511848597053207</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07606798473888499</v>
+        <v>0.04524525559135301</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009848059851478201</v>
+        <v>0.005112862069936638</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01310054218777144</v>
+        <v>0.006756106573347763</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01136104862089149</v>
+        <v>0.003400032484208609</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02363591433868553</v>
+        <v>0.01138245082677802</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01070624999999999</v>
+        <v>0.00607553918803636</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05803760478805256</v>
+        <v>0.03175705249789532</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01144477248405344</v>
+        <v>0.005971566965620748</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08746097252079377</v>
+        <v>0.05076437851975751</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01176510989010988</v>
+        <v>0.005965005748259412</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01308626334536703</v>
+        <v>0.00749441029220807</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01298405556673313</v>
+        <v>0.003885751410524125</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02647312369716492</v>
+        <v>0.01249983488228032</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01308817923687439</v>
+        <v>0.006943473357755839</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.06235605408247821</v>
+        <v>0.03478094007005586</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01307973998177537</v>
+        <v>0.006824647960709427</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09240300192720197</v>
+        <v>0.05584544335768044</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0131307464686376</v>
+        <v>0.006817149426582185</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01600782358238458</v>
+        <v>0.008212423745317034</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01460706251257477</v>
+        <v>0.004371470336839641</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02858640533047958</v>
+        <v>0.01336424233421249</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01472420164148369</v>
+        <v>0.007811407527475319</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06785707519014192</v>
+        <v>0.0375322961407287</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01471470747949729</v>
+        <v>0.007677728955798105</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.099915187398748</v>
+        <v>0.06113757520218027</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.0147720897772173</v>
+        <v>0.007669293104904959</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0158646452759687</v>
+        <v>0.008899774726368923</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01623006945841641</v>
+        <v>0.004857189263155156</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03058122245047111</v>
+        <v>0.01488320459554496</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01636022404609299</v>
+        <v>0.008679341697194799</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.07222624901422073</v>
+        <v>0.04113908652424306</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01634967497721921</v>
+        <v>0.008530809950886783</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.1067025259569357</v>
+        <v>0.06578989915031508</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.016413433085797</v>
+        <v>0.008521436783227731</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01565615080326405</v>
+        <v>0.009546091029058013</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01785307640425805</v>
+        <v>0.005342908189470671</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03235477071202283</v>
+        <v>0.01566425307924819</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01799624645070229</v>
+        <v>0.009547275866914279</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07584915645789156</v>
+        <v>0.04392927703492833</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01798464247494113</v>
+        <v>0.009383890945975462</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1141232567347263</v>
+        <v>0.06975154029914299</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0180547763943767</v>
+        <v>0.009373580461550506</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01638176254141529</v>
+        <v>0.01014100044707859</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947608335009969</v>
+        <v>0.005828627115786187</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03390424577001808</v>
+        <v>0.01691491919829261</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01963226885531159</v>
+        <v>0.01041521003663376</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07961137842433133</v>
+        <v>0.04603083348711376</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01961960997266305</v>
+        <v>0.01023697194106414</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1195356188650809</v>
+        <v>0.07287162374572231</v>
       </c>
       <c r="O77" t="n">
-        <v>0.0196961197029564</v>
+        <v>0.01022572413987328</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01704090286756707</v>
+        <v>0.0106741307741249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02109909029594133</v>
+        <v>0.006314346042101703</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03562684327934013</v>
+        <v>0.01764273436564867</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02126829125992089</v>
+        <v>0.01128314420635324</v>
       </c>
       <c r="L78" t="n">
-        <v>0.08299849581671709</v>
+        <v>0.04917172169512873</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02125457747038497</v>
+        <v>0.01109005293615282</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1267978514809604</v>
+        <v>0.07719927458711112</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0213374630115361</v>
+        <v>0.01107786781819605</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01863299415886402</v>
+        <v>0.01113510980389124</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02272209724178297</v>
+        <v>0.006800064968417219</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03661975889487228</v>
+        <v>0.01875522999428678</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02290431366453018</v>
+        <v>0.01215107837607272</v>
       </c>
       <c r="L79" t="n">
-        <v>0.08679608953822571</v>
+        <v>0.05147990747330264</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02288954496810689</v>
+        <v>0.0119431339312415</v>
       </c>
       <c r="N79" t="n">
-        <v>0.132068193715326</v>
+        <v>0.08188361792036758</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02297880632011581</v>
+        <v>0.01193001149651882</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01815745879245079</v>
+        <v>0.01151356533007187</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02434510418762461</v>
+        <v>0.007285783894732734</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03828018827149787</v>
+        <v>0.01965993749717743</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02454033606913948</v>
+        <v>0.0130190125457922</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0892897404920342</v>
+        <v>0.05554844342973966</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02452451246582881</v>
+        <v>0.01311101240012456</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1372048847011387</v>
+        <v>0.08746097252079377</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02462014962869551</v>
+        <v>0.01292448636370943</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01861371914547203</v>
+        <v>0.01179912514636106</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02596811113346625</v>
+        <v>0.00777150282104825</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03930532706410016</v>
+        <v>0.02106438828729101</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02617635847374878</v>
+        <v>0.01388694671551168</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09206502958131951</v>
+        <v>0.05712584658816813</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02615947996355073</v>
+        <v>0.01364929592141885</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1417661635713595</v>
+        <v>0.08975649613740955</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02626149293727521</v>
+        <v>0.01363429885316437</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0190011975950724</v>
+        <v>0.01193973014430523</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02759111807930789</v>
+        <v>0.008116173705236053</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04029237092756249</v>
+        <v>0.02197611377759799</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02781238087835808</v>
+        <v>0.01475488088523116</v>
       </c>
       <c r="L82" t="n">
-        <v>0.09480753770925862</v>
+        <v>0.05997291887087849</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02779444746127265</v>
+        <v>0.01450237691650753</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1468102694589497</v>
+        <v>0.09520634937255779</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02790283624585491</v>
+        <v>0.01448644253148714</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02031937007189614</v>
+        <v>0.01214383002884743</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02921412502514954</v>
+        <v>0.008742940673679282</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04093851551676815</v>
+        <v>0.02280264538106881</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02944840328296738</v>
+        <v>0.01562281505495064</v>
       </c>
       <c r="L83" t="n">
-        <v>0.09660284577902842</v>
+        <v>0.06241246877875023</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02942941495899457</v>
+        <v>0.01535545791159621</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1490954414968702</v>
+        <v>0.09879604819672927</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0295441795544346</v>
+        <v>0.01533858620980992</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01960178533785866</v>
+        <v>0.01229918107666738</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03083713197099118</v>
+        <v>0.009228659599994797</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04154095648660043</v>
+        <v>0.02363591433868553</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03108442568757668</v>
+        <v>0.01606679415165409</v>
       </c>
       <c r="L84" t="n">
-        <v>0.098736534693806</v>
+        <v>0.06572592776707062</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03106438245671649</v>
+        <v>0.01620853890668489</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1532799188180822</v>
+        <v>0.1026964258538992</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03118552286301431</v>
+        <v>0.01619072988813269</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02087610124070101</v>
+        <v>0.01245208560662145</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03246013891683282</v>
+        <v>0.009714378526310312</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04212124304171008</v>
+        <v>0.02506761485729928</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03272044809218597</v>
+        <v>0.0173586833943896</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1000846197442837</v>
+        <v>0.06769472729112691</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03269934995443841</v>
+        <v>0.01706161990177357</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1554220495564625</v>
+        <v>0.1083783155880431</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03282686617159401</v>
+        <v>0.01704287356645546</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02214049736794246</v>
+        <v>0.01260255661739926</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03408314586267445</v>
+        <v>0.01020009745262583</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04297605046346971</v>
+        <v>0.0263335554881505</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03435647049679528</v>
+        <v>0.01822661756410908</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1005831425559197</v>
+        <v>0.07090029880620638</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03433431745216033</v>
+        <v>0.01791470089686225</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1567150437911272</v>
+        <v>0.1137125506431363</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03446820948017371</v>
+        <v>0.01789501724477824</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02039315330710226</v>
+        <v>0.01275060710769046</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0357061528085161</v>
+        <v>0.01068581637894134</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04361246964059209</v>
+        <v>0.02734482916156103</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03599249290140458</v>
+        <v>0.01909455173382856</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1016375112106351</v>
+        <v>0.0743240737675962</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03596928494988225</v>
+        <v>0.01876778189195092</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1602475104384571</v>
+        <v>0.1171699642631541</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03610955278875341</v>
+        <v>0.01874716092310101</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02063224864569969</v>
+        <v>0.01289625007618469</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03732915975435774</v>
+        <v>0.01117153530525686</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04372680948587367</v>
+        <v>0.02889223977400859</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03762851530601388</v>
+        <v>0.01996248590354804</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1032390677913485</v>
+        <v>0.07754748363058372</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03760425244760418</v>
+        <v>0.0196208628870396</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1620056575143808</v>
+        <v>0.122221389692072</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03775089609733311</v>
+        <v>0.01959930460142378</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02285596297125404</v>
+        <v>0.01303949852157157</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03895216670019938</v>
+        <v>0.01165725423157237</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04431537891211083</v>
+        <v>0.02996659122197094</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03926453771062317</v>
+        <v>0.02083042007326752</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1049791543809787</v>
+        <v>0.08055195985045621</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03923921994532609</v>
+        <v>0.02047394388212828</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1629756930348271</v>
+        <v>0.1267376601738651</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03939223940591281</v>
+        <v>0.02045144827974655</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02106247587128453</v>
+        <v>0.01318036544254074</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04057517364604103</v>
+        <v>0.01214297315788789</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04497448683209998</v>
+        <v>0.03125868740192582</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04090056011523247</v>
+        <v>0.021698354242987</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1056491130624442</v>
+        <v>0.08311893388250083</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04087418744304801</v>
+        <v>0.02132702487721696</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1658438250157248</v>
+        <v>0.1323896089525091</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04103358271449251</v>
+        <v>0.02130359195806933</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02124996693331048</v>
+        <v>0.01331886383778184</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04219818059188266</v>
+        <v>0.01262869208420341</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04530044215863753</v>
+        <v>0.03275933221035097</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04253658251984177</v>
+        <v>0.02256628841270648</v>
       </c>
       <c r="L91" t="n">
-        <v>0.106040285918664</v>
+        <v>0.08622983718200486</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04250915494076993</v>
+        <v>0.02218010587230564</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1664962614730023</v>
+        <v>0.1361480692719794</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04267492602307221</v>
+        <v>0.0221557356363921</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02241661574485114</v>
+        <v>0.01345500670598451</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0438211875377243</v>
+        <v>0.01311441101051892</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04548955380451987</v>
+        <v>0.03405932954372416</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04417260492445107</v>
+        <v>0.02343422258242596</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1070440150325566</v>
+        <v>0.08866610120425561</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04414412243849185</v>
+        <v>0.02303318686739432</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1686192104225887</v>
+        <v>0.140783874376251</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04431626933165191</v>
+        <v>0.02300787931471487</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02356060189342577</v>
+        <v>0.01358880704583836</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04544419448356594</v>
+        <v>0.01360012993683444</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04603813068254342</v>
+        <v>0.03534948329852308</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04580862732906037</v>
+        <v>0.02430215675214544</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1080516424870408</v>
+        <v>0.09130915740454026</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04577908993621378</v>
+        <v>0.02388626786248299</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1691988798804125</v>
+        <v>0.1454678575092996</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04595761264023161</v>
+        <v>0.02386002299303765</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02268010496655365</v>
+        <v>0.01372027785603305</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04706720142940759</v>
+        <v>0.01408584886314995</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0461424817055046</v>
+        <v>0.03662059737122551</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04744464973366967</v>
+        <v>0.02517009092186492</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1087545103650352</v>
+        <v>0.09454043723814612</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0474140574339357</v>
+        <v>0.02473934885757167</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1700214778624024</v>
+        <v>0.1486708519151003</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04759895594881131</v>
+        <v>0.02471216667136042</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02177330455175405</v>
+        <v>0.01384943213525821</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04869020837524923</v>
+        <v>0.01457156778946547</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04679891578619977</v>
+        <v>0.0375634756583092</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04908067213827896</v>
+        <v>0.0260380250915844</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1095439607494585</v>
+        <v>0.09704137216036043</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04904902493165762</v>
+        <v>0.02559242985266035</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1720732123844874</v>
+        <v>0.1523636908376288</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04924029925739101</v>
+        <v>0.0255643103496832</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02283838023654622</v>
+        <v>0.01397628288220347</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05031321532109087</v>
+        <v>0.01505728671578098</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04670374183742539</v>
+        <v>0.03876892205625185</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05071669454288827</v>
+        <v>0.02690595926130388</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1103113357232295</v>
+        <v>0.09929339362647044</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05068399242937954</v>
+        <v>0.02644551084774903</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1723402914625958</v>
+        <v>0.1565172075208603</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05088164256597071</v>
+        <v>0.02641645402800597</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02387946028861046</v>
+        <v>0.01410084309555847</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05193622226693251</v>
+        <v>0.0155430056420965</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0468532687719778</v>
+        <v>0.04012774046153121</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05235271694749757</v>
+        <v>0.02777389343102336</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1097479773692669</v>
+        <v>0.1007779330917634</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05231895992710146</v>
+        <v>0.02729859184283771</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1734089231126567</v>
+        <v>0.1606022352087701</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05252298587455041</v>
+        <v>0.02726859770632874</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02187821376304718</v>
+        <v>0.01422312577401283</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05355922921277415</v>
+        <v>0.01602872456841202</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04727182867737106</v>
+        <v>0.04093073477062507</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05398873935210687</v>
+        <v>0.02864182760074284</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1110968868594793</v>
+        <v>0.1037764220115266</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05395392742482338</v>
+        <v>0.02815167283792638</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1742653153505985</v>
+        <v>0.1634896071453336</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05416432918313011</v>
+        <v>0.02812074138465151</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0228642213863302</v>
+        <v>0.01434314391625621</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05518223615861579</v>
+        <v>0.01651444349472753</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04727174669071288</v>
+        <v>0.04236870888001115</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05562476175671616</v>
+        <v>0.02950976177046232</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1109956904231812</v>
+        <v>0.1054702918410472</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0555888949225453</v>
+        <v>0.02900475383301506</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1749219450415875</v>
+        <v>0.1658501565745264</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05580567249170981</v>
+        <v>0.02897288506297429</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02183545857169358</v>
+        <v>0.01446091052097822</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05680524310445743</v>
+        <v>0.01700016242104305</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04685363718194739</v>
+        <v>0.04293246668616717</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05726078416132546</v>
+        <v>0.0303776959401818</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1110453875559321</v>
+        <v>0.1067409740356126</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05722386242026722</v>
+        <v>0.02985783482810375</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1733047921037614</v>
+        <v>0.1688547167403235</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05744701580028951</v>
+        <v>0.02982502874129706</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02379288472901247</v>
+        <v>0.01457643858686851</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05842825005029907</v>
+        <v>0.01748588134735856</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04690520900682085</v>
+        <v>0.04381281208557088</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05889680656593475</v>
+        <v>0.03124563010990128</v>
       </c>
       <c r="L101" t="n">
-        <v>0.110424405326653</v>
+        <v>0.1079699000505098</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05885882991798914</v>
+        <v>0.03071091582319242</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1744839629922623</v>
+        <v>0.1698741208867006</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05908835910886921</v>
+        <v>0.03067717241961983</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02373745926816198</v>
+        <v>0.01468974111261671</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06005125699614072</v>
+        <v>0.01797160027367408</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04682840747473457</v>
+        <v>0.04460054897470005</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06053282897054407</v>
+        <v>0.03211356427962075</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1107373067073262</v>
+        <v>0.1092385013410264</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06049379741571106</v>
+        <v>0.03156399681828109</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1739536177892515</v>
+        <v>0.1713792022576329</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06072970241744892</v>
+        <v>0.03152931609794261</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02367014159901725</v>
+        <v>0.01480083109691246</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06167426394198236</v>
+        <v>0.01845731919998959</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04672517789508993</v>
+        <v>0.04558648125003238</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06216885137515336</v>
+        <v>0.03298149844934024</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1102886546699341</v>
+        <v>0.1094282093624494</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06212876491343299</v>
+        <v>0.03241707781336978</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1740210252680732</v>
+        <v>0.1724407940970958</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06237104572602861</v>
+        <v>0.03238145977626538</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02359189113145341</v>
+        <v>0.01490972153844539</v>
       </c>
       <c r="G104" t="n">
-        <v>0.063297270887824</v>
+        <v>0.01894303812630511</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04659746557728825</v>
+        <v>0.04596141280804567</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06380487377976266</v>
+        <v>0.03384943261905972</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1092830121864589</v>
+        <v>0.1098204555700662</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06376373241115491</v>
+        <v>0.03327015880845846</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1723934542020719</v>
+        <v>0.1749219450415875</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06401238903460831</v>
+        <v>0.03323360345458815</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02350366727534559</v>
+        <v>0.01501642543590514</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06492027783366563</v>
+        <v>0.01942875705262062</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04674721583073088</v>
+        <v>0.04661614754521759</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06544089618437195</v>
+        <v>0.03471736678877919</v>
       </c>
       <c r="L105" t="n">
-        <v>0.109424942228883</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06539869990887683</v>
+        <v>0.03412323980354713</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1724781733645919</v>
+        <v>0.1744219450415875</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06565373234318801</v>
+        <v>0.03408574713291092</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02240642944056892</v>
+        <v>0.01512095578798133</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06654328477950729</v>
+        <v>0.01991447597893614</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04627637396481919</v>
+        <v>0.04694148935802593</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06707691858898125</v>
+        <v>0.03558530095849868</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1094190077691888</v>
+        <v>0.1108968868594793</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06703366740659875</v>
+        <v>0.03497632079863581</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1710824515289776</v>
+        <v>0.1749219450415875</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06729507565176772</v>
+        <v>0.0349378908112337</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02330113703699854</v>
+        <v>0.01522332559336362</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06816629172534891</v>
+        <v>0.02040019490525166</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04618688528895451</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06871294099359056</v>
+        <v>0.03645323512821816</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1079697717793585</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06866863490432067</v>
+        <v>0.03582940179372449</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1704135574685731</v>
+        <v>0.1733219450415875</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06893641896034741</v>
+        <v>0.03579003448955648</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02318874947450955</v>
+        <v>0.01532354785074162</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06978929867119056</v>
+        <v>0.02088591383156717</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04598069511253819</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07034896339819985</v>
+        <v>0.03732116929793763</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1075817972313745</v>
+        <v>0.1109968868594793</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07030360240204259</v>
+        <v>0.03668248278881317</v>
       </c>
       <c r="N108" t="n">
-        <v>0.169678759956723</v>
+        <v>0.1746219450415875</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07057776226892711</v>
+        <v>0.03664217816787924</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02107022616297712</v>
+        <v>0.01542163555880499</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0714123056170322</v>
+        <v>0.02137163275788269</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04565974874497158</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07198498580280915</v>
+        <v>0.03818910346765712</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1077596470972191</v>
+        <v>0.1104968868594793</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07193856989976451</v>
+        <v>0.03753556378390185</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1696853277667714</v>
+        <v>0.1735219450415875</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07221910557750681</v>
+        <v>0.03749432184620202</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02194652651227635</v>
+        <v>0.01551760171624334</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07303531256287384</v>
+        <v>0.0218573516841982</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04532599149565604</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07362100820741845</v>
+        <v>0.0390570376373766</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1067078843488746</v>
+        <v>0.1109968868594793</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07357353739748644</v>
+        <v>0.03838864477899052</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1694405296720629</v>
+        <v>0.1742219450415876</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07386044888608652</v>
+        <v>0.03834646552452479</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02281860993228239</v>
+        <v>0.01561145932174633</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07465831950871549</v>
+        <v>0.02234307061051372</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0450813686739929</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07525703061202775</v>
+        <v>0.03992497180709607</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1062310719583234</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07520850489520836</v>
+        <v>0.0392417257740792</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1684516344459415</v>
+        <v>0.1738219450415875</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07550179219466621</v>
+        <v>0.03919860920284757</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02068743583287036</v>
+        <v>0.01570322137400356</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07628132645455712</v>
+        <v>0.02282878953682924</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04512782558938351</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07689305301663706</v>
+        <v>0.04079290597681556</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1055337728975479</v>
+        <v>0.1108968868594793</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07684347239293028</v>
+        <v>0.04009480676916789</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1671259108617519</v>
+        <v>0.1738219450415875</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07714313550324592</v>
+        <v>0.04005075288117034</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02055396362391539</v>
+        <v>0.0157929008717047</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07790433340039876</v>
+        <v>0.02331450846314475</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04496730755122923</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07852907542124635</v>
+        <v>0.04166084014653504</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1047205501385303</v>
+        <v>0.1109968868594793</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07847843989065219</v>
+        <v>0.04094788776425656</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1663706276928381</v>
+        <v>0.1744219450415875</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07878447881182561</v>
+        <v>0.04090289655949311</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02041915271529262</v>
+        <v>0.01588051081353936</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0795273403462404</v>
+        <v>0.02380022738946027</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04470175986893139</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08016509782585564</v>
+        <v>0.04252877431625451</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1040959666532529</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08011340738837411</v>
+        <v>0.04180096875934523</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1641930537125447</v>
+        <v>0.1745219450415875</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08042582212040532</v>
+        <v>0.04175504023781589</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02128396251687716</v>
+        <v>0.0159660641981972</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08115034729208205</v>
+        <v>0.02428594631577578</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04443312785189135</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08180112023046494</v>
+        <v>0.043396708485974</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1034645854136981</v>
+        <v>0.1107968868594793</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08174837488609603</v>
+        <v>0.04265404975443392</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1641004576942157</v>
+        <v>0.1748219450415875</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08206716542898503</v>
+        <v>0.04260718391613866</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02014935243854417</v>
+        <v>0.01604957402436783</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08277335423792369</v>
+        <v>0.0247716652420913</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04406335680951046</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08343714263507424</v>
+        <v>0.04426464265569347</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1034309693918484</v>
+        <v>0.1104968868594793</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08338334238381795</v>
+        <v>0.04350713074952259</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1627001084111958</v>
+        <v>0.1745219450415875</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08370850873756472</v>
+        <v>0.04345932759446143</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02101628164964783</v>
+        <v>0.0161310532907409</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08439636118376533</v>
+        <v>0.02525738416840681</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04379439205119005</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08507316503968354</v>
+        <v>0.04513257682541296</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1029996815596859</v>
+        <v>0.1108968868594793</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08501830988153987</v>
+        <v>0.04436021174461127</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1628992746368291</v>
+        <v>0.1737219450415876</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08534985204614441</v>
+        <v>0.0443114712727842</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02087353085621686</v>
+        <v>0.01621051499600604</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08601936812960698</v>
+        <v>0.02574310309472233</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0436281788863315</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08670918744429285</v>
+        <v>0.04600051099513244</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1023752848891929</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08665327737926179</v>
+        <v>0.04521329273969995</v>
       </c>
       <c r="N118" t="n">
-        <v>0.16150522514446</v>
+        <v>0.1742219450415876</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08699119535472412</v>
+        <v>0.04516361495110698</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01971154308437088</v>
+        <v>0.01628797213885289</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0876423750754486</v>
+        <v>0.02622882202103784</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04294965255051852</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08834520984890214</v>
+        <v>0.04686844516485191</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1016130495370235</v>
+        <v>0.1107968868594793</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08828824487698371</v>
+        <v>0.04606637373478863</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1608131413116651</v>
+        <v>0.1737219450415876</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08863253866330383</v>
+        <v>0.04601575862942975</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01953344420616635</v>
+        <v>0.01636343771797109</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08926538202129025</v>
+        <v>0.02671454094735336</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04293209291577894</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08998123225351144</v>
+        <v>0.04773637933457139</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09995927688702683</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08992321237470563</v>
+        <v>0.04691945472987731</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1592006121017311</v>
+        <v>0.1736219450415875</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09027388197188352</v>
+        <v>0.04686790230775253</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01934236009365971</v>
+        <v>0.01643692473205025</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09088838896713189</v>
+        <v>0.02720025987366887</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04248115288104735</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09161725465812073</v>
+        <v>0.04860431350429088</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09952853700266709</v>
+        <v>0.1099968868594793</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09155817987242755</v>
+        <v>0.04777253572496599</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1572527037742549</v>
+        <v>0.1745219450415875</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09191522528046323</v>
+        <v>0.04772004598607529</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0201414166189074</v>
+        <v>0.01650844617978002</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09251139591297353</v>
+        <v>0.02768597879998439</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04210317049688632</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09325327706273004</v>
+        <v>0.04947224767401035</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09893569659209869</v>
+        <v>0.1100968868594793</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09319314737014947</v>
+        <v>0.04862561672005467</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1563930988616666</v>
+        <v>0.1736219450415875</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09355656858904292</v>
+        <v>0.04857218966439807</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02093373965396587</v>
+        <v>0.01657801505985005</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09413440285881518</v>
+        <v>0.0281716977262999</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04150448381385846</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09488929946733933</v>
+        <v>0.05034018184372983</v>
       </c>
       <c r="L123" t="n">
-        <v>0.097295622363476</v>
+        <v>0.1103968868594793</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09482811486787139</v>
+        <v>0.04947869771514334</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1549454798963966</v>
+        <v>0.1743219450415875</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09519791189762261</v>
+        <v>0.04942433334272084</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01872245507089158</v>
+        <v>0.01664564437094995</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09575740980465682</v>
+        <v>0.02865741665261543</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04129143088252633</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09652532187194864</v>
+        <v>0.05120811601344932</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09632318102495324</v>
+        <v>0.1099968868594793</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09646308236559331</v>
+        <v>0.05033177871023203</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1538335294108753</v>
+        <v>0.1734219450415875</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09683925520620232</v>
+        <v>0.05027647702104362</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01951068874174099</v>
+        <v>0.01671134711176937</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09738041675049845</v>
+        <v>0.02914313557893094</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04067034975345257</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09816134427655793</v>
+        <v>0.0520760501831688</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09593323928468475</v>
+        <v>0.1099968868594793</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09809804986331523</v>
+        <v>0.0511848597053207</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1525809299375328</v>
+        <v>0.1748219450415875</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09848059851478203</v>
+        <v>0.05112862069936639</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01930156653857053</v>
+        <v>0.01677513628099793</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09900342369634009</v>
+        <v>0.02962885450524646</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0406475784771997</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09979736668116723</v>
+        <v>0.05294398435288827</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09504066385082485</v>
+        <v>0.1103968868594793</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09973301736103717</v>
+        <v>0.05203794070040937</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1508113640087994</v>
+        <v>0.1746219450415875</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1001219418233617</v>
+        <v>0.05198076437768916</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02009821433343665</v>
+        <v>0.01683702487732529</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1006264306421817</v>
+        <v>0.03011457343156197</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04022945510433035</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1014333890857765</v>
+        <v>0.05381191852260776</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09406032143152787</v>
+        <v>0.1103968868594793</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1013679848587591</v>
+        <v>0.05289102169549807</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1486485141571054</v>
+        <v>0.1734219450415875</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1017632851319414</v>
+        <v>0.05283290805601194</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0179037579983958</v>
+        <v>0.01689702589944107</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1022494375880234</v>
+        <v>0.03060029235787749</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03952231768540708</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1030694114903858</v>
+        <v>0.05467985269232723</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09260707873494811</v>
+        <v>0.1104968868594793</v>
       </c>
       <c r="M128" t="n">
-        <v>0.103002952356481</v>
+        <v>0.05374410269058674</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1472160629148812</v>
+        <v>0.1742219450415876</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1034046284405211</v>
+        <v>0.05368505173433471</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01770899574740509</v>
+        <v>0.0169551523460349</v>
       </c>
       <c r="G129" t="n">
-        <v>0.103872444533865</v>
+        <v>0.031086011284193</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0394325042709925</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1047054338949951</v>
+        <v>0.05554778686204671</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09259580246923987</v>
+        <v>0.1104968868594793</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1046379198542029</v>
+        <v>0.05459718368567541</v>
       </c>
       <c r="N129" t="n">
-        <v>0.145537692814557</v>
+        <v>0.1746219450415875</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1050459717491008</v>
+        <v>0.05453719541265748</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01749613690912918</v>
+        <v>0.01701141721579642</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1054954514797067</v>
+        <v>0.03157173021050851</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03874604117746566</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1063414562996044</v>
+        <v>0.0564157210317662</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09138230872849351</v>
+        <v>0.1099968868594793</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1062728873519248</v>
+        <v>0.05545026468076409</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1445230575952968</v>
+        <v>0.1734219450415875</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1066873150576805</v>
+        <v>0.05538933909098026</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0182692448240491</v>
+        <v>0.01706583350741526</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071184584255483</v>
+        <v>0.03205744913682403</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03862360611959847</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1079774787042137</v>
+        <v>0.05728365520148567</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09028348682420959</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1079078548496468</v>
+        <v>0.05630334567585277</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1431117805664079</v>
+        <v>0.1738219450415875</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1083286583662602</v>
+        <v>0.05624148276930302</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01703279417892941</v>
+        <v>0.01711841421958107</v>
       </c>
       <c r="G132" t="n">
-        <v>0.10874146537139</v>
+        <v>0.03254316806313955</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03777234426219939</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K132" t="n">
-        <v>0.109613501108823</v>
+        <v>0.05815158937120515</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08931883060874571</v>
+        <v>0.1107968868594793</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1095428223473687</v>
+        <v>0.05715642667094145</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1418785225713625</v>
+        <v>0.1736219450415875</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1099700016748399</v>
+        <v>0.0570936264476258</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01879125966053465</v>
+        <v>0.01716917235098347</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1103644723172316</v>
+        <v>0.03302888698945507</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03730132852650547</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1112495235134323</v>
+        <v>0.05901952354092464</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08770962177917993</v>
+        <v>0.1101968868594793</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1111777898450906</v>
+        <v>0.05800950766603013</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1397571851622721</v>
+        <v>0.1749219450415875</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1116113449834196</v>
+        <v>0.05794577012594857</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01854911595562935</v>
+        <v>0.01721812090031211</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1119874792630732</v>
+        <v>0.03351460591577058</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03701963183375381</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1128855459180416</v>
+        <v>0.05988745771064411</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08627714203259043</v>
+        <v>0.1108968868594793</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1128127573428125</v>
+        <v>0.0588625886611188</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1383816698912487</v>
+        <v>0.1747219450415876</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1132526882919993</v>
+        <v>0.05879791380427135</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01831083775097803</v>
+        <v>0.01726527286625661</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1136104862089149</v>
+        <v>0.03400032484208609</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0363363271051815</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1145215683226509</v>
+        <v>0.06075539188036359</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0861426730660553</v>
+        <v>0.1102968868594793</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1144477248405344</v>
+        <v>0.05971566965620749</v>
       </c>
       <c r="N135" t="n">
-        <v>0.135785878310404</v>
+        <v>0.1733219450415875</v>
       </c>
       <c r="O135" t="n">
-        <v>0.114894031600579</v>
+        <v>0.05965005748259412</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01808089973334525</v>
+        <v>0.01731064124750661</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1152334931547565</v>
+        <v>0.03448604376840161</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0362604872620256</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1161575907272602</v>
+        <v>0.06162332605008307</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08452749657665262</v>
+        <v>0.1108968868594793</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1160826923382564</v>
+        <v>0.06056875065129617</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1341037119718497</v>
+        <v>0.1743219450415875</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1165353749091587</v>
+        <v>0.06050220116091689</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01686377658949553</v>
+        <v>0.01735423904275175</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1168565001005981</v>
+        <v>0.03497176269471713</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03540118522552321</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1177936131318695</v>
+        <v>0.06249126021980255</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0837528942614606</v>
+        <v>0.1107968868594793</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1177176598359783</v>
+        <v>0.06142183164638484</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1319690724276978</v>
+        <v>0.1745219450415875</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1181767182177384</v>
+        <v>0.06135434483923967</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0156639430061934</v>
+        <v>0.01739607925068166</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1184795070464398</v>
+        <v>0.03545748162103264</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03506749391691141</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1194296355364788</v>
+        <v>0.06335919438952203</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08254014781755731</v>
+        <v>0.1101968868594793</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1193526273337002</v>
+        <v>0.06227491264147351</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1303158612300598</v>
+        <v>0.1743219450415875</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1198180615263181</v>
+        <v>0.06220648851756244</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01548587367020342</v>
+        <v>0.01743617486998596</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1201025139922814</v>
+        <v>0.03594320054734815</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03466848625742726</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1210656579410881</v>
+        <v>0.06422712855924151</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08101053894202087</v>
+        <v>0.1103968868594793</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1209875948314221</v>
+        <v>0.06312799363656219</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1284779799310477</v>
+        <v>0.1740219450415875</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1214594048348978</v>
+        <v>0.06305863219588521</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0153340432682901</v>
+        <v>0.01747453889935432</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1217255209381231</v>
+        <v>0.03642891947366367</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03421323516830788</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1227016803456974</v>
+        <v>0.065095062728961</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08028534933192932</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M140" t="n">
-        <v>0.122622562329144</v>
+        <v>0.06398107463165088</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1272893300827732</v>
+        <v>0.1733219450415875</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1231007481434775</v>
+        <v>0.06391077587420799</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01721292648721798</v>
+        <v>0.01751118433747635</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1233485278839647</v>
+        <v>0.03691463839997919</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03391081357079033</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1243377027503067</v>
+        <v>0.06596299689868047</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07948586068436092</v>
+        <v>0.1107968868594793</v>
       </c>
       <c r="M141" t="n">
-        <v>0.124257529826866</v>
+        <v>0.06483415562673955</v>
       </c>
       <c r="N141" t="n">
-        <v>0.126383813237348</v>
+        <v>0.1747219450415876</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1247420914520572</v>
+        <v>0.06476291955253076</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01612699801375159</v>
+        <v>0.01754612418304169</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1249715348298063</v>
+        <v>0.03740035732629471</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03397029438611168</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K142" t="n">
-        <v>0.125973725154916</v>
+        <v>0.06683093106839995</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08003335469639372</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1258924973245879</v>
+        <v>0.06568723662182822</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1246953309468842</v>
+        <v>0.1740219450415875</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1263834347606369</v>
+        <v>0.06561506323085353</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01708073253465549</v>
+        <v>0.01757937143473997</v>
       </c>
       <c r="G143" t="n">
-        <v>0.126594541775648</v>
+        <v>0.03788607625261022</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03350075053550906</v>
+        <v>0.04707182867737106</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1276097475595253</v>
+        <v>0.06769886523811944</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0786491130651058</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1275274648223098</v>
+        <v>0.06654031761691692</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1241577847634932</v>
+        <v>0.1736219450415875</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1280247780692166</v>
+        <v>0.0664672069091763</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0150744977483468</v>
+        <v>0.01761093909126083</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1282175487214896</v>
+        <v>0.03837179517892574</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03371125494021952</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1292457699641346</v>
+        <v>0.06856679940783891</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07845441748757537</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1291624323200317</v>
+        <v>0.06739339861200559</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1249050762392869</v>
+        <v>0.1747219450415876</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1296661213777963</v>
+        <v>0.06731935058749908</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01708079220293253</v>
+        <v>0.01764084015129391</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1298405556673313</v>
+        <v>0.03885751410524125</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0336009982977824</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1308817923687439</v>
+        <v>0.06943473357755839</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07913942044032035</v>
+        <v>0.1100968868594793</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1307973998177537</v>
+        <v>0.06824647960709426</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1242694687089851</v>
+        <v>0.1739219450415875</v>
       </c>
       <c r="O145" t="n">
-        <v>0.131307464686376</v>
+        <v>0.06817149426582185</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01609340469130092</v>
+        <v>0.01766908761352885</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1314635626131729</v>
+        <v>0.03934323303155676</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0338142004768885</v>
+        <v>0.04687182867737107</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1325178147733532</v>
+        <v>0.07030266774727788</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0784727574298652</v>
+        <v>0.1105968868594793</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1324323673154756</v>
+        <v>0.06909956060218295</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1242996866567306</v>
+        <v>0.1733219450415875</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1329488079949557</v>
+        <v>0.06902363794414462</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01711200641509852</v>
+        <v>0.01769569447665526</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1330865695590146</v>
+        <v>0.03982895195787228</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03354007572530374</v>
+        <v>0.04717182867737106</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1341538371779625</v>
+        <v>0.07117060191699735</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07913572084562767</v>
+        <v>0.1110968868594793</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1340673348131975</v>
+        <v>0.06995264159727162</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1235780577454045</v>
+        <v>0.1732219450415876</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1345901513035354</v>
+        <v>0.06987578162246739</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01513626857597184</v>
+        <v>0.0177206737393628</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1347095765048562</v>
+        <v>0.0403146708841878</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03357795736808059</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1357898595825718</v>
+        <v>0.07203853608671683</v>
       </c>
       <c r="L148" t="n">
-        <v>0.0794267469162587</v>
+        <v>0.1103968868594793</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1357023023109194</v>
+        <v>0.0708057225923603</v>
       </c>
       <c r="N148" t="n">
-        <v>0.124502090901307</v>
+        <v>0.1738219450415875</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1362314946121151</v>
+        <v>0.07072792530079017</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01616586237556741</v>
+        <v>0.01774403840034109</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1363325834506978</v>
+        <v>0.04080038981050332</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03392717873027148</v>
+        <v>0.04727182867737106</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1374258819871811</v>
+        <v>0.07290647025643632</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07974427187040922</v>
+        <v>0.1108968077167392</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1373372698086413</v>
+        <v>0.07165880358744899</v>
       </c>
       <c r="N149" t="n">
-        <v>0.123869295050738</v>
+        <v>0.1733215127128668</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1378728379206948</v>
+        <v>0.07158006897911295</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01520045901553177</v>
+        <v>0.01776580145827977</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1379555903965395</v>
+        <v>0.04128610873681883</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03358707313692896</v>
+        <v>0.04697182867737107</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1390619043917904</v>
+        <v>0.07377440442615579</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07888673193673021</v>
+        <v>0.1099920851070595</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1389722373063632</v>
+        <v>0.07251188458253766</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1255771791199978</v>
+        <v>0.1738126569607018</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1395141812292745</v>
+        <v>0.07243221265743571</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01623972969751144</v>
+        <v>0.01778597591186847</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1395785973423811</v>
+        <v>0.04177182766313434</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03405697391310546</v>
+        <v>0.04717177837089265</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1406979267963997</v>
+        <v>0.07464233859587527</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07895256334387257</v>
+        <v>0.1109802674160767</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1406072048040852</v>
+        <v>0.07336496557762634</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1247232520353863</v>
+        <v>0.1745927097821699</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1411555245378542</v>
+        <v>0.07328435633575849</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01628334562315294</v>
+        <v>0.01780457475979684</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1412016042882228</v>
+        <v>0.04225754658944986</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03373621438385346</v>
+        <v>0.04696960501882633</v>
       </c>
       <c r="K152" t="n">
-        <v>0.142333949201009</v>
+        <v>0.07551027276559476</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07994020232048726</v>
+        <v>0.1108616353456946</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1422421723018071</v>
+        <v>0.07421804657271502</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1255050227232035</v>
+        <v>0.1738621116869402</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1427968678464339</v>
+        <v>0.07413650001408127</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0163309779941028</v>
+        <v>0.0178216110007545</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1428246112340644</v>
+        <v>0.04274326551576537</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03402412787422544</v>
+        <v>0.04686431283504253</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1439699716056183</v>
+        <v>0.07637820693531423</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08004808509522521</v>
+        <v>0.1106364695978166</v>
       </c>
       <c r="M153" t="n">
-        <v>0.143877139799529</v>
+        <v>0.07507112756780369</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1254200001097496</v>
+        <v>0.1748213031846814</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1444382111550136</v>
+        <v>0.07498864369240404</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01738229801200756</v>
+        <v>0.0178370976334311</v>
       </c>
       <c r="G154" t="n">
-        <v>0.144447618179906</v>
+        <v>0.04322898444208089</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03422004770927388</v>
+        <v>0.04715602760644591</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1456059940102276</v>
+        <v>0.07724614110503371</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08027464789673738</v>
+        <v>0.1110050508743466</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1455121072972509</v>
+        <v>0.07592420856289236</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1261656931213249</v>
+        <v>0.1731707247850624</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1460795544635933</v>
+        <v>0.0758407873707268</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01643697687851373</v>
+        <v>0.01785104765651625</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1460706251257477</v>
+        <v>0.0437147033683964</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03412330721405125</v>
+        <v>0.0472448751199412</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1472420164148369</v>
+        <v>0.0781140752747532</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08011832695367474</v>
+        <v>0.1098676598771882</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1471470747949729</v>
+        <v>0.07677728955798105</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1256396106842291</v>
+        <v>0.1746108169977521</v>
       </c>
       <c r="O155" t="n">
-        <v>0.147720897772173</v>
+        <v>0.07669293104904958</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0174979603029406</v>
+        <v>0.01786347406869961</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1476936320715893</v>
+        <v>0.04420042229471192</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03413323971361001</v>
+        <v>0.04683098116243307</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1488780388194462</v>
+        <v>0.07898200944447267</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08117755849468819</v>
+        <v>0.1105245773082448</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1487820422926948</v>
+        <v>0.07763037055306973</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1276392617247624</v>
+        <v>0.1741420203324193</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1493622410807527</v>
+        <v>0.07754507472737236</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01760405620212725</v>
+        <v>0.01787438986867079</v>
       </c>
       <c r="G157" t="n">
-        <v>0.149316639017431</v>
+        <v>0.04468614122102744</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03466219554553372</v>
+        <v>0.04701447152082622</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1505140612240555</v>
+        <v>0.07984994361419215</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08149077118293471</v>
+        <v>0.1099760838694204</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1504170097904167</v>
+        <v>0.0784834515481584</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1271656225155239</v>
+        <v>0.1730647752987329</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1510035843893324</v>
+        <v>0.07839721840569513</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01575885448042742</v>
+        <v>0.01788380805511945</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1509396459632726</v>
+        <v>0.04517186014734296</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03448931158587436</v>
+        <v>0.04719547198202534</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1521500836286648</v>
+        <v>0.08071787778391164</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08194101986231059</v>
+        <v>0.1108224602626185</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1520519772881386</v>
+        <v>0.07933653254324709</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1286692020782428</v>
+        <v>0.1738795224063619</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1526449276979121</v>
+        <v>0.07924936208401789</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01595242950913289</v>
+        <v>0.01789174162673522</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1525626529091142</v>
+        <v>0.04565757907365847</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03481139770607783</v>
+        <v>0.0470741083329351</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1537861060332741</v>
+        <v>0.08158581195363111</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08201094815354262</v>
+        <v>0.1107639871897427</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1536869447858606</v>
+        <v>0.08018961353833577</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1289523338968841</v>
+        <v>0.172786702164975</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1542862710064918</v>
+        <v>0.08010150576234068</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01717485565953543</v>
+        <v>0.01789820358220773</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1541856598549559</v>
+        <v>0.04614329799997399</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03530832859855569</v>
+        <v>0.0471505063604602</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1554221284378834</v>
+        <v>0.08245374612335059</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08305334957389943</v>
+        <v>0.1101009453526968</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1553219122835825</v>
+        <v>0.08104269453342444</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1303398184688679</v>
+        <v>0.1734867550842411</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1559276143150715</v>
+        <v>0.08095364944066345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01641620730292685</v>
+        <v>0.01790320692022662</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1558086668007975</v>
+        <v>0.0466290169262895</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03575997895571952</v>
+        <v>0.04692479185150533</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1570581508424927</v>
+        <v>0.08332168029307008</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08382101764064973</v>
+        <v>0.1102336154533843</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1569568797813044</v>
+        <v>0.08189577552851313</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1315564562916143</v>
+        <v>0.1741801216738291</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1575689576236512</v>
+        <v>0.08180579311898621</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01866655881059892</v>
+        <v>0.01790676463948149</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1574316737466392</v>
+        <v>0.04711473585260501</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03614622346998086</v>
+        <v>0.04689709059297519</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158694173247102</v>
+        <v>0.08418961446278955</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08506674587106219</v>
+        <v>0.1096622781937089</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1585918472790263</v>
+        <v>0.0827488565236018</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1342270478625436</v>
+        <v>0.1726672424434079</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1592103009322309</v>
+        <v>0.082657936797309</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01691598455384342</v>
+        <v>0.01790888973866203</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1590546806924808</v>
+        <v>0.04760045477892053</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03664693683375131</v>
+        <v>0.04696752837177444</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1603301956517113</v>
+        <v>0.08505754863250903</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08674332778240551</v>
+        <v>0.1094872142755743</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1602268147767482</v>
+        <v>0.08360193751869047</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1363763936790758</v>
+        <v>0.1732485579026464</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1608516442408106</v>
+        <v>0.08351008047563177</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01815455890395217</v>
+        <v>0.01790959521645785</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1606776876383224</v>
+        <v>0.04808617370523605</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0374419937394424</v>
+        <v>0.0468362309748078</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1619662180563206</v>
+        <v>0.0859254828022285</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08730355689194841</v>
+        <v>0.1104087044008841</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1618617822744702</v>
+        <v>0.08445501851377916</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1377292942386311</v>
+        <v>0.1737245085612133</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1624929875493903</v>
+        <v>0.08436222415395454</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01937235623221693</v>
+        <v>0.01790959521645785</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1623006945841641</v>
+        <v>0.04808617370523605</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03801126887946575</v>
+        <v>0.04670332418897995</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1636022404609299</v>
+        <v>0.08679341697194799</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08930022671695947</v>
+        <v>0.109527029271542</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1634967497721921</v>
+        <v>0.08530809950886784</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1392105500386296</v>
+        <v>0.1735955349287776</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1641343308579701</v>
+        <v>0.08521436783227732</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01756049661908955</v>
+        <v>0.0174920162397663</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1639237015300057</v>
+        <v>0.04808590517677204</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03833463694623289</v>
+        <v>0.04676893380119553</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1652382628655392</v>
+        <v>0.08766135114166747</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08998613077470743</v>
+        <v>0.1101424695894517</v>
       </c>
       <c r="M166" t="n">
-        <v>0.165131717269914</v>
+        <v>0.08616118050395651</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1407449615764915</v>
+        <v>0.1724620775150081</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1657756741665497</v>
+        <v>0.08606651151060009</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01873527181588157</v>
+        <v>0.01707928638406495</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1655467084758474</v>
+        <v>0.04808563664830802</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03839961299997055</v>
+        <v>0.0467331855983593</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1668742852701485</v>
+        <v>0.08852928531138694</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09113731435653552</v>
+        <v>0.1090553060565167</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1667666847676359</v>
+        <v>0.08701426149904519</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1431601651567697</v>
+        <v>0.1723245768295739</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1674170174751294</v>
+        <v>0.08691865518892286</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01890577617119268</v>
+        <v>0.01667190495883389</v>
       </c>
       <c r="G168" t="n">
-        <v>0.167169715421689</v>
+        <v>0.04808536811984401</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03894639117373133</v>
+        <v>0.04659620536737594</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1685103076747578</v>
+        <v>0.08939721948110643</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09145049892348428</v>
+        <v>0.1097658193746407</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1684016522653578</v>
+        <v>0.08786734249413387</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1436578652786383</v>
+        <v>0.1720834733821435</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1690583607837091</v>
+        <v>0.08777079886724563</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01807232455583948</v>
+        <v>0.01627037127351758</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1687927223675307</v>
+        <v>0.04808509959137999</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03918472439916368</v>
+        <v>0.04675811889515009</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1701463300793671</v>
+        <v>0.09026515365082592</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0920439547614216</v>
+        <v>0.1096742902457275</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1700366197630797</v>
+        <v>0.08872042348922254</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1448233701899586</v>
+        <v>0.1719392076823861</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1706997040922888</v>
+        <v>0.08862294254556841</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0202352318406386</v>
+        <v>0.01587518463759567</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1704157293133723</v>
+        <v>0.04808483106291597</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03981525111159709</v>
+        <v>0.04671905196858649</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1717823524839764</v>
+        <v>0.09113308782054538</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09281917940206108</v>
+        <v>0.1091809993716807</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1716715872608017</v>
+        <v>0.08957350448431123</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1460590654452868</v>
+        <v>0.1717922202399703</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1723410474008685</v>
+        <v>0.08947508622389118</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01939481289640666</v>
+        <v>0.01548684436051313</v>
       </c>
       <c r="G171" t="n">
-        <v>0.172038736259214</v>
+        <v>0.04808456253445195</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03993860974636107</v>
+        <v>0.04637913037458979</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1734183748885857</v>
+        <v>0.09200102199026487</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09397767037711618</v>
+        <v>0.1097862274544038</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1733065547585236</v>
+        <v>0.0904265854793999</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1473673365991788</v>
+        <v>0.1725429515645651</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1739823907094482</v>
+        <v>0.09032722990221395</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02055138259396027</v>
+        <v>0.01510584975174905</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1736617432050556</v>
+        <v>0.04808429400598793</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04045543873878521</v>
+        <v>0.0467384799000647</v>
       </c>
       <c r="K172" t="n">
-        <v>0.175054397293195</v>
+        <v>0.09286895615998436</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09442092521830053</v>
+        <v>0.1089902551958006</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1749415222562455</v>
+        <v>0.09127966647448858</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1484505692061908</v>
+        <v>0.1710918421658394</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1756237340180279</v>
+        <v>0.09117937358053674</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01970525580411606</v>
+        <v>0.014732700120749</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1752847501508972</v>
+        <v>0.04808402547752391</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04046637652419902</v>
+        <v>0.0463972263319159</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1766904196978043</v>
+        <v>0.09373689032970382</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09505044145732763</v>
+        <v>0.1088933632977747</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1765764897539674</v>
+        <v>0.09213274746957727</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1498111488208789</v>
+        <v>0.1709393325534621</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1772650773266077</v>
+        <v>0.0920315172588595</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01985674739769066</v>
+        <v>0.01436789477699138</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1769077570967389</v>
+        <v>0.0480837569490599</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04077206153793199</v>
+        <v>0.04625549545704809</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1783264421024136</v>
+        <v>0.09460482449942331</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09576771662591099</v>
+        <v>0.1092958324622298</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1782114572516894</v>
+        <v>0.09298582846466594</v>
       </c>
       <c r="N174" t="n">
-        <v>0.150951460997799</v>
+        <v>0.1718858632371019</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1789064206351874</v>
+        <v>0.09288366093718227</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02100617224550066</v>
+        <v>0.01401193302992253</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1785307640425805</v>
+        <v>0.04808348842059588</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04127313221531366</v>
+        <v>0.04621341306236594</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1799624645070229</v>
+        <v>0.09547275866914279</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09647424825576417</v>
+        <v>0.1084964531404639</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1798464247494113</v>
+        <v>0.09383890945975462</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1519738912915072</v>
+        <v>0.1709279532971728</v>
       </c>
       <c r="O175" t="n">
-        <v>0.180547763943767</v>
+        <v>0.09373580461550506</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02115384521836269</v>
+        <v>0.01366531418902007</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1801537709884221</v>
+        <v>0.04808321989213186</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04157022699167359</v>
+        <v>0.04617110493477417</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1815984869116322</v>
+        <v>0.09634069283886226</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0971715338786007</v>
+        <v>0.1086767340813922</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1814813922471332</v>
+        <v>0.09469199045484329</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1525808252565598</v>
+        <v>0.1718358414023991</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1821891072523467</v>
+        <v>0.09458794829382783</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02030008118709338</v>
+        <v>0.01332853756373112</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1817767779342638</v>
+        <v>0.04808295136366784</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04176398430234127</v>
+        <v>0.04652491096847709</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1832345093162415</v>
+        <v>0.09720862700858175</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09826107102613413</v>
+        <v>0.1085333481014429</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1831163597448551</v>
+        <v>0.09554507144993198</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1547746484475127</v>
+        <v>0.1717069913304384</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1838304505609265</v>
+        <v>0.09544009197215059</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02145006255680237</v>
+        <v>0.01300210246353249</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1833997848801054</v>
+        <v>0.04808268283520383</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04225555080224662</v>
+        <v>0.04636786670589886</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1848705317208508</v>
+        <v>0.09807656117830123</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09934632941678137</v>
+        <v>0.1088692150022412</v>
       </c>
       <c r="M178" t="n">
-        <v>0.184751327242577</v>
+        <v>0.09639815244502065</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1555577464189218</v>
+        <v>0.1710459851693717</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1854717938695061</v>
+        <v>0.09629223565047336</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01960827177986772</v>
+        <v>0.01268650819787216</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1850227918259471</v>
+        <v>0.04808241430673981</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04226101594565368</v>
+        <v>0.04600104481985336</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1865065541254601</v>
+        <v>0.0989444953480207</v>
       </c>
       <c r="L179" t="n">
-        <v>0.099366154550835</v>
+        <v>0.1087872545854121</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1863862947402989</v>
+        <v>0.09725123344010933</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1563712041039034</v>
+        <v>0.16955740500728</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1871131371780858</v>
+        <v>0.09714437932879615</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02176939952103338</v>
+        <v>0.01238225407622601</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1866457987717887</v>
+        <v>0.0480821457782758</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04287976788350205</v>
+        <v>0.04602575371902586</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1881425765300694</v>
+        <v>0.09981242951774019</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1006157548266987</v>
+        <v>0.1085903866525809</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1880212622380209</v>
+        <v>0.09810431443519801</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1572450217121436</v>
+        <v>0.1705458329322443</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1887544804866655</v>
+        <v>0.0979965230071189</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01992803685501638</v>
+        <v>0.012089839408043</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1882688057176304</v>
+        <v>0.04808187724981178</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04290083942285701</v>
+        <v>0.04584330181210174</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1897785989346787</v>
+        <v>0.1006803636874597</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1004694052907728</v>
+        <v>0.1077815310053726</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1896562297357428</v>
+        <v>0.09895739543028668</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1591386377660579</v>
+        <v>0.1691158510323457</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1903958237952452</v>
+        <v>0.09884866668544168</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02007877485653378</v>
+        <v>0.01180976350279802</v>
       </c>
       <c r="G182" t="n">
-        <v>0.189891812663472</v>
+        <v>0.04808160872134776</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0432132633707837</v>
+        <v>0.04575499750776629</v>
       </c>
       <c r="K182" t="n">
-        <v>0.191414621339288</v>
+        <v>0.1015482978571792</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1022013809894579</v>
+        <v>0.1078636074454123</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1912911972334647</v>
+        <v>0.09981047642537537</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1594110726458431</v>
+        <v>0.1701720413956651</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1920371671038249</v>
+        <v>0.09970081036376446</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02221620460030263</v>
+        <v>0.01154252566994672</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1915148196093136</v>
+        <v>0.04808134019288374</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04350607253434731</v>
+        <v>0.04586214921470488</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1930506437438973</v>
+        <v>0.1024162320268986</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1019859569691545</v>
+        <v>0.1070395357743253</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1929261647311866</v>
+        <v>0.1006635574204641</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1616213467316964</v>
+        <v>0.1685189861102834</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1936785104124046</v>
+        <v>0.1005529540420872</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02033491716103997</v>
+        <v>0.0112886252189459</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1931378265551553</v>
+        <v>0.04808107166441972</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04396829972061302</v>
+        <v>0.04576606534160284</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1946866661485066</v>
+        <v>0.1032841661966181</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1029974082762631</v>
+        <v>0.1070122357937366</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1945611322289086</v>
+        <v>0.1015166384155527</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1624284804038143</v>
+        <v>0.169361267264282</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1953198537209843</v>
+        <v>0.10140509772041</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02242950361346284</v>
+        <v>0.01104856145926875</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1947608335009969</v>
+        <v>0.04808080313595571</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04388897773664603</v>
+        <v>0.0455680542971455</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1963226885531159</v>
+        <v>0.1041521003663376</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1034100099571841</v>
+        <v>0.1064846273052714</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1961960997266305</v>
+        <v>0.1023697194106414</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1625914940423938</v>
+        <v>0.1690034669457416</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1969611970295641</v>
+        <v>0.1022572413987328</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02249614402660376</v>
+        <v>0.01082283370036703</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1963838404468385</v>
+        <v>0.04808053460749169</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04435713938951152</v>
+        <v>0.04536942449001818</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1979587109577252</v>
+        <v>0.1050200345360571</v>
       </c>
       <c r="L186" t="n">
-        <v>0.104298037058318</v>
+        <v>0.1066596301105548</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1978310672243524</v>
+        <v>0.1032228004057301</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1643694080276317</v>
+        <v>0.1677501672427433</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1986025403381437</v>
+        <v>0.1031093850770556</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02155426223976745</v>
+        <v>0.0106119412517127</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1980068473926802</v>
+        <v>0.04808026607902768</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04417771411626623</v>
+        <v>0.04527148432890622</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1995947333623345</v>
+        <v>0.1058879687057765</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1036788161570346</v>
+        <v>0.1070401640112117</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1994660347220743</v>
+        <v>0.1040758814008187</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1643447634524723</v>
+        <v>0.1671059502433681</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2002438836467234</v>
+        <v>0.1039615287553783</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02261111642058319</v>
+        <v>0.01041638342275878</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1996298543385218</v>
+        <v>0.04807999755056366</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04429271742944541</v>
+        <v>0.04537554222249497</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2012307557669437</v>
+        <v>0.106755902875496</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1042486252005636</v>
+        <v>0.1068291488088676</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2011010022197962</v>
+        <v>0.1049289623959074</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1635740386974958</v>
+        <v>0.1673753980356971</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2018852269553031</v>
+        <v>0.1048136724337011</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02166668666347402</v>
+        <v>0.01023665952297595</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2012528612843635</v>
+        <v>0.04807972902209964</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04450516253067086</v>
+        <v>0.04508290657946974</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2028667781715531</v>
+        <v>0.1076238370452155</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1050124251167599</v>
+        <v>0.1063295043051474</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2027359697175182</v>
+        <v>0.1057820433909961</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1648938231637794</v>
+        <v>0.1674630927078112</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2035265702638828</v>
+        <v>0.1056658161120239</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02172095306286297</v>
+        <v>0.01007123001484805</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2028758682302051</v>
+        <v>0.04807946049363562</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04471500905918852</v>
+        <v>0.04519488580851586</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2045028005761624</v>
+        <v>0.108491771214935</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1053701212343132</v>
+        <v>0.1057441503016764</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2043709372152401</v>
+        <v>0.1066351243860848</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1647039660407769</v>
+        <v>0.1675736163477914</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2051679135724625</v>
+        <v>0.1065179597903466</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02077389571317308</v>
+        <v>0.00990836112602142</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2044988751760467</v>
+        <v>0.04807919196517161</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04502221665424434</v>
+        <v>0.04501278831831869</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2061388229807717</v>
+        <v>0.1093597053846545</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1052216188819131</v>
+        <v>0.1054760066000796</v>
       </c>
       <c r="M191" t="n">
-        <v>0.206005904712962</v>
+        <v>0.1074882053811735</v>
       </c>
       <c r="N191" t="n">
-        <v>0.165204316517942</v>
+        <v>0.1659115510437189</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2068092568810422</v>
+        <v>0.1073701034686694</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02282549470882741</v>
+        <v>0.009746513318980465</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2061218821218884</v>
+        <v>0.04807892343670759</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04482674495508429</v>
+        <v>0.04483792251756354</v>
       </c>
       <c r="K192" t="n">
-        <v>0.207774845385381</v>
+        <v>0.110227639554374</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1051668233882492</v>
+        <v>0.1060279930019821</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2076408722106839</v>
+        <v>0.1083412863762622</v>
       </c>
       <c r="N192" t="n">
-        <v>0.166694723784729</v>
+        <v>0.1657814788836745</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2084506001896219</v>
+        <v>0.1082222471469922</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02287573014424896</v>
+        <v>0.009586185903194398</v>
       </c>
       <c r="G193" t="n">
-        <v>0.20774488906773</v>
+        <v>0.04807865490824357</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0450285536009543</v>
+        <v>0.04477159681493574</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2094108677899903</v>
+        <v>0.1110955737240934</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1053056400820117</v>
+        <v>0.105703029309009</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2092758397084059</v>
+        <v>0.1091943673713508</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1670750370305915</v>
+        <v>0.1658879819557393</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2100919434982016</v>
+        <v>0.109074390825315</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0219245821138608</v>
+        <v>0.009427878188118438</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2093678960135717</v>
+        <v>0.04807838637977955</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04522760223110035</v>
+        <v>0.04491511961912063</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2110468901945996</v>
+        <v>0.1119635078938129</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1054379742918899</v>
+        <v>0.1058028945745829</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2109108072061278</v>
+        <v>0.1100474483664395</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1674451054449833</v>
+        <v>0.1654328005771095</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2117332868067813</v>
+        <v>0.1099265345036377</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02197203071208596</v>
+        <v>0.00927208948322162</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2109909029594133</v>
+        <v>0.04807811785131554</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04522385048476836</v>
+        <v>0.04476974692993824</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2126829125992089</v>
+        <v>0.1128314420635324</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1056637313465738</v>
+        <v>0.1049117176572228</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2125457747038497</v>
+        <v>0.1109005293615282</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1666047782173584</v>
+        <v>0.165189757425071</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2133746301153611</v>
+        <v>0.1107786781819605</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02101805603334748</v>
+        <v>0.009119319097959343</v>
       </c>
       <c r="G196" t="n">
-        <v>0.212613909905255</v>
+        <v>0.04807784932285152</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04521725800120431</v>
+        <v>0.04463002649422658</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2143189350038182</v>
+        <v>0.1136993762332519</v>
       </c>
       <c r="L196" t="n">
-        <v>0.106882816574753</v>
+        <v>0.1054234706403386</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2141807422015716</v>
+        <v>0.1117536103566169</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1668539045371707</v>
+        <v>0.1663513061231472</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2150159734239407</v>
+        <v>0.1116308218602833</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0210626381720684</v>
+        <v>0.008970066341800441</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2142369168510966</v>
+        <v>0.0480775807943875</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04520778441965413</v>
+        <v>0.044791604104993</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2159549574084275</v>
+        <v>0.1145673104029713</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1071951353051172</v>
+        <v>0.1050380599621206</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2158157096992935</v>
+        <v>0.1126066913517055</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1675923335938742</v>
+        <v>0.1662172998434005</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2166573167325204</v>
+        <v>0.112482965538606</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02310575722267175</v>
+        <v>0.0088248305242037</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2158599237969382</v>
+        <v>0.04807731226592349</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04549538937936377</v>
+        <v>0.0446544378357303</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2175909798130368</v>
+        <v>0.1154352445726908</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1071005928663561</v>
+        <v>0.1055553920607595</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2174506771970155</v>
+        <v>0.1134597723467942</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1675199145769225</v>
+        <v>0.1658875917578926</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2182986600411002</v>
+        <v>0.1133351092169288</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02314739327958058</v>
+        <v>0.00868411095462826</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2174829307427799</v>
+        <v>0.04807704373745947</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04578003251957923</v>
+        <v>0.04451848575993116</v>
       </c>
       <c r="K199" t="n">
-        <v>0.219227002217646</v>
+        <v>0.1163031787424103</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1064990945871596</v>
+        <v>0.1046753733744458</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2190856446947373</v>
+        <v>0.1143128533418829</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1683364966757697</v>
+        <v>0.1644620350386861</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2199400033496798</v>
+        <v>0.1141872528952516</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02218752643721792</v>
+        <v>0.008548406942542428</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2191059376886215</v>
+        <v>0.04807677520899546</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04586167347954639</v>
+        <v>0.04478370595108831</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2208630246222553</v>
+        <v>0.1171711129121298</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1077905457962173</v>
+        <v>0.1046979103413703</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2207206121924593</v>
+        <v>0.1151659343369716</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1682419290798697</v>
+        <v>0.1651404828578426</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2215813466582595</v>
+        <v>0.1150393965735744</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02222613679000682</v>
+        <v>0.008418217797402469</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2207289446344632</v>
+        <v>0.04807650668053143</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04584027189851124</v>
+        <v>0.04485005648269454</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2224990470268647</v>
+        <v>0.1180390470818493</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1069748518222191</v>
+        <v>0.1047229093997233</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2223555796901812</v>
+        <v>0.1160190153320603</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1694360609786763</v>
+        <v>0.1655227883874244</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2232226899668392</v>
+        <v>0.1158915402518971</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02126320443237031</v>
+        <v>0.008294042828676219</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2223519515803048</v>
+        <v>0.04807623815206742</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04561578741571976</v>
+        <v>0.04471749542824256</v>
       </c>
       <c r="K202" t="n">
-        <v>0.224135069431474</v>
+        <v>0.1189069812515687</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1074519179938544</v>
+        <v>0.1047502769876956</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2239905471879031</v>
+        <v>0.1168720963271489</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1695187415616433</v>
+        <v>0.1652088047994936</v>
       </c>
       <c r="O202" t="n">
-        <v>0.224864033275419</v>
+        <v>0.1167436839302199</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02129870945873143</v>
+        <v>0.008176381345820466</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2239749585261464</v>
+        <v>0.0480759696236034</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04578817967041784</v>
+        <v>0.04468598086122509</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2257710918360832</v>
+        <v>0.1197749154212882</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1079216496398132</v>
+        <v>0.1042799195434778</v>
       </c>
       <c r="M203" t="n">
-        <v>0.225625514685625</v>
+        <v>0.1177251773222376</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1703898200182248</v>
+        <v>0.1653983852661122</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2265053765839986</v>
+        <v>0.1175958276085427</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02133263196351322</v>
+        <v>0.008065732658302474</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2255979654719881</v>
+        <v>0.04807570109513939</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04595740830185145</v>
+        <v>0.04455547085513491</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2274071142406925</v>
+        <v>0.1206428495910077</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1083839520887852</v>
+        <v>0.1051117435052604</v>
       </c>
       <c r="M204" t="n">
-        <v>0.227260482183347</v>
+        <v>0.1185782583173263</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1702491455378745</v>
+        <v>0.1645913829593424</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2281467198925784</v>
+        <v>0.1184479712868655</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02136495204113872</v>
+        <v>0.007962596075579607</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2272209724178297</v>
+        <v>0.04807543256667537</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04592343294926657</v>
+        <v>0.04432592348346472</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2290431366453018</v>
+        <v>0.1215107837607272</v>
       </c>
       <c r="L205" t="n">
-        <v>0.10753873066946</v>
+        <v>0.1040456553112341</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2288954496810689</v>
+        <v>0.119431339312415</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1693965673100463</v>
+        <v>0.1644876510512463</v>
       </c>
       <c r="O205" t="n">
-        <v>0.229788063201158</v>
+        <v>0.1193001149651882</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02339564978603097</v>
+        <v>0.007867470907118541</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2288439793636713</v>
+        <v>0.04807516403821135</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04598621325190916</v>
+        <v>0.04459729681970726</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2306791590499111</v>
+        <v>0.1223787179304467</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1085858907105275</v>
+        <v>0.1048815613995893</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2305304171787908</v>
+        <v>0.1202844203075037</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1707319345241942</v>
+        <v>0.1652870427138859</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2314294065097377</v>
+        <v>0.120152258643511</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02342470529261301</v>
+        <v>0.007780856462377306</v>
       </c>
       <c r="G207" t="n">
-        <v>0.230466986309513</v>
+        <v>0.04807489550974733</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04634570884902511</v>
+        <v>0.04446954893735526</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2323151814545204</v>
+        <v>0.1232466521001661</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1083253375406773</v>
+        <v>0.1041193682085167</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2321653846765127</v>
+        <v>0.1211375013025923</v>
       </c>
       <c r="N207" t="n">
-        <v>0.171055096369772</v>
+        <v>0.1636894111193234</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2330707498183175</v>
+        <v>0.1210044023218338</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02245209865530788</v>
+        <v>0.007703252050821841</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2320899932553547</v>
+        <v>0.04807462698128331</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04610187937986043</v>
+        <v>0.04434263790990151</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2339512038591297</v>
+        <v>0.1241145862698856</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1081569764885992</v>
+        <v>0.104058982176207</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2338003521742346</v>
+        <v>0.121990582297681</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1708659020362335</v>
+        <v>0.1642946094396207</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2347120931268971</v>
+        <v>0.1218565460001566</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02347780996853861</v>
+        <v>0.007635156981910945</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2337130002011963</v>
+        <v>0.04807435845281929</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04635468448366103</v>
+        <v>0.04441652181083865</v>
       </c>
       <c r="K209" t="n">
-        <v>0.235587226263739</v>
+        <v>0.1249825204396051</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1086807128829829</v>
+        <v>0.1042003097408506</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2354353196719566</v>
+        <v>0.1228436632927697</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1718642007130329</v>
+        <v>0.1645024908468401</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2363534364354768</v>
+        <v>0.1227086896784793</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02150181932672825</v>
+        <v>0.007577070565109735</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2353360071470379</v>
+        <v>0.04807408992435528</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04610408379967294</v>
+        <v>0.04439115871365949</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2372232486683483</v>
+        <v>0.1258504546093246</v>
       </c>
       <c r="L210" t="n">
-        <v>0.109196452052518</v>
+        <v>0.1045432573406384</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2370702871696785</v>
+        <v>0.1236967442878584</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1716498415896238</v>
+        <v>0.1647129085130435</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2379947797440566</v>
+        <v>0.1235608333568021</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02352410682429984</v>
+        <v>0.007529492109877897</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2369590140928796</v>
+        <v>0.04807382139589126</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04615003696714201</v>
+        <v>0.04416650669185677</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2388592710729576</v>
+        <v>0.1267183887790441</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1087040993258945</v>
+        <v>0.1039877314137607</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2387052546674004</v>
+        <v>0.124549825282947</v>
       </c>
       <c r="N211" t="n">
-        <v>0.17082267385546</v>
+        <v>0.1646257156102932</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2396361230526363</v>
+        <v>0.1244129770351249</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0225446525556764</v>
+        <v>0.007492920925679644</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2385820210387212</v>
+        <v>0.04807355286742725</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04619250362531424</v>
+        <v>0.0441425238189232</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2404952934775669</v>
+        <v>0.1275863229487635</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1092035600318019</v>
+        <v>0.1044336383984081</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2403402221651223</v>
+        <v>0.1254029062780357</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1715825466999957</v>
+        <v>0.1637407653106511</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2412774663612159</v>
+        <v>0.1252651207134476</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02256343661528099</v>
+        <v>0.007467856321975566</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2402050279845629</v>
+        <v>0.04807328433896323</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04633144341343559</v>
+        <v>0.04431916816835152</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2421313158821763</v>
+        <v>0.128454257118483</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1092947394989301</v>
+        <v>0.1037808847327713</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2419751896628443</v>
+        <v>0.1262559872731244</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1722293093126845</v>
+        <v>0.1629579107861795</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2429188096697957</v>
+        <v>0.1261172643917704</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02258043909753664</v>
+        <v>0.007454797608228925</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2418280349304045</v>
+        <v>0.04807301581049921</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04656681597075202</v>
+        <v>0.04409639781363447</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2437673382867855</v>
+        <v>0.1293221912882025</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1087775430559688</v>
+        <v>0.1036293768550409</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2436101571605662</v>
+        <v>0.1271090682682131</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1715628108829805</v>
+        <v>0.1636770052089402</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2445601529783754</v>
+        <v>0.1269694080700932</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02259564009686639</v>
+        <v>0.007454797608228918</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2434510418762461</v>
+        <v>0.04807301581049921</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04629858093650943</v>
+        <v>0.04427417082826479</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2454033606913948</v>
+        <v>0.130190125457922</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1088518760316076</v>
+        <v>0.1033790212034075</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2452451246582881</v>
+        <v>0.1279621492633018</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1716829006003376</v>
+        <v>0.1630979017509955</v>
       </c>
       <c r="O215" t="n">
-        <v>0.246201496286955</v>
+        <v>0.127821551748416</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02260901970769328</v>
+        <v>0.007226286652373098</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2450740488220878</v>
+        <v>0.04804968174674958</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04632669794995381</v>
+        <v>0.04435244528573522</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2470393830960042</v>
+        <v>0.1310580596276415</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1091176437545364</v>
+        <v>0.1036297242160615</v>
       </c>
       <c r="M216" t="n">
-        <v>0.24688009215601</v>
+        <v>0.1288152302583904</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1725894276542094</v>
+        <v>0.1631204535844075</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2478428395955348</v>
+        <v>0.1286736954267387</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02162055802444035</v>
+        <v>0.007001538995570024</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2466970557679294</v>
+        <v>0.04802634768299994</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04655112665033112</v>
+        <v>0.04433117925953847</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2486754055006134</v>
+        <v>0.1319259937973609</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1096747515534447</v>
+        <v>0.1042813923311938</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2485150596537319</v>
+        <v>0.1296683112534791</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1726822412340499</v>
+        <v>0.1633445138812383</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2494841829041144</v>
+        <v>0.1295258391050615</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02163023514153063</v>
+        <v>0.006781055408269072</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2483200627137711</v>
+        <v>0.04800301361925031</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04667182667688732</v>
+        <v>0.0440103308231673</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2503114279052228</v>
+        <v>0.1327939279670804</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1089231047570224</v>
+        <v>0.1039339319869948</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2501500271514539</v>
+        <v>0.1305213922485678</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1723611905293133</v>
+        <v>0.1630699358135499</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2511255262126941</v>
+        <v>0.1303779827833843</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02363803115338717</v>
+        <v>0.006565336660919609</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2499430696596127</v>
+        <v>0.04797967955550067</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04668875766886831</v>
+        <v>0.04418985805011444</v>
       </c>
       <c r="K219" t="n">
-        <v>0.251947450309832</v>
+        <v>0.1336618621367999</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1094626086939592</v>
+        <v>0.1033872496216551</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2517849946491758</v>
+        <v>0.1313744732436564</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1730261247294531</v>
+        <v>0.1632965725534042</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2527668695212739</v>
+        <v>0.1312301264617071</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02264392615443302</v>
+        <v>0.006354883523970997</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2515660766054544</v>
+        <v>0.04795634549175104</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04660187926552008</v>
+        <v>0.04416971901387265</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2535834727144413</v>
+        <v>0.1345297963065194</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1090931686929449</v>
+        <v>0.1039412516733654</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2534199621468977</v>
+        <v>0.1322275542387451</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1731768930239232</v>
+        <v>0.1626242772728638</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2544082128298535</v>
+        <v>0.1320822701400299</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0236479002390912</v>
+        <v>0.006150196767872602</v>
       </c>
       <c r="G221" t="n">
-        <v>0.253189083551296</v>
+        <v>0.0479330114280014</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04671115110608859</v>
+        <v>0.04424987178793463</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2552194951190506</v>
+        <v>0.1353977304762389</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1093146900826691</v>
+        <v>0.1041958445803162</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2550549296446196</v>
+        <v>0.1330806352338338</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1719133446021777</v>
+        <v>0.1637529031439904</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2560495561384332</v>
+        <v>0.1329344138183526</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02364993350178474</v>
+        <v>0.005951777163073796</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2548120904971376</v>
+        <v>0.04790967736425177</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04681653282981976</v>
+        <v>0.04433027444579314</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2568555175236599</v>
+        <v>0.1362656646459584</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1098270781918216</v>
+        <v>0.103750934780698</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2566898971423416</v>
+        <v>0.1339337162289225</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1729353286536703</v>
+        <v>0.1622823033388462</v>
       </c>
       <c r="O222" t="n">
-        <v>0.257690899447013</v>
+        <v>0.1337865574966754</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02164363964349517</v>
+        <v>0.005760125480023949</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2564350974429793</v>
+        <v>0.04788634330050213</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04641691552219616</v>
+        <v>0.04421088506094092</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2584915399282692</v>
+        <v>0.1371335988156778</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1097266320886524</v>
+        <v>0.1030064287127017</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2583248646400634</v>
+        <v>0.1347867972240112</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1732426943678551</v>
+        <v>0.1639123310294933</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2593322427555926</v>
+        <v>0.1346387011749982</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02158671120365318</v>
+        <v>0.005575742489172419</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2580581043888209</v>
+        <v>0.0478630092367525</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04634053715135719</v>
+        <v>0.04389166170687069</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2601275623328785</v>
+        <v>0.1380015329853973</v>
       </c>
       <c r="L224" t="n">
-        <v>0.109340045969497</v>
+        <v>0.1029622328145176</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2599598321377854</v>
+        <v>0.1356398782190999</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1725170348146305</v>
+        <v>0.1624428393879937</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2609735860641724</v>
+        <v>0.1354908448533209</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02347647486046048</v>
+        <v>0.005399128960968565</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2596811113346625</v>
+        <v>0.04783967517300286</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04615292708784392</v>
+        <v>0.04407256245707518</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2617635847374878</v>
+        <v>0.1388694671551168</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1086931450420802</v>
+        <v>0.1032182535243363</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2615947996355073</v>
+        <v>0.1364929592141885</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1711710018980082</v>
+        <v>0.1626736815864097</v>
       </c>
       <c r="O225" t="n">
-        <v>0.262614929372752</v>
+        <v>0.1363429885316437</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02131913604580962</v>
+        <v>0.005230785665861777</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2613041182805042</v>
+        <v>0.04781634110925323</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04626666752964381</v>
+        <v>0.04395354538504716</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2633996071420971</v>
+        <v>0.1397374013248363</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1081154424608924</v>
+        <v>0.1033743972803487</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2632297671332292</v>
+        <v>0.1373460402092772</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1699516097668964</v>
+        <v>0.1631047107968031</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2642562726813318</v>
+        <v>0.1371951322099665</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02212090019159318</v>
+        <v>0.0050712133743014</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2629271252263458</v>
+        <v>0.04779300704550359</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04559434067474435</v>
+        <v>0.04403456856427931</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2650356295467064</v>
+        <v>0.1406053354945558</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1070364513804234</v>
+        <v>0.103730570520745</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2648647346309511</v>
+        <v>0.1381991212043659</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1695058726110593</v>
+        <v>0.1635357801912362</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2658976159899115</v>
+        <v>0.1380472758882892</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02088797272970371</v>
+        <v>0.004920912856736806</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2645501321721875</v>
+        <v>0.04776967298175396</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04544852872113302</v>
+        <v>0.04381559006826444</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2666716519513157</v>
+        <v>0.1414732696642752</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1061856849551636</v>
+        <v>0.1027866796837161</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2664997021286731</v>
+        <v>0.1390522021994545</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1679808046202603</v>
+        <v>0.1620667429417711</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2675389592984911</v>
+        <v>0.138899419566612</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02162655909203379</v>
+        <v>0.004780384883617365</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2661731391180291</v>
+        <v>0.04774633891800432</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04454181386679724</v>
+        <v>0.04389656797049525</v>
       </c>
       <c r="K229" t="n">
-        <v>0.268307674355925</v>
+        <v>0.1423412038339947</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1055926563396028</v>
+        <v>0.1034426312074523</v>
       </c>
       <c r="M229" t="n">
-        <v>0.268134669626395</v>
+        <v>0.1399052831945432</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1658234199842637</v>
+        <v>0.1621974522204698</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2691803026070709</v>
+        <v>0.1397515632449348</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02234286471047598</v>
+        <v>0.004650130225392443</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2677961460638708</v>
+        <v>0.04772300485425469</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04418677830972453</v>
+        <v>0.04377746034446446</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2699436967605343</v>
+        <v>0.1432091380037142</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1039868786882312</v>
+        <v>0.1034983315301445</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2697696371241169</v>
+        <v>0.1407583641896319</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1633807328928332</v>
+        <v>0.1627277611993945</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2708216459156506</v>
+        <v>0.1406037069232576</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02004309501692282</v>
+        <v>0.004530649652511397</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2694191530097124</v>
+        <v>0.04769967079050506</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0434960042479024</v>
+        <v>0.04415822526366482</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2715797191651436</v>
+        <v>0.1440770721734337</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1022978651555389</v>
+        <v>0.1028536870899832</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2714046046218388</v>
+        <v>0.1416114451847206</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1619997575357328</v>
+        <v>0.162857523050607</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2724629892242302</v>
+        <v>0.1414558506015803</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02073345544326689</v>
+        <v>0.004422443935423612</v>
       </c>
       <c r="G232" t="n">
-        <v>0.271042159955554</v>
+        <v>0.04767633672675542</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04288207387931824</v>
+        <v>0.04403882080158909</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2732157415697529</v>
+        <v>0.1449450063431531</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1011551288960159</v>
+        <v>0.1034086043251588</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2730395721195608</v>
+        <v>0.1424645261798093</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1591275081027264</v>
+        <v>0.1625865909461698</v>
       </c>
       <c r="O232" t="n">
-        <v>0.27410433253281</v>
+        <v>0.1423079942799031</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02042015142140077</v>
+        <v>0.004326013844578432</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2726651669013956</v>
+        <v>0.04765300266300578</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04215756940195955</v>
+        <v>0.04411920503172999</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2748517639743622</v>
+        <v>0.1458129405128726</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09988818306415234</v>
+        <v>0.1028631224954911</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2746745396172827</v>
+        <v>0.143317607174898</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1565109987835777</v>
+        <v>0.1624150558274763</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2757456758413896</v>
+        <v>0.1431601379582259</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01910938838321699</v>
+        <v>0.004241860150425235</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2742881738472373</v>
+        <v>0.04762966859925615</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04153507301381384</v>
+        <v>0.04389954795935032</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2764877863789715</v>
+        <v>0.1466808746825921</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09792654081443825</v>
+        <v>0.102917927138775</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2763095071150046</v>
+        <v>0.1441706881699866</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1539972437680508</v>
+        <v>0.1614439951038357</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2773870191499693</v>
+        <v>0.1440122816365487</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01880737176060813</v>
+        <v>0.004170483623413393</v>
       </c>
       <c r="G235" t="n">
-        <v>0.275911180793079</v>
+        <v>0.04760633453550651</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04092716691286857</v>
+        <v>0.04408006729970086</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2781238087835808</v>
+        <v>0.1475488088523116</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09629971530136372</v>
+        <v>0.1033731367606298</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2779444746127265</v>
+        <v>0.1450237691650753</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1528332572459095</v>
+        <v>0.1616735710386099</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2790283624585491</v>
+        <v>0.1448644253148714</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01852030698546676</v>
+        <v>0.004112385033992264</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2775341877389206</v>
+        <v>0.04758300047175688</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0405464332971112</v>
+        <v>0.04376076678207221</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2797598311881901</v>
+        <v>0.1484167430220311</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09553721967941883</v>
+        <v>0.1026287594804446</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2795794421104484</v>
+        <v>0.145876850160164</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1497660534069179</v>
+        <v>0.1623037963736774</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2806697057671287</v>
+        <v>0.1457165689931942</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01825439948968543</v>
+        <v>0.004068065152611211</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2791571946847622</v>
+        <v>0.04755966640800725</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04010545436452921</v>
+        <v>0.04374165004488947</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2813958535927994</v>
+        <v>0.1492846771917505</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09416856710309368</v>
+        <v>0.1027848034176091</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2812144096081703</v>
+        <v>0.1467299311552527</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1476426464408396</v>
+        <v>0.1626346838509166</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2823110490757084</v>
+        <v>0.146568712671517</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01800762565016777</v>
+        <v>0.004038024749719607</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2807802016306039</v>
+        <v>0.04753633234425761</v>
       </c>
       <c r="J238" t="n">
-        <v>0.039408676655553</v>
+        <v>0.04402272072657779</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2830318759974087</v>
+        <v>0.15015261136147</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09280285074420774</v>
+        <v>0.1034412766915123</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2828493771058923</v>
+        <v>0.1475830121503414</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1454892146014646</v>
+        <v>0.1612662462122058</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2839523923842882</v>
+        <v>0.1474208563498398</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01876106222989811</v>
+        <v>0.004022764595766816</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2824032085764455</v>
+        <v>0.04751299828050798</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0388170421189193</v>
+        <v>0.04360398246556224</v>
       </c>
       <c r="K239" t="n">
-        <v>0.284667898402018</v>
+        <v>0.1510205455311895</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09104809878442457</v>
+        <v>0.1026981874215438</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2844843446036142</v>
+        <v>0.14843609314543</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1439646529045342</v>
+        <v>0.1625984961994235</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2855937356928678</v>
+        <v>0.1482730000281625</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0185135656835317</v>
+        <v>0.004020841925684956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2840262155222872</v>
+        <v>0.04748966421675834</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03842353654659068</v>
+        <v>0.04378543890026797</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2863039208066273</v>
+        <v>0.151888479700909</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09078895411164192</v>
+        <v>0.1030555437270928</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2861193121013361</v>
+        <v>0.1492891741405187</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1433331316535876</v>
+        <v>0.162531446554448</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2872350790014475</v>
+        <v>0.1491251437064853</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01726512131017027</v>
+        <v>0.004021058317888238</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2856492224681288</v>
+        <v>0.0474663301530087</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03812813013087353</v>
+        <v>0.04356709366912008</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2879399432112366</v>
+        <v>0.1527564138706285</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08912534680810247</v>
+        <v>0.1033133537275488</v>
       </c>
       <c r="M241" t="n">
-        <v>0.287754279599058</v>
+        <v>0.1501422551356074</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1401945394702656</v>
+        <v>0.1626651100191577</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2888764223100272</v>
+        <v>0.1499772873848081</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01701571440891557</v>
+        <v>0.004021873950039084</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2872722294139704</v>
+        <v>0.04744299608925907</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03763079306407421</v>
+        <v>0.04374895041054365</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2895759656158459</v>
+        <v>0.1536243480403479</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0881572069560487</v>
+        <v>0.102371625542301</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2893892470967799</v>
+        <v>0.1509953361306961</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1396487649762095</v>
+        <v>0.161699499335431</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2905177656186069</v>
+        <v>0.1508294310631308</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01876533027886931</v>
+        <v>0.004023688315435869</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2888952363598121</v>
+        <v>0.04741966202550944</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03693149553849913</v>
+        <v>0.04393101276296385</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2912119880204552</v>
+        <v>0.1544922822100674</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08648446463772322</v>
+        <v>0.1030303672907389</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2910242145945019</v>
+        <v>0.1518484171257847</v>
       </c>
       <c r="N243" t="n">
-        <v>0.13659569679306</v>
+        <v>0.1622346272451461</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2921591089271867</v>
+        <v>0.1516815747414536</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01751395421913322</v>
+        <v>0.004026900907376958</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2905182433056537</v>
+        <v>0.0473963279617598</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03663020774645463</v>
+        <v>0.04361328436480574</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2928480104250645</v>
+        <v>0.1553602163797869</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08620704993536857</v>
+        <v>0.1028895870922519</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2926591820922238</v>
+        <v>0.1527014981208734</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1360352235424582</v>
+        <v>0.1621705064901817</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2938004522357664</v>
+        <v>0.1525337184197764</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01626157152880903</v>
+        <v>0.00403191121916073</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2921412502514953</v>
+        <v>0.04737299389801017</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03582689988024712</v>
+        <v>0.04379576885449446</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2944840328296738</v>
+        <v>0.1562281505495064</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08482489293122733</v>
+        <v>0.1030492930662291</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2942941495899458</v>
+        <v>0.1535545791159621</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1330672338460452</v>
+        <v>0.161707149812416</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2954417955443461</v>
+        <v>0.1533858620980992</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01600816750699847</v>
+        <v>0.004039118744085572</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293764257197337</v>
+        <v>0.04734965983426053</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03562154213218292</v>
+        <v>0.04387846987045511</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2961200552342831</v>
+        <v>0.1570960847192259</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08303792370754204</v>
+        <v>0.1024094933320601</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2959291170876676</v>
+        <v>0.1544076601110508</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1308916163254619</v>
+        <v>0.1607445699537273</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2970831388529258</v>
+        <v>0.1542380057764219</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01775372745280326</v>
+        <v>0.004048922975449835</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2953872641431787</v>
+        <v>0.0473263257705109</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03491410469456849</v>
+        <v>0.04376139105111281</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2977560776388924</v>
+        <v>0.1579640188889453</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0826460723465553</v>
+        <v>0.1022701960091341</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2975640845853896</v>
+        <v>0.1552607411061395</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1301082596023493</v>
+        <v>0.1613827796559941</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2987244821615055</v>
+        <v>0.1550901494547447</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01749823666532513</v>
+        <v>0.004061723406551906</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2970102710890203</v>
+        <v>0.04730299170676126</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03470455775971013</v>
+        <v>0.04344453603489268</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2993921000435017</v>
+        <v>0.1588319530586648</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0812492689305096</v>
+        <v>0.1021314092168406</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2991990520831115</v>
+        <v>0.1561138221012282</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1270170522983485</v>
+        <v>0.1605217916610947</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3003658254700852</v>
+        <v>0.1559422931330675</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01724168044366581</v>
+        <v>0.004077919530690158</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2986332780348619</v>
+        <v>0.04727965764301163</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03419287151991425</v>
+        <v>0.04342790846021981</v>
       </c>
       <c r="K249" t="n">
-        <v>0.301028122448111</v>
+        <v>0.1596998872283843</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07934744354164752</v>
+        <v>0.1027931410745689</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3008340195808334</v>
+        <v>0.1569669030963168</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1255178830351004</v>
+        <v>0.1617616187109076</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3020071687786648</v>
+        <v>0.1567944368113903</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01598404408692702</v>
+        <v>0.004097910841162962</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3002562849807036</v>
+        <v>0.047256323579262</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03327901616748723</v>
+        <v>0.0434115119655193</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3026641448527203</v>
+        <v>0.1605678213981038</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07804052626221175</v>
+        <v>0.1021553997017082</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3024689870785553</v>
+        <v>0.1578199840914055</v>
       </c>
       <c r="N250" t="n">
-        <v>0.123110640434246</v>
+        <v>0.161402273547311</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3036485120872446</v>
+        <v>0.157646580489713</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0157253128942105</v>
+        <v>0.004122096831268705</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3018792919265452</v>
+        <v>0.04723298951551236</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03306296189473543</v>
+        <v>0.04339535018921629</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3043001672573296</v>
+        <v>0.1614357555678233</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07712844717444464</v>
+        <v>0.1025181932176482</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3041039545762773</v>
+        <v>0.1586730650864942</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1224952131174263</v>
+        <v>0.1610437689121835</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3052898553958243</v>
+        <v>0.1584987241680358</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01546547216461797</v>
+        <v>0.00415087699430574</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3035022988723868</v>
+        <v>0.04720965545176272</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03234467889396521</v>
+        <v>0.04377942676973588</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3059361896619389</v>
+        <v>0.1623036897375428</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0757111363605889</v>
+        <v>0.1023815297417779</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3057389220739992</v>
+        <v>0.1595261460815828</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1196714897062824</v>
+        <v>0.1619861175474033</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3069311987044039</v>
+        <v>0.1593508678463586</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01520450719725115</v>
+        <v>0.004184650823572451</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3051253058182285</v>
+        <v>0.04718632138801309</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03212413735748298</v>
+        <v>0.0433637453455032</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3075722120665482</v>
+        <v>0.1631716239072622</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07478852390288704</v>
+        <v>0.1024454173934869</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3073738895717211</v>
+        <v>0.1603792270766715</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1184393588224551</v>
+        <v>0.1606293321948488</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3085725420129837</v>
+        <v>0.1602030115246814</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01394240329121179</v>
+        <v>0.00422381781236722</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3067483127640701</v>
+        <v>0.04716298732426345</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03120130747759511</v>
+        <v>0.04354830955494335</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3092082344711575</v>
+        <v>0.1640395580769817</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07426053988358172</v>
+        <v>0.1025098642921644</v>
       </c>
       <c r="M254" t="n">
-        <v>0.309008857069443</v>
+        <v>0.1612323080717602</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1167987090875857</v>
+        <v>0.1610734255963985</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3102138853215634</v>
+        <v>0.1610551552030041</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01367914574560158</v>
+        <v>0.004268777453988404</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3083713197099118</v>
+        <v>0.04713965326051382</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03087615944660797</v>
+        <v>0.04343312303648143</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3108442568757668</v>
+        <v>0.1649074922467012</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07202711438491535</v>
+        <v>0.1017748785571999</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3106438245671649</v>
+        <v>0.1620853890668489</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1139494291233149</v>
+        <v>0.1602184104939307</v>
       </c>
       <c r="O255" t="n">
-        <v>0.311855228630143</v>
+        <v>0.1619072988813269</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01541471985952229</v>
+        <v>0.004319929241734403</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3099943266557534</v>
+        <v>0.04711631919676419</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03044866345682797</v>
+        <v>0.04331818942854256</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3124802792803761</v>
+        <v>0.1657754264164207</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07118817748913059</v>
+        <v>0.1019404683079826</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3122787920648868</v>
+        <v>0.1629384700619376</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1120914075512838</v>
+        <v>0.1602642996293236</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3134965719387228</v>
+        <v>0.1627594425596497</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01514911093207563</v>
+        <v>0.004377672668903564</v>
       </c>
       <c r="G257" t="n">
-        <v>0.311617333601595</v>
+        <v>0.04709298513301455</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0299187897005614</v>
+        <v>0.04360351236955184</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3141163016849854</v>
+        <v>0.1666433605861402</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07034365927847</v>
+        <v>0.102306641663902</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3139137595626088</v>
+        <v>0.1637915510570263</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1104245329931335</v>
+        <v>0.1612111057444559</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3151379152473024</v>
+        <v>0.1636115862379724</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01388230426236332</v>
+        <v>0.004442407228794278</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3132403405474367</v>
+        <v>0.04706965106926492</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02928650837011472</v>
+        <v>0.04368909549793441</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3157523240895947</v>
+        <v>0.1675112947558596</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06829348983517608</v>
+        <v>0.1015734067443474</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3155487270603307</v>
+        <v>0.1646446320521149</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1077486940705048</v>
+        <v>0.1609588415812058</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3167792585558821</v>
+        <v>0.1644637299162952</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01361428514948709</v>
+        <v>0.004514532414704904</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3148633474932783</v>
+        <v>0.04704631700551528</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02875178965779425</v>
+        <v>0.04347494245211536</v>
       </c>
       <c r="K259" t="n">
-        <v>0.317388346494204</v>
+        <v>0.1683792289255791</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06733759924149144</v>
+        <v>0.1026407716687082</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3171836945580526</v>
+        <v>0.1654977130472036</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1071637794050389</v>
+        <v>0.1606075198814517</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3184206018644619</v>
+        <v>0.165315873594618</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01434503889254868</v>
+        <v>0.004594447719933836</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3164863544391199</v>
+        <v>0.04702298294176564</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02801460375590643</v>
+        <v>0.0433610568705198</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3190243688988133</v>
+        <v>0.1692471630952986</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06577591757965862</v>
+        <v>0.1026087445563736</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3188186620557745</v>
+        <v>0.1663507940422923</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1034696776183768</v>
+        <v>0.160357153387072</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3200619451730415</v>
+        <v>0.1661680172729408</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01207455079064979</v>
+        <v>0.004682552637779433</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3181093613849616</v>
+        <v>0.04699964887801601</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02747492085675757</v>
+        <v>0.04354744239157286</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3206603913034226</v>
+        <v>0.1701150972650181</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06440837493192025</v>
+        <v>0.1022773335267331</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3204536295534964</v>
+        <v>0.1672038750373809</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1019662773321593</v>
+        <v>0.160907754839945</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3217032884816213</v>
+        <v>0.1670201609512635</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01380280614289218</v>
+        <v>0.004779246661540081</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3197323683308033</v>
+        <v>0.04697631481426637</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02703271115265408</v>
+        <v>0.04363410265369966</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3222964137080319</v>
+        <v>0.1709830314347375</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06393490138051874</v>
+        <v>0.1015465466991761</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3220885970512183</v>
+        <v>0.1680569560324696</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1002534671680275</v>
+        <v>0.1601593369819492</v>
       </c>
       <c r="O262" t="n">
-        <v>0.323344631790201</v>
+        <v>0.1678723046295863</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01152979024837757</v>
+        <v>0.004884929284514145</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3213553752766449</v>
+        <v>0.04695298075051674</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02678794483590233</v>
+        <v>0.04322104129532525</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3239324361126412</v>
+        <v>0.171850965604457</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06205542700769681</v>
+        <v>0.1019163921930918</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3237235645489403</v>
+        <v>0.1689100370275583</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09873113574762254</v>
+        <v>0.1607119125549629</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3249859750987807</v>
+        <v>0.1687244483079091</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01325548840620767</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3229783822224865</v>
+        <v>0.04692964668676711</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02624059209880868</v>
+        <v>0.04330826195487482</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3255684585172505</v>
+        <v>0.1727188997741765</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06106988189569695</v>
+        <v>0.1020868781278697</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3253585320466622</v>
+        <v>0.169763118022647</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09629917169258523</v>
+        <v>0.1601654943008645</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3266273184073604</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1695765919862318</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04691648879203027</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00529062449787121</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04691675732049428</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005578559900777803</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0469170258489583</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005863733884678375</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04691729437742231</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006146074125556476</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04691756290588633</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006425508299370955</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04691783143435035</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006701964082105112</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04691809996281437</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006975369149718046</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04691836849127838</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007245651178192786</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.0469186370197424</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007512737843488701</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04691890554820641</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007776556821588572</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04691917407667043</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008037035788452031</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04691944260513446</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008294102420061553</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04691971113359848</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008547684392377096</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04691997966206249</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008797709381380817</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04692024819052651</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009044105063032992</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04692051671899052</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009286799113315453</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04692078524745454</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009525719208188788</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04692105377591856</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009760793023629449</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04692132230438257</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009991948235613571</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04692159083284659</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01021911252010222</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0469218593613106</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01044221355307642</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04692212788977462</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0106611790104976</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04692239641823864</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01087593656834642</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04692266494670266</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01108641390258468</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04692293347516668</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01129283401231052</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0469232020036307</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01149689651219325</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04692347053209471</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01169882440133078</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04692373906055873</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01189854535568547</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04692400758902274</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01209598705123713</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04692427611748676</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0122910771639483</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04692454464595078</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01248374336979862</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0469248131744148</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01267391334475082</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04692508170287881</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01286151476478028</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04692535023134283</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01304647530586212</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04692561875980685</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01322872264395943</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04692588728827086</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01340818445505126</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04692615581673489</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01358478841510095</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0469264243451989</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01375846220008732</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04692669287366292</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01392913348597396</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04692696140212693</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01409672994873941</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04692722993059095</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01426117926434751</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04692749845905497</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442240910877658</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04692776698751899</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01458034715799072</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.046928035515983</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01473492108796794</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04692830404444702</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01488605857467264</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04692857257291103</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01503368729408253</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04692884110137505</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01517773492216234</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04692910962983907</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01531812913488945</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04692937815830309</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01545479760822892</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04692964668676711</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01545479760822892</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04691648879203027</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01557215143967395</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04694035991270793</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01568802791178586</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0469642310333856</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01580213025074933</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04698810215406327</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01591416168274906</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04701197327474094</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01602382543396975</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04703584439541861</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01613082473059606</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04705971551609628</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01623486279881271</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04708358663677395</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01633564286480436</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04710745775745162</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0164328681547557</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04713132887812928</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01652624189485145</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04715519999880696</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01661546731127629</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04717907111948463</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0167002476302149</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04720294224016229</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01678028607785197</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04722681336083996</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01685528588037219</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04725068448151763</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01692495026396026</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0472745556021953</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01698898245480084</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04729842672287297</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01704708567907864</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04732229784355064</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01709896316297836</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04734616896422831</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01714431813268467</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04737004008490598</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01718285381438225</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04739391120558365</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01721427343425582</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04741778232626132</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01723828021849006</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04744165344693899</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01725457739326965</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04746552456761666</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01726286818477928</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04748939568829433</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01726391543329282</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04751326680897199</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01726383712915134</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04753713792964966</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01726354198277189</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04756100905032733</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01726288543266249</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.047584880171005</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01726172291733118</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04760875129168267</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01725990987528597</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04763262241236034</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01725730174503489</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.047656493533038</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01725375396508596</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04768036465371567</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01724912197394721</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04770423577439335</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01724326121012665</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04772810689507102</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01723602711213231</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04775197801574869</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01722727511847222</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04777584913642635</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0172168606676544</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04779972025710402</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01720463919818686</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04782359137778169</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01719046614857764</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04784746249845936</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01717419695733476</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04787133361913704</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01715568706296624</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0478952047398147</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01713479190398011</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04791907586049236</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01711136691888437</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04794294698117003</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01708526754618708</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04796681810184771</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01705634922439623</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04799068922252538</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01702446739201986</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04801456034320304</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01698947748756599</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04803843146388071</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01695123494954264</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04806230258455838</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01690959521645784</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04808617370523605</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01690959521645784</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04808617370523605</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01725080679034964</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04966851820647365</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01758522113579018</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05125086270771125</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01791269307314913</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05283320720894885</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01823307742279624</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05441555171018646</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01854622900510117</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05599789621142405</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01885200264043365</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05758024071266165</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01915025314916337</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05916258521389926</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01944083535166002</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06074492971513686</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01972360406829334</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06232727421637446</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01999841411943298</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06390961871761205</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02026512032544869</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06549196321884965</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02052357750671015</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06707430772008725</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02077364048358708</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06865665222132486</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02101516407644916</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07023899672256247</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02124800310566609</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07182134122380006</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02147201239160759</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07340368572503765</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02168704675464335</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07498603022627526</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02189296101514308</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07656837472751285</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02208960999347648</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07815071922875046</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02227684851001325</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.07973306372998805</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02245453138512309</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08131540823122566</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02262251343917571</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08289775273246326</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02278064949254082</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08448009723370085</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.0229287943655881</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08606244173493846</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02306680287868727</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08764478623617605</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02319452985220802</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08922713073741366</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02331183010652007</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09080947523865127</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02341855846199309</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09239181973988886</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02351456973899681</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09397416424112645</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02359971875790093</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09555650874236406</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02367386033907515</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09713885324360165</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02373684930288916</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09872119774483927</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02378854046971268</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1003035422460768</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02382878865991541</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1018858867473145</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02385744869386703</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1034682312485521</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02387946028861046</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1050505757497897</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02387944356093103</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1066329202510273</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02387635279195142</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1082152647522649</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02386819233695005</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1097976092535024</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0238553472310088</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1113799537547401</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02383820250920952</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1129622982559777</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02381714320663408</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1145446427572153</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02379255435836435</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1161269872584529</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02376482099948218</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1177093317596904</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02373432816506945</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1192916762609281</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02370146089020801</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1208740207621656</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02366660420997973</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1224563652634033</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02363014315946647</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1240387097646409</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0235924627737501</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1256210542658784</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02355394808791248</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1272033987671161</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02351472446581807</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1287857432683537</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02346325348300977</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1303680877695913</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02339605470156</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1319504322708289</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02331713317466982</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1335327767720665</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02323049395554019</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1351151212733041</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02314014209737214</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1366974657745417</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02305008265336668</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1382798102757793</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.0229643206767248</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1398621547770169</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02288686122064754</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1414444992782544</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02282170933833588</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1430268437794921</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02277287008299083</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1446091882807297</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02273635694626864</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1461915327819673</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02270207513082874</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1477738772832049</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02266980605251628</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02263942137383704</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1509385662856801</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02261079275729676</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1525209107869177</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02258379186540121</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1541032552881552</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02255829036065614</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1556855997893929</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0225341599055673</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1572679442906305</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02251127216264046</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.158850288791868</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02248949879438136</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1604326332931057</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02246871146329577</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1620149777943433</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02244878183188943</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1635973222955809</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02242958156266812</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1651796667968185</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02241098231813758</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.166762011298056</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02239285576080358</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1683443557992937</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02237507355317186</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1699267003005313</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02235750735774817</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1715090448017688</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0223400288370383</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1730913893030065</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02232250965354798</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1746737338042441</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02230482146978299</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1762560783054817</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02228683594824905</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1778384228067193</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02226880064973235</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1794207673079569</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02225106675203992</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1810031118091945</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02223364541238636</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.182585456310432</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02221654776803044</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1841678008116697</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02219978495623099</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1857501453129073</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02218336811424679</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1873324898141449</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02216730837933664</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1889148343153825</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02215161688875934</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1904971788166201</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02213630477977368</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1920795233178577</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02212138318963847</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1936618678190953</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02210686325561248</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1952442123203328</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02209275611495452</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1968265568215705</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02207907290492341</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1984089013228081</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02206582476277791</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1999912458240457</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02205302282577684</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2015735903252833</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02204067823117899</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2031559348265209</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02202880211624315</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2047382793277585</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
